--- a/applets/maps-info/data/data-all-together.xlsx
+++ b/applets/maps-info/data/data-all-together.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlos/Documents/GitHub/complex-analysis.github.io/applets/maps-info/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99585EB9-3B33-274B-89C4-A8BF8EBD1A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038B1D1A-C3B5-3A4A-8142-D7DCCE2C443F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53640" yWindow="2200" windowWidth="33600" windowHeight="18400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="278">
   <si>
     <t>Todos los datos de sitios web</t>
   </si>
@@ -751,6 +751,126 @@
   </si>
   <si>
     <t>, value:</t>
+  </si>
+  <si>
+    <t>},</t>
+  </si>
+  <si>
+    <t>"BR"</t>
+  </si>
+  <si>
+    <t>"BD"</t>
+  </si>
+  <si>
+    <t>"CL"</t>
+  </si>
+  <si>
+    <t>"FR"</t>
+  </si>
+  <si>
+    <t>"NL"</t>
+  </si>
+  <si>
+    <t>"HK"</t>
+  </si>
+  <si>
+    <t>"ID"</t>
+  </si>
+  <si>
+    <t>"NG"</t>
+  </si>
+  <si>
+    <t>"JP"</t>
+  </si>
+  <si>
+    <t>"IL"</t>
+  </si>
+  <si>
+    <t>"EC"</t>
+  </si>
+  <si>
+    <t>"RU"</t>
+  </si>
+  <si>
+    <t>"MY"</t>
+  </si>
+  <si>
+    <t>"TW"</t>
+  </si>
+  <si>
+    <t>"CH"</t>
+  </si>
+  <si>
+    <t>"ZA"</t>
+  </si>
+  <si>
+    <t>"PL"</t>
+  </si>
+  <si>
+    <t>"SG"</t>
+  </si>
+  <si>
+    <t>"KE"</t>
+  </si>
+  <si>
+    <t>"SE"</t>
+  </si>
+  <si>
+    <t>"IR"</t>
+  </si>
+  <si>
+    <t>"IQ"</t>
+  </si>
+  <si>
+    <t>"GR"</t>
+  </si>
+  <si>
+    <t>"LK"</t>
+  </si>
+  <si>
+    <t>"TH"</t>
+  </si>
+  <si>
+    <t>"VE"</t>
+  </si>
+  <si>
+    <t>"DO"</t>
+  </si>
+  <si>
+    <t>"ET"</t>
+  </si>
+  <si>
+    <t>"DK"</t>
+  </si>
+  <si>
+    <t>"SA"</t>
+  </si>
+  <si>
+    <t>"NO"</t>
+  </si>
+  <si>
+    <t>"EG"</t>
+  </si>
+  <si>
+    <t>"IE"</t>
+  </si>
+  <si>
+    <t>"BO"</t>
+  </si>
+  <si>
+    <t>"BE"</t>
+  </si>
+  <si>
+    <t>"VN"</t>
+  </si>
+  <si>
+    <t>"FI"</t>
+  </si>
+  <si>
+    <t>"PT"</t>
+  </si>
+  <si>
+    <t>"RO"</t>
   </si>
 </sst>
 </file>
@@ -7537,8 +7657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F58D68-E831-3741-BC0B-74DEACB0FFF1}">
   <dimension ref="A1:M196"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8324,6 +8444,9 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>239</v>
+      </c>
       <c r="B19" t="s">
         <v>31</v>
       </c>
@@ -8364,6 +8487,9 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>240</v>
+      </c>
       <c r="B20" t="s">
         <v>32</v>
       </c>
@@ -8404,6 +8530,9 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>241</v>
+      </c>
       <c r="B21" t="s">
         <v>33</v>
       </c>
@@ -8444,6 +8573,9 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>242</v>
+      </c>
       <c r="B22" t="s">
         <v>34</v>
       </c>
@@ -8484,6 +8616,9 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>243</v>
+      </c>
       <c r="B23" t="s">
         <v>35</v>
       </c>
@@ -8524,6 +8659,9 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>244</v>
+      </c>
       <c r="B24" t="s">
         <v>36</v>
       </c>
@@ -8564,6 +8702,9 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>246</v>
+      </c>
       <c r="B25" t="s">
         <v>37</v>
       </c>
@@ -8604,6 +8745,9 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>245</v>
+      </c>
       <c r="B26" t="s">
         <v>38</v>
       </c>
@@ -8644,6 +8788,9 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>247</v>
+      </c>
       <c r="B27" t="s">
         <v>39</v>
       </c>
@@ -8684,6 +8831,9 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>248</v>
+      </c>
       <c r="B28" t="s">
         <v>40</v>
       </c>
@@ -8724,6 +8874,9 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>249</v>
+      </c>
       <c r="B29" t="s">
         <v>41</v>
       </c>
@@ -8764,6 +8917,9 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>250</v>
+      </c>
       <c r="B30" t="s">
         <v>42</v>
       </c>
@@ -8804,6 +8960,9 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>251</v>
+      </c>
       <c r="B31" t="s">
         <v>43</v>
       </c>
@@ -8844,6 +9003,9 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>252</v>
+      </c>
       <c r="B32" t="s">
         <v>44</v>
       </c>
@@ -8883,7 +9045,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>253</v>
+      </c>
       <c r="B33" t="s">
         <v>45</v>
       </c>
@@ -8923,7 +9088,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>254</v>
+      </c>
       <c r="B34" t="s">
         <v>46</v>
       </c>
@@ -8963,7 +9131,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>255</v>
+      </c>
       <c r="B35" t="s">
         <v>47</v>
       </c>
@@ -9003,7 +9174,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>256</v>
+      </c>
       <c r="B36" t="s">
         <v>48</v>
       </c>
@@ -9043,7 +9217,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>257</v>
+      </c>
       <c r="B37" t="s">
         <v>49</v>
       </c>
@@ -9083,7 +9260,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>258</v>
+      </c>
       <c r="B38" t="s">
         <v>50</v>
       </c>
@@ -9123,7 +9303,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>259</v>
+      </c>
       <c r="B39" t="s">
         <v>51</v>
       </c>
@@ -9163,7 +9346,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>260</v>
+      </c>
       <c r="B40" t="s">
         <v>52</v>
       </c>
@@ -9203,7 +9389,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>261</v>
+      </c>
       <c r="B41" t="s">
         <v>53</v>
       </c>
@@ -9243,7 +9432,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>262</v>
+      </c>
       <c r="B42" t="s">
         <v>54</v>
       </c>
@@ -9283,7 +9475,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>263</v>
+      </c>
       <c r="B43" t="s">
         <v>55</v>
       </c>
@@ -9323,7 +9518,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>264</v>
+      </c>
       <c r="B44" t="s">
         <v>56</v>
       </c>
@@ -9363,7 +9561,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>265</v>
+      </c>
       <c r="B45" t="s">
         <v>57</v>
       </c>
@@ -9403,7 +9604,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>266</v>
+      </c>
       <c r="B46" t="s">
         <v>58</v>
       </c>
@@ -9443,7 +9647,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>267</v>
+      </c>
       <c r="B47" t="s">
         <v>59</v>
       </c>
@@ -9483,7 +9690,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>268</v>
+      </c>
       <c r="B48" t="s">
         <v>60</v>
       </c>
@@ -9523,7 +9733,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>269</v>
+      </c>
       <c r="B49" t="s">
         <v>61</v>
       </c>
@@ -9563,7 +9776,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>270</v>
+      </c>
       <c r="B50" t="s">
         <v>62</v>
       </c>
@@ -9603,7 +9819,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>271</v>
+      </c>
       <c r="B51" t="s">
         <v>63</v>
       </c>
@@ -9643,7 +9862,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>272</v>
+      </c>
       <c r="B52" t="s">
         <v>64</v>
       </c>
@@ -9683,7 +9905,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>273</v>
+      </c>
       <c r="B53" t="s">
         <v>65</v>
       </c>
@@ -9723,7 +9948,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>274</v>
+      </c>
       <c r="B54" t="s">
         <v>66</v>
       </c>
@@ -9763,7 +9991,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>275</v>
+      </c>
       <c r="B55" t="s">
         <v>67</v>
       </c>
@@ -9803,7 +10034,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>276</v>
+      </c>
       <c r="B56" t="s">
         <v>68</v>
       </c>
@@ -9843,7 +10077,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>277</v>
+      </c>
       <c r="B57" t="s">
         <v>69</v>
       </c>
@@ -9883,7 +10120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>70</v>
       </c>
@@ -9923,7 +10160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>71</v>
       </c>
@@ -9963,7 +10200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>72</v>
       </c>
@@ -10003,7 +10240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>73</v>
       </c>
@@ -10043,7 +10280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>74</v>
       </c>
@@ -10083,7 +10320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>75</v>
       </c>
@@ -10123,7 +10360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>76</v>
       </c>
@@ -16932,15 +17169,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77E7DF6-81F7-BC42-9B3D-4022CB67E0D0}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>235</v>
       </c>
@@ -16954,155 +17191,694 @@
         <v>237</v>
       </c>
       <c r="E1">
-        <f>SUM(C1:D1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>64595</v>
+      </c>
+      <c r="F1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" t="s">
+        <v>236</v>
+      </c>
       <c r="C2" t="s">
         <v>219</v>
       </c>
+      <c r="D2" t="s">
+        <v>237</v>
+      </c>
       <c r="E2">
-        <f t="shared" ref="E2:E17" si="0">SUM(C2:D2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>40402</v>
+      </c>
+      <c r="F2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" t="s">
+        <v>236</v>
+      </c>
       <c r="C3" t="s">
         <v>220</v>
       </c>
+      <c r="D3" t="s">
+        <v>237</v>
+      </c>
       <c r="E3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>19314</v>
+      </c>
+      <c r="F3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B4" t="s">
+        <v>236</v>
+      </c>
       <c r="C4" t="s">
         <v>221</v>
       </c>
+      <c r="D4" t="s">
+        <v>237</v>
+      </c>
       <c r="E4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>13229</v>
+      </c>
+      <c r="F4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5" t="s">
+        <v>236</v>
+      </c>
       <c r="C5" t="s">
         <v>222</v>
       </c>
+      <c r="D5" t="s">
+        <v>237</v>
+      </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15398</v>
+      </c>
+      <c r="F5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
       <c r="C6" t="s">
         <v>223</v>
       </c>
+      <c r="D6" t="s">
+        <v>237</v>
+      </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7545</v>
+      </c>
+      <c r="F6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B7" t="s">
+        <v>236</v>
+      </c>
       <c r="C7" t="s">
         <v>224</v>
       </c>
+      <c r="D7" t="s">
+        <v>237</v>
+      </c>
       <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7205</v>
+      </c>
+      <c r="F7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B8" t="s">
+        <v>236</v>
+      </c>
       <c r="C8" t="s">
         <v>225</v>
       </c>
+      <c r="D8" t="s">
+        <v>237</v>
+      </c>
       <c r="E8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4819</v>
+      </c>
+      <c r="F8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B9" t="s">
+        <v>236</v>
+      </c>
       <c r="C9" t="s">
         <v>226</v>
       </c>
+      <c r="D9" t="s">
+        <v>237</v>
+      </c>
       <c r="E9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7231</v>
+      </c>
+      <c r="F9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B10" t="s">
+        <v>236</v>
+      </c>
       <c r="C10" t="s">
         <v>227</v>
       </c>
+      <c r="D10" t="s">
+        <v>237</v>
+      </c>
       <c r="E10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6118</v>
+      </c>
+      <c r="F10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B11" t="s">
+        <v>236</v>
+      </c>
       <c r="C11" t="s">
         <v>228</v>
       </c>
+      <c r="D11" t="s">
+        <v>237</v>
+      </c>
       <c r="E11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4659</v>
+      </c>
+      <c r="F11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B12" t="s">
+        <v>236</v>
+      </c>
       <c r="C12" t="s">
         <v>229</v>
       </c>
+      <c r="D12" t="s">
+        <v>237</v>
+      </c>
       <c r="E12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4374</v>
+      </c>
+      <c r="F12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B13" t="s">
+        <v>236</v>
+      </c>
       <c r="C13" t="s">
         <v>230</v>
       </c>
+      <c r="D13" t="s">
+        <v>237</v>
+      </c>
       <c r="E13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3281</v>
+      </c>
+      <c r="F13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>235</v>
+      </c>
+      <c r="B14" t="s">
+        <v>236</v>
+      </c>
       <c r="C14" t="s">
         <v>231</v>
       </c>
+      <c r="D14" t="s">
+        <v>237</v>
+      </c>
       <c r="E14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2360</v>
+      </c>
+      <c r="F14" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>235</v>
+      </c>
+      <c r="B15" t="s">
+        <v>236</v>
+      </c>
       <c r="C15" t="s">
         <v>232</v>
       </c>
+      <c r="D15" t="s">
+        <v>237</v>
+      </c>
       <c r="E15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2598</v>
+      </c>
+      <c r="F15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>235</v>
+      </c>
+      <c r="B16" t="s">
+        <v>236</v>
+      </c>
       <c r="C16" t="s">
         <v>233</v>
       </c>
+      <c r="D16" t="s">
+        <v>237</v>
+      </c>
       <c r="E16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+        <v>3622</v>
+      </c>
+      <c r="F16" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>235</v>
+      </c>
+      <c r="B17" t="s">
+        <v>236</v>
+      </c>
       <c r="C17" t="s">
         <v>234</v>
       </c>
+      <c r="D17" t="s">
+        <v>237</v>
+      </c>
       <c r="E17">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2705</v>
+      </c>
+      <c r="F17" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C18" t="s">
+        <v>239</v>
+      </c>
+      <c r="D18" t="s">
+        <v>237</v>
+      </c>
+      <c r="E18">
+        <v>2198</v>
+      </c>
+      <c r="F18" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>235</v>
+      </c>
+      <c r="B19" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19" t="s">
+        <v>240</v>
+      </c>
+      <c r="D19" t="s">
+        <v>237</v>
+      </c>
+      <c r="E19">
+        <v>1803</v>
+      </c>
+      <c r="F19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>235</v>
+      </c>
+      <c r="B20" t="s">
+        <v>236</v>
+      </c>
+      <c r="C20" t="s">
+        <v>241</v>
+      </c>
+      <c r="D20" t="s">
+        <v>237</v>
+      </c>
+      <c r="E20">
+        <v>2794</v>
+      </c>
+      <c r="F20" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>235</v>
+      </c>
+      <c r="B21" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D21" t="s">
+        <v>237</v>
+      </c>
+      <c r="E21">
+        <v>2168</v>
+      </c>
+      <c r="F21" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>235</v>
+      </c>
+      <c r="B22" t="s">
+        <v>236</v>
+      </c>
+      <c r="C22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D22" t="s">
+        <v>237</v>
+      </c>
+      <c r="E22">
+        <v>2213</v>
+      </c>
+      <c r="F22" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>235</v>
+      </c>
+      <c r="B23" t="s">
+        <v>236</v>
+      </c>
+      <c r="C23" t="s">
+        <v>244</v>
+      </c>
+      <c r="D23" t="s">
+        <v>237</v>
+      </c>
+      <c r="E23">
+        <v>1820</v>
+      </c>
+      <c r="F23" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>235</v>
+      </c>
+      <c r="B24" t="s">
+        <v>236</v>
+      </c>
+      <c r="C24" t="s">
+        <v>246</v>
+      </c>
+      <c r="D24" t="s">
+        <v>237</v>
+      </c>
+      <c r="E24">
+        <v>1587</v>
+      </c>
+      <c r="F24" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>235</v>
+      </c>
+      <c r="B25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C25" t="s">
+        <v>245</v>
+      </c>
+      <c r="D25" t="s">
+        <v>237</v>
+      </c>
+      <c r="E25">
+        <v>1751</v>
+      </c>
+      <c r="F25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>235</v>
+      </c>
+      <c r="B26" t="s">
+        <v>236</v>
+      </c>
+      <c r="C26" t="s">
+        <v>247</v>
+      </c>
+      <c r="D26" t="s">
+        <v>237</v>
+      </c>
+      <c r="E26">
+        <v>1769</v>
+      </c>
+      <c r="F26" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>235</v>
+      </c>
+      <c r="B27" t="s">
+        <v>236</v>
+      </c>
+      <c r="C27" t="s">
+        <v>248</v>
+      </c>
+      <c r="D27" t="s">
+        <v>237</v>
+      </c>
+      <c r="E27">
+        <v>1832</v>
+      </c>
+      <c r="F27" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>235</v>
+      </c>
+      <c r="B28" t="s">
+        <v>236</v>
+      </c>
+      <c r="C28" t="s">
+        <v>249</v>
+      </c>
+      <c r="D28" t="s">
+        <v>237</v>
+      </c>
+      <c r="E28">
+        <v>2229</v>
+      </c>
+      <c r="F28" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>235</v>
+      </c>
+      <c r="B29" t="s">
+        <v>236</v>
+      </c>
+      <c r="C29" t="s">
+        <v>250</v>
+      </c>
+      <c r="D29" t="s">
+        <v>237</v>
+      </c>
+      <c r="E29">
+        <v>1604</v>
+      </c>
+      <c r="F29" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>235</v>
+      </c>
+      <c r="B30" t="s">
+        <v>236</v>
+      </c>
+      <c r="C30" t="s">
+        <v>251</v>
+      </c>
+      <c r="D30" t="s">
+        <v>237</v>
+      </c>
+      <c r="E30">
+        <v>1259</v>
+      </c>
+      <c r="F30" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>235</v>
+      </c>
+      <c r="B31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C31" t="s">
+        <v>252</v>
+      </c>
+      <c r="D31" t="s">
+        <v>237</v>
+      </c>
+      <c r="E31">
+        <v>1398</v>
+      </c>
+      <c r="F31" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>235</v>
+      </c>
+      <c r="B32" t="s">
+        <v>236</v>
+      </c>
+      <c r="C32" t="s">
+        <v>253</v>
+      </c>
+      <c r="D32" t="s">
+        <v>237</v>
+      </c>
+      <c r="E32">
+        <v>1719</v>
+      </c>
+      <c r="F32" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>235</v>
+      </c>
+      <c r="B33" t="s">
+        <v>236</v>
+      </c>
+      <c r="C33" t="s">
+        <v>254</v>
+      </c>
+      <c r="D33" t="s">
+        <v>237</v>
+      </c>
+      <c r="E33">
+        <v>1282</v>
+      </c>
+      <c r="F33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>235</v>
+      </c>
+      <c r="B34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C34" t="s">
+        <v>255</v>
+      </c>
+      <c r="D34" t="s">
+        <v>237</v>
+      </c>
+      <c r="E34">
+        <v>1440</v>
+      </c>
+      <c r="F34" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>235</v>
+      </c>
+      <c r="B35" t="s">
+        <v>236</v>
+      </c>
+      <c r="C35" t="s">
+        <v>256</v>
+      </c>
+      <c r="D35" t="s">
+        <v>237</v>
+      </c>
+      <c r="E35">
+        <v>1314</v>
+      </c>
+      <c r="F35" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/applets/maps-info/data/data-all-together.xlsx
+++ b/applets/maps-info/data/data-all-together.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlos/Documents/GitHub/complex-analysis.github.io/applets/maps-info/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038B1D1A-C3B5-3A4A-8142-D7DCCE2C443F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBD19C0-706B-5B4B-ADA9-3BA2E4878414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53640" yWindow="2200" windowWidth="33600" windowHeight="18400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53640" yWindow="2200" windowWidth="33600" windowHeight="18400" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="411">
   <si>
     <t>Todos los datos de sitios web</t>
   </si>
@@ -871,6 +871,405 @@
   </si>
   <si>
     <t>"RO"</t>
+  </si>
+  <si>
+    <t>"CR"</t>
+  </si>
+  <si>
+    <t>"AT"</t>
+  </si>
+  <si>
+    <t>"AE"</t>
+  </si>
+  <si>
+    <t>"CZ"</t>
+  </si>
+  <si>
+    <t>"HN"</t>
+  </si>
+  <si>
+    <t>"NZ"</t>
+  </si>
+  <si>
+    <t>"MA"</t>
+  </si>
+  <si>
+    <t>"HU"</t>
+  </si>
+  <si>
+    <t>"UA"</t>
+  </si>
+  <si>
+    <t>"UY"</t>
+  </si>
+  <si>
+    <t>"TZ"</t>
+  </si>
+  <si>
+    <t>"GH"</t>
+  </si>
+  <si>
+    <t>"PA"</t>
+  </si>
+  <si>
+    <t>"NP"</t>
+  </si>
+  <si>
+    <t>"PY"</t>
+  </si>
+  <si>
+    <t>"GT"</t>
+  </si>
+  <si>
+    <t>"HR"</t>
+  </si>
+  <si>
+    <t>"JO"</t>
+  </si>
+  <si>
+    <t>"RS"</t>
+  </si>
+  <si>
+    <t>"KZ"</t>
+  </si>
+  <si>
+    <t>"LB"</t>
+  </si>
+  <si>
+    <t>"SV"</t>
+  </si>
+  <si>
+    <t>"ZM"</t>
+  </si>
+  <si>
+    <t>"DZ"</t>
+  </si>
+  <si>
+    <t>"CU"</t>
+  </si>
+  <si>
+    <t>"BG"</t>
+  </si>
+  <si>
+    <t>"ZW"</t>
+  </si>
+  <si>
+    <t>"SK"</t>
+  </si>
+  <si>
+    <t>"CY"</t>
+  </si>
+  <si>
+    <t>"UG"</t>
+  </si>
+  <si>
+    <t>"SI"</t>
+  </si>
+  <si>
+    <t>"OM"</t>
+  </si>
+  <si>
+    <t>"AZ"</t>
+  </si>
+  <si>
+    <t>"LU"</t>
+  </si>
+  <si>
+    <t>"TT"</t>
+  </si>
+  <si>
+    <t>"LT"</t>
+  </si>
+  <si>
+    <t>"BA"</t>
+  </si>
+  <si>
+    <t>"AM"</t>
+  </si>
+  <si>
+    <t>"PR"</t>
+  </si>
+  <si>
+    <t>"KW"</t>
+  </si>
+  <si>
+    <t>"KH"</t>
+  </si>
+  <si>
+    <t>"TN"</t>
+  </si>
+  <si>
+    <t>"MU"</t>
+  </si>
+  <si>
+    <t>"BH"</t>
+  </si>
+  <si>
+    <t>"EE"</t>
+  </si>
+  <si>
+    <t>"JM"</t>
+  </si>
+  <si>
+    <t>"BY"</t>
+  </si>
+  <si>
+    <t>"CM"</t>
+  </si>
+  <si>
+    <t>"SD"</t>
+  </si>
+  <si>
+    <t>"GE"</t>
+  </si>
+  <si>
+    <t>"IC"</t>
+  </si>
+  <si>
+    <t>"QA"</t>
+  </si>
+  <si>
+    <t>"SY"</t>
+  </si>
+  <si>
+    <t>"NA"</t>
+  </si>
+  <si>
+    <t>"AL"</t>
+  </si>
+  <si>
+    <t>"NI"</t>
+  </si>
+  <si>
+    <t>"BW"</t>
+  </si>
+  <si>
+    <t>"BN"</t>
+  </si>
+  <si>
+    <t>"UZ"</t>
+  </si>
+  <si>
+    <t>"PS"</t>
+  </si>
+  <si>
+    <t>"LV"</t>
+  </si>
+  <si>
+    <t>"MK"</t>
+  </si>
+  <si>
+    <t>"MM"</t>
+  </si>
+  <si>
+    <t>"MW"</t>
+  </si>
+  <si>
+    <t>"MO"</t>
+  </si>
+  <si>
+    <t>"MD"</t>
+  </si>
+  <si>
+    <t>"MN"</t>
+  </si>
+  <si>
+    <t>"LY"</t>
+  </si>
+  <si>
+    <t>"FJ"</t>
+  </si>
+  <si>
+    <t>"RW"</t>
+  </si>
+  <si>
+    <t>"BT"</t>
+  </si>
+  <si>
+    <t>"ME"</t>
+  </si>
+  <si>
+    <t>"SO"</t>
+  </si>
+  <si>
+    <t>"KG"</t>
+  </si>
+  <si>
+    <t>"MT"</t>
+  </si>
+  <si>
+    <t>"SZ"</t>
+  </si>
+  <si>
+    <t>"AF"</t>
+  </si>
+  <si>
+    <t>"MZ"</t>
+  </si>
+  <si>
+    <t>"SS"</t>
+  </si>
+  <si>
+    <t>"GY"</t>
+  </si>
+  <si>
+    <t>"YE"</t>
+  </si>
+  <si>
+    <t>"BB"</t>
+  </si>
+  <si>
+    <t>"LS"</t>
+  </si>
+  <si>
+    <t>"SN"</t>
+  </si>
+  <si>
+    <t>"AO"</t>
+  </si>
+  <si>
+    <t>"CI"</t>
+  </si>
+  <si>
+    <t>"PG"</t>
+  </si>
+  <si>
+    <t>"AD"</t>
+  </si>
+  <si>
+    <t>"CV"</t>
+  </si>
+  <si>
+    <t>"MG"</t>
+  </si>
+  <si>
+    <t>"MV"</t>
+  </si>
+  <si>
+    <t>"BZ"</t>
+  </si>
+  <si>
+    <t>"GG"</t>
+  </si>
+  <si>
+    <t>"BF"</t>
+  </si>
+  <si>
+    <t>"BS"</t>
+  </si>
+  <si>
+    <t>"JE"</t>
+  </si>
+  <si>
+    <t>"VU"</t>
+  </si>
+  <si>
+    <t>"AG"</t>
+  </si>
+  <si>
+    <t>"GQ"</t>
+  </si>
+  <si>
+    <t>"KY"</t>
+  </si>
+  <si>
+    <t>"LR"</t>
+  </si>
+  <si>
+    <t>"TM"</t>
+  </si>
+  <si>
+    <t>"VI"</t>
+  </si>
+  <si>
+    <t>"CW"</t>
+  </si>
+  <si>
+    <t>"GM"</t>
+  </si>
+  <si>
+    <t>"HT"</t>
+  </si>
+  <si>
+    <t>"MC"</t>
+  </si>
+  <si>
+    <t>"NC"</t>
+  </si>
+  <si>
+    <t>"SC"</t>
+  </si>
+  <si>
+    <t>"VC"</t>
+  </si>
+  <si>
+    <t>"GL"</t>
+  </si>
+  <si>
+    <t>"GP"</t>
+  </si>
+  <si>
+    <t>"GU"</t>
+  </si>
+  <si>
+    <t>"NE"</t>
+  </si>
+  <si>
+    <t>"BJ"</t>
+  </si>
+  <si>
+    <t>"BM"</t>
+  </si>
+  <si>
+    <t>"SL"</t>
+  </si>
+  <si>
+    <t>"TG"</t>
+  </si>
+  <si>
+    <t>"VG"</t>
+  </si>
+  <si>
+    <t>"AS"</t>
+  </si>
+  <si>
+    <t>"AW"</t>
+  </si>
+  <si>
+    <t>"BI"</t>
+  </si>
+  <si>
+    <t>"GA"</t>
+  </si>
+  <si>
+    <t>"EH"</t>
+  </si>
+  <si>
+    <t>"GI"</t>
+  </si>
+  <si>
+    <t>"GN"</t>
+  </si>
+  <si>
+    <t>"IM"</t>
+  </si>
+  <si>
+    <t>"KN"</t>
+  </si>
+  <si>
+    <t>"MR"</t>
+  </si>
+  <si>
+    <t>"RE"</t>
+  </si>
+  <si>
+    <t>"SR"</t>
+  </si>
+  <si>
+    <t>"TO"</t>
+  </si>
+  <si>
+    <t>"WS"</t>
   </si>
 </sst>
 </file>
@@ -7657,12 +8056,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F58D68-E831-3741-BC0B-74DEACB0FFF1}">
   <dimension ref="A1:M196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView topLeftCell="A185" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="E195" sqref="E2:E195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
     <col min="4" max="4" width="13.1640625" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="8" max="8" width="18.6640625" customWidth="1"/>
@@ -10121,6 +10521,9 @@
       </c>
     </row>
     <row r="58" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>278</v>
+      </c>
       <c r="B58" t="s">
         <v>70</v>
       </c>
@@ -10161,6 +10564,9 @@
       </c>
     </row>
     <row r="59" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>279</v>
+      </c>
       <c r="B59" t="s">
         <v>71</v>
       </c>
@@ -10201,6 +10607,9 @@
       </c>
     </row>
     <row r="60" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>280</v>
+      </c>
       <c r="B60" t="s">
         <v>72</v>
       </c>
@@ -10241,6 +10650,9 @@
       </c>
     </row>
     <row r="61" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>281</v>
+      </c>
       <c r="B61" t="s">
         <v>73</v>
       </c>
@@ -10281,6 +10693,9 @@
       </c>
     </row>
     <row r="62" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>282</v>
+      </c>
       <c r="B62" t="s">
         <v>74</v>
       </c>
@@ -10321,6 +10736,9 @@
       </c>
     </row>
     <row r="63" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>283</v>
+      </c>
       <c r="B63" t="s">
         <v>75</v>
       </c>
@@ -10361,6 +10779,9 @@
       </c>
     </row>
     <row r="64" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>284</v>
+      </c>
       <c r="B64" t="s">
         <v>76</v>
       </c>
@@ -10400,7 +10821,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>285</v>
+      </c>
       <c r="B65" t="s">
         <v>77</v>
       </c>
@@ -10440,7 +10864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>78</v>
       </c>
@@ -10480,7 +10904,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>286</v>
+      </c>
       <c r="B67" t="s">
         <v>79</v>
       </c>
@@ -10520,7 +10947,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>287</v>
+      </c>
       <c r="B68" t="s">
         <v>80</v>
       </c>
@@ -10560,7 +10990,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>288</v>
+      </c>
       <c r="B69" t="s">
         <v>81</v>
       </c>
@@ -10600,7 +11033,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>289</v>
+      </c>
       <c r="B70" t="s">
         <v>82</v>
       </c>
@@ -10640,7 +11076,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>290</v>
+      </c>
       <c r="B71" t="s">
         <v>83</v>
       </c>
@@ -10680,7 +11119,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>291</v>
+      </c>
       <c r="B72" t="s">
         <v>84</v>
       </c>
@@ -10720,7 +11162,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>292</v>
+      </c>
       <c r="B73" t="s">
         <v>85</v>
       </c>
@@ -10760,7 +11205,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>293</v>
+      </c>
       <c r="B74" t="s">
         <v>86</v>
       </c>
@@ -10800,7 +11248,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>294</v>
+      </c>
       <c r="B75" t="s">
         <v>87</v>
       </c>
@@ -10840,7 +11291,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>295</v>
+      </c>
       <c r="B76" t="s">
         <v>88</v>
       </c>
@@ -10880,7 +11334,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>296</v>
+      </c>
       <c r="B77" t="s">
         <v>89</v>
       </c>
@@ -10920,7 +11377,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>297</v>
+      </c>
       <c r="B78" t="s">
         <v>90</v>
       </c>
@@ -10960,7 +11420,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>298</v>
+      </c>
       <c r="B79" t="s">
         <v>91</v>
       </c>
@@ -11000,7 +11463,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>299</v>
+      </c>
       <c r="B80" t="s">
         <v>92</v>
       </c>
@@ -11040,7 +11506,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>300</v>
+      </c>
       <c r="B81" t="s">
         <v>93</v>
       </c>
@@ -11080,7 +11549,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>301</v>
+      </c>
       <c r="B82" t="s">
         <v>94</v>
       </c>
@@ -11120,7 +11592,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>302</v>
+      </c>
       <c r="B83" t="s">
         <v>95</v>
       </c>
@@ -11160,7 +11635,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>303</v>
+      </c>
       <c r="B84" t="s">
         <v>96</v>
       </c>
@@ -11200,7 +11678,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>304</v>
+      </c>
       <c r="B85" t="s">
         <v>97</v>
       </c>
@@ -11240,7 +11721,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>305</v>
+      </c>
       <c r="B86" t="s">
         <v>98</v>
       </c>
@@ -11280,7 +11764,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>306</v>
+      </c>
       <c r="B87" t="s">
         <v>99</v>
       </c>
@@ -11320,7 +11807,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>307</v>
+      </c>
       <c r="B88" t="s">
         <v>100</v>
       </c>
@@ -11360,7 +11850,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>308</v>
+      </c>
       <c r="B89" t="s">
         <v>101</v>
       </c>
@@ -11400,7 +11893,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>309</v>
+      </c>
       <c r="B90" t="s">
         <v>102</v>
       </c>
@@ -11440,7 +11936,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>310</v>
+      </c>
       <c r="B91" t="s">
         <v>103</v>
       </c>
@@ -11480,7 +11979,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>311</v>
+      </c>
       <c r="B92" t="s">
         <v>104</v>
       </c>
@@ -11520,7 +12022,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>312</v>
+      </c>
       <c r="B93" t="s">
         <v>105</v>
       </c>
@@ -11560,7 +12065,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>313</v>
+      </c>
       <c r="B94" t="s">
         <v>106</v>
       </c>
@@ -11600,7 +12108,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>314</v>
+      </c>
       <c r="B95" t="s">
         <v>107</v>
       </c>
@@ -11640,7 +12151,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>315</v>
+      </c>
       <c r="B96" t="s">
         <v>108</v>
       </c>
@@ -11680,7 +12194,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>316</v>
+      </c>
       <c r="B97" t="s">
         <v>109</v>
       </c>
@@ -11720,7 +12237,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>317</v>
+      </c>
       <c r="B98" t="s">
         <v>110</v>
       </c>
@@ -11760,7 +12280,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>318</v>
+      </c>
       <c r="B99" t="s">
         <v>111</v>
       </c>
@@ -11800,7 +12323,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>319</v>
+      </c>
       <c r="B100" t="s">
         <v>112</v>
       </c>
@@ -11840,7 +12366,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>320</v>
+      </c>
       <c r="B101" t="s">
         <v>113</v>
       </c>
@@ -11880,7 +12409,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>321</v>
+      </c>
       <c r="B102" t="s">
         <v>114</v>
       </c>
@@ -11920,7 +12452,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>322</v>
+      </c>
       <c r="B103" t="s">
         <v>115</v>
       </c>
@@ -11960,7 +12495,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>323</v>
+      </c>
       <c r="B104" t="s">
         <v>116</v>
       </c>
@@ -12000,7 +12538,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>324</v>
+      </c>
       <c r="B105" t="s">
         <v>117</v>
       </c>
@@ -12040,7 +12581,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>325</v>
+      </c>
       <c r="B106" t="s">
         <v>118</v>
       </c>
@@ -12080,7 +12624,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>326</v>
+      </c>
       <c r="B107" t="s">
         <v>119</v>
       </c>
@@ -12120,7 +12667,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>327</v>
+      </c>
       <c r="B108" t="s">
         <v>120</v>
       </c>
@@ -12160,7 +12710,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>328</v>
+      </c>
       <c r="B109" t="s">
         <v>121</v>
       </c>
@@ -12200,7 +12753,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>329</v>
+      </c>
       <c r="B110" t="s">
         <v>122</v>
       </c>
@@ -12240,7 +12796,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>330</v>
+      </c>
       <c r="B111" t="s">
         <v>123</v>
       </c>
@@ -12280,7 +12839,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>331</v>
+      </c>
       <c r="B112" t="s">
         <v>124</v>
       </c>
@@ -12320,7 +12882,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>332</v>
+      </c>
       <c r="B113" t="s">
         <v>125</v>
       </c>
@@ -12360,7 +12925,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>333</v>
+      </c>
       <c r="B114" t="s">
         <v>126</v>
       </c>
@@ -12400,7 +12968,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>334</v>
+      </c>
       <c r="B115" t="s">
         <v>127</v>
       </c>
@@ -12440,7 +13011,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>335</v>
+      </c>
       <c r="B116" t="s">
         <v>128</v>
       </c>
@@ -12480,7 +13054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>129</v>
       </c>
@@ -12520,7 +13094,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>336</v>
+      </c>
       <c r="B118" t="s">
         <v>130</v>
       </c>
@@ -12560,7 +13137,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>337</v>
+      </c>
       <c r="B119" t="s">
         <v>131</v>
       </c>
@@ -12600,7 +13180,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>338</v>
+      </c>
       <c r="B120" t="s">
         <v>132</v>
       </c>
@@ -12640,7 +13223,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>339</v>
+      </c>
       <c r="B121" t="s">
         <v>133</v>
       </c>
@@ -12680,7 +13266,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>341</v>
+      </c>
       <c r="B122" t="s">
         <v>134</v>
       </c>
@@ -12720,7 +13309,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>340</v>
+      </c>
       <c r="B123" t="s">
         <v>135</v>
       </c>
@@ -12760,7 +13352,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>342</v>
+      </c>
       <c r="B124" t="s">
         <v>136</v>
       </c>
@@ -12800,7 +13395,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>343</v>
+      </c>
       <c r="B125" t="s">
         <v>137</v>
       </c>
@@ -12840,7 +13438,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>344</v>
+      </c>
       <c r="B126" t="s">
         <v>138</v>
       </c>
@@ -12880,7 +13481,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>345</v>
+      </c>
       <c r="B127" t="s">
         <v>139</v>
       </c>
@@ -12920,7 +13524,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>346</v>
+      </c>
       <c r="B128" t="s">
         <v>140</v>
       </c>
@@ -12960,7 +13567,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>347</v>
+      </c>
       <c r="B129" t="s">
         <v>141</v>
       </c>
@@ -13000,7 +13610,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>348</v>
+      </c>
       <c r="B130" t="s">
         <v>142</v>
       </c>
@@ -13040,7 +13653,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>349</v>
+      </c>
       <c r="B131" t="s">
         <v>143</v>
       </c>
@@ -13080,7 +13696,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>350</v>
+      </c>
       <c r="B132" t="s">
         <v>144</v>
       </c>
@@ -13120,7 +13739,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>351</v>
+      </c>
       <c r="B133" t="s">
         <v>145</v>
       </c>
@@ -13160,7 +13782,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>352</v>
+      </c>
       <c r="B134" t="s">
         <v>146</v>
       </c>
@@ -13200,7 +13825,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>353</v>
+      </c>
       <c r="B135" t="s">
         <v>147</v>
       </c>
@@ -13240,7 +13868,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>354</v>
+      </c>
       <c r="B136" t="s">
         <v>148</v>
       </c>
@@ -13280,7 +13911,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>355</v>
+      </c>
       <c r="B137" t="s">
         <v>149</v>
       </c>
@@ -13320,7 +13954,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>356</v>
+      </c>
       <c r="B138" t="s">
         <v>150</v>
       </c>
@@ -13360,7 +13997,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>357</v>
+      </c>
       <c r="B139" t="s">
         <v>151</v>
       </c>
@@ -13400,7 +14040,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>358</v>
+      </c>
       <c r="B140" t="s">
         <v>152</v>
       </c>
@@ -13440,7 +14083,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>359</v>
+      </c>
       <c r="B141" t="s">
         <v>153</v>
       </c>
@@ -13480,7 +14126,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>360</v>
+      </c>
       <c r="B142" t="s">
         <v>154</v>
       </c>
@@ -13520,7 +14169,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>361</v>
+      </c>
       <c r="B143" t="s">
         <v>155</v>
       </c>
@@ -13560,7 +14212,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>362</v>
+      </c>
       <c r="B144" t="s">
         <v>156</v>
       </c>
@@ -13600,7 +14255,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>363</v>
+      </c>
       <c r="B145" t="s">
         <v>157</v>
       </c>
@@ -13640,7 +14298,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>364</v>
+      </c>
       <c r="B146" t="s">
         <v>158</v>
       </c>
@@ -13680,7 +14341,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>365</v>
+      </c>
       <c r="B147" t="s">
         <v>159</v>
       </c>
@@ -13720,7 +14384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>160</v>
       </c>
@@ -13760,7 +14424,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>366</v>
+      </c>
       <c r="B149" t="s">
         <v>161</v>
       </c>
@@ -13800,7 +14467,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>360</v>
+      </c>
       <c r="B150" t="s">
         <v>162</v>
       </c>
@@ -13840,7 +14510,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>367</v>
+      </c>
       <c r="B151" t="s">
         <v>163</v>
       </c>
@@ -13880,7 +14553,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>368</v>
+      </c>
       <c r="B152" t="s">
         <v>164</v>
       </c>
@@ -13920,7 +14596,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>369</v>
+      </c>
       <c r="B153" t="s">
         <v>165</v>
       </c>
@@ -13960,7 +14639,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>370</v>
+      </c>
       <c r="B154" t="s">
         <v>166</v>
       </c>
@@ -14000,7 +14682,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>371</v>
+      </c>
       <c r="B155" t="s">
         <v>167</v>
       </c>
@@ -14040,7 +14725,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>372</v>
+      </c>
       <c r="B156" t="s">
         <v>168</v>
       </c>
@@ -14080,7 +14768,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>373</v>
+      </c>
       <c r="B157" t="s">
         <v>169</v>
       </c>
@@ -14120,7 +14811,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>374</v>
+      </c>
       <c r="B158" t="s">
         <v>170</v>
       </c>
@@ -14160,7 +14854,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>375</v>
+      </c>
       <c r="B159" t="s">
         <v>171</v>
       </c>
@@ -14200,7 +14897,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>376</v>
+      </c>
       <c r="B160" t="s">
         <v>172</v>
       </c>
@@ -14240,7 +14940,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>377</v>
+      </c>
       <c r="B161" t="s">
         <v>173</v>
       </c>
@@ -14280,7 +14983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>174</v>
       </c>
@@ -14320,7 +15023,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>378</v>
+      </c>
       <c r="B163" t="s">
         <v>175</v>
       </c>
@@ -14360,7 +15066,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>379</v>
+      </c>
       <c r="B164" t="s">
         <v>176</v>
       </c>
@@ -14400,7 +15109,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>380</v>
+      </c>
       <c r="B165" t="s">
         <v>177</v>
       </c>
@@ -14440,7 +15152,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>381</v>
+      </c>
       <c r="B166" t="s">
         <v>178</v>
       </c>
@@ -14480,7 +15195,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>382</v>
+      </c>
       <c r="B167" t="s">
         <v>179</v>
       </c>
@@ -14520,7 +15238,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>383</v>
+      </c>
       <c r="B168" t="s">
         <v>180</v>
       </c>
@@ -14560,7 +15281,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>384</v>
+      </c>
       <c r="B169" t="s">
         <v>181</v>
       </c>
@@ -14600,7 +15324,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>385</v>
+      </c>
       <c r="B170" t="s">
         <v>182</v>
       </c>
@@ -14640,7 +15367,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>386</v>
+      </c>
       <c r="B171" t="s">
         <v>183</v>
       </c>
@@ -14680,7 +15410,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>387</v>
+      </c>
       <c r="B172" t="s">
         <v>184</v>
       </c>
@@ -14720,7 +15453,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>388</v>
+      </c>
       <c r="B173" t="s">
         <v>185</v>
       </c>
@@ -14760,7 +15496,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>389</v>
+      </c>
       <c r="B174" t="s">
         <v>186</v>
       </c>
@@ -14800,7 +15539,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>390</v>
+      </c>
       <c r="B175" t="s">
         <v>187</v>
       </c>
@@ -14840,7 +15582,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>391</v>
+      </c>
       <c r="B176" t="s">
         <v>188</v>
       </c>
@@ -14880,7 +15625,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>392</v>
+      </c>
       <c r="B177" t="s">
         <v>189</v>
       </c>
@@ -14920,7 +15668,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>393</v>
+      </c>
       <c r="B178" t="s">
         <v>190</v>
       </c>
@@ -14960,7 +15711,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>394</v>
+      </c>
       <c r="B179" t="s">
         <v>191</v>
       </c>
@@ -15000,7 +15754,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>395</v>
+      </c>
       <c r="B180" t="s">
         <v>192</v>
       </c>
@@ -15040,7 +15797,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>396</v>
+      </c>
       <c r="B181" t="s">
         <v>193</v>
       </c>
@@ -15080,7 +15840,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>397</v>
+      </c>
       <c r="B182" t="s">
         <v>194</v>
       </c>
@@ -15120,7 +15883,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>398</v>
+      </c>
       <c r="B183" t="s">
         <v>195</v>
       </c>
@@ -15160,7 +15926,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>399</v>
+      </c>
       <c r="B184" t="s">
         <v>196</v>
       </c>
@@ -15200,7 +15969,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>401</v>
+      </c>
       <c r="B185" t="s">
         <v>197</v>
       </c>
@@ -15240,7 +16012,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>400</v>
+      </c>
       <c r="B186" t="s">
         <v>198</v>
       </c>
@@ -15280,7 +16055,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>402</v>
+      </c>
       <c r="B187" t="s">
         <v>199</v>
       </c>
@@ -15320,7 +16098,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>403</v>
+      </c>
       <c r="B188" t="s">
         <v>200</v>
       </c>
@@ -15360,7 +16141,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>404</v>
+      </c>
       <c r="B189" t="s">
         <v>201</v>
       </c>
@@ -15400,7 +16184,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>405</v>
+      </c>
       <c r="B190" t="s">
         <v>202</v>
       </c>
@@ -15440,7 +16227,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>406</v>
+      </c>
       <c r="B191" t="s">
         <v>203</v>
       </c>
@@ -15480,7 +16270,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>407</v>
+      </c>
       <c r="B192" t="s">
         <v>204</v>
       </c>
@@ -15520,7 +16313,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>408</v>
+      </c>
       <c r="B193" t="s">
         <v>205</v>
       </c>
@@ -15560,7 +16356,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>409</v>
+      </c>
       <c r="B194" t="s">
         <v>206</v>
       </c>
@@ -15600,7 +16399,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>410</v>
+      </c>
       <c r="B195" t="s">
         <v>207</v>
       </c>
@@ -15640,7 +16442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C196">
         <v>196861</v>
       </c>
@@ -17169,10 +17971,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77E7DF6-81F7-BC42-9B3D-4022CB67E0D0}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F194"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17877,6 +18679,3174 @@
         <v>238</v>
       </c>
     </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>235</v>
+      </c>
+      <c r="B36" t="s">
+        <v>236</v>
+      </c>
+      <c r="C36" t="s">
+        <v>257</v>
+      </c>
+      <c r="D36" t="s">
+        <v>237</v>
+      </c>
+      <c r="E36">
+        <v>1307</v>
+      </c>
+      <c r="F36" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>235</v>
+      </c>
+      <c r="B37" t="s">
+        <v>236</v>
+      </c>
+      <c r="C37" t="s">
+        <v>258</v>
+      </c>
+      <c r="D37" t="s">
+        <v>237</v>
+      </c>
+      <c r="E37">
+        <v>1471</v>
+      </c>
+      <c r="F37" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>235</v>
+      </c>
+      <c r="B38" t="s">
+        <v>236</v>
+      </c>
+      <c r="C38" t="s">
+        <v>259</v>
+      </c>
+      <c r="D38" t="s">
+        <v>237</v>
+      </c>
+      <c r="E38">
+        <v>1009</v>
+      </c>
+      <c r="F38" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>235</v>
+      </c>
+      <c r="B39" t="s">
+        <v>236</v>
+      </c>
+      <c r="C39" t="s">
+        <v>260</v>
+      </c>
+      <c r="D39" t="s">
+        <v>237</v>
+      </c>
+      <c r="E39">
+        <v>998</v>
+      </c>
+      <c r="F39" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>235</v>
+      </c>
+      <c r="B40" t="s">
+        <v>236</v>
+      </c>
+      <c r="C40" t="s">
+        <v>261</v>
+      </c>
+      <c r="D40" t="s">
+        <v>237</v>
+      </c>
+      <c r="E40">
+        <v>969</v>
+      </c>
+      <c r="F40" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>235</v>
+      </c>
+      <c r="B41" t="s">
+        <v>236</v>
+      </c>
+      <c r="C41" t="s">
+        <v>262</v>
+      </c>
+      <c r="D41" t="s">
+        <v>237</v>
+      </c>
+      <c r="E41">
+        <v>755</v>
+      </c>
+      <c r="F41" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>235</v>
+      </c>
+      <c r="B42" t="s">
+        <v>236</v>
+      </c>
+      <c r="C42" t="s">
+        <v>263</v>
+      </c>
+      <c r="D42" t="s">
+        <v>237</v>
+      </c>
+      <c r="E42">
+        <v>911</v>
+      </c>
+      <c r="F42" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>235</v>
+      </c>
+      <c r="B43" t="s">
+        <v>236</v>
+      </c>
+      <c r="C43" t="s">
+        <v>264</v>
+      </c>
+      <c r="D43" t="s">
+        <v>237</v>
+      </c>
+      <c r="E43">
+        <v>1246</v>
+      </c>
+      <c r="F43" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>235</v>
+      </c>
+      <c r="B44" t="s">
+        <v>236</v>
+      </c>
+      <c r="C44" t="s">
+        <v>265</v>
+      </c>
+      <c r="D44" t="s">
+        <v>237</v>
+      </c>
+      <c r="E44">
+        <v>1231</v>
+      </c>
+      <c r="F44" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>235</v>
+      </c>
+      <c r="B45" t="s">
+        <v>236</v>
+      </c>
+      <c r="C45" t="s">
+        <v>266</v>
+      </c>
+      <c r="D45" t="s">
+        <v>237</v>
+      </c>
+      <c r="E45">
+        <v>760</v>
+      </c>
+      <c r="F45" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>235</v>
+      </c>
+      <c r="B46" t="s">
+        <v>236</v>
+      </c>
+      <c r="C46" t="s">
+        <v>267</v>
+      </c>
+      <c r="D46" t="s">
+        <v>237</v>
+      </c>
+      <c r="E46">
+        <v>877</v>
+      </c>
+      <c r="F46" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>235</v>
+      </c>
+      <c r="B47" t="s">
+        <v>236</v>
+      </c>
+      <c r="C47" t="s">
+        <v>268</v>
+      </c>
+      <c r="D47" t="s">
+        <v>237</v>
+      </c>
+      <c r="E47">
+        <v>744</v>
+      </c>
+      <c r="F47" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>235</v>
+      </c>
+      <c r="B48" t="s">
+        <v>236</v>
+      </c>
+      <c r="C48" t="s">
+        <v>269</v>
+      </c>
+      <c r="D48" t="s">
+        <v>237</v>
+      </c>
+      <c r="E48">
+        <v>910</v>
+      </c>
+      <c r="F48" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>235</v>
+      </c>
+      <c r="B49" t="s">
+        <v>236</v>
+      </c>
+      <c r="C49" t="s">
+        <v>270</v>
+      </c>
+      <c r="D49" t="s">
+        <v>237</v>
+      </c>
+      <c r="E49">
+        <v>784</v>
+      </c>
+      <c r="F49" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>235</v>
+      </c>
+      <c r="B50" t="s">
+        <v>236</v>
+      </c>
+      <c r="C50" t="s">
+        <v>271</v>
+      </c>
+      <c r="D50" t="s">
+        <v>237</v>
+      </c>
+      <c r="E50">
+        <v>815</v>
+      </c>
+      <c r="F50" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>235</v>
+      </c>
+      <c r="B51" t="s">
+        <v>236</v>
+      </c>
+      <c r="C51" t="s">
+        <v>272</v>
+      </c>
+      <c r="D51" t="s">
+        <v>237</v>
+      </c>
+      <c r="E51">
+        <v>1087</v>
+      </c>
+      <c r="F51" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>235</v>
+      </c>
+      <c r="B52" t="s">
+        <v>236</v>
+      </c>
+      <c r="C52" t="s">
+        <v>273</v>
+      </c>
+      <c r="D52" t="s">
+        <v>237</v>
+      </c>
+      <c r="E52">
+        <v>795</v>
+      </c>
+      <c r="F52" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>235</v>
+      </c>
+      <c r="B53" t="s">
+        <v>236</v>
+      </c>
+      <c r="C53" t="s">
+        <v>274</v>
+      </c>
+      <c r="D53" t="s">
+        <v>237</v>
+      </c>
+      <c r="E53">
+        <v>792</v>
+      </c>
+      <c r="F53" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>235</v>
+      </c>
+      <c r="B54" t="s">
+        <v>236</v>
+      </c>
+      <c r="C54" t="s">
+        <v>275</v>
+      </c>
+      <c r="D54" t="s">
+        <v>237</v>
+      </c>
+      <c r="E54">
+        <v>722</v>
+      </c>
+      <c r="F54" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>235</v>
+      </c>
+      <c r="B55" t="s">
+        <v>236</v>
+      </c>
+      <c r="C55" t="s">
+        <v>276</v>
+      </c>
+      <c r="D55" t="s">
+        <v>237</v>
+      </c>
+      <c r="E55">
+        <v>681</v>
+      </c>
+      <c r="F55" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>235</v>
+      </c>
+      <c r="B56" t="s">
+        <v>236</v>
+      </c>
+      <c r="C56" t="s">
+        <v>277</v>
+      </c>
+      <c r="D56" t="s">
+        <v>237</v>
+      </c>
+      <c r="E56">
+        <v>699</v>
+      </c>
+      <c r="F56" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>235</v>
+      </c>
+      <c r="B57" t="s">
+        <v>236</v>
+      </c>
+      <c r="C57" t="s">
+        <v>278</v>
+      </c>
+      <c r="D57" t="s">
+        <v>237</v>
+      </c>
+      <c r="E57">
+        <v>847</v>
+      </c>
+      <c r="F57" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>235</v>
+      </c>
+      <c r="B58" t="s">
+        <v>236</v>
+      </c>
+      <c r="C58" t="s">
+        <v>279</v>
+      </c>
+      <c r="D58" t="s">
+        <v>237</v>
+      </c>
+      <c r="E58">
+        <v>635</v>
+      </c>
+      <c r="F58" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>235</v>
+      </c>
+      <c r="B59" t="s">
+        <v>236</v>
+      </c>
+      <c r="C59" t="s">
+        <v>280</v>
+      </c>
+      <c r="D59" t="s">
+        <v>237</v>
+      </c>
+      <c r="E59">
+        <v>512</v>
+      </c>
+      <c r="F59" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>235</v>
+      </c>
+      <c r="B60" t="s">
+        <v>236</v>
+      </c>
+      <c r="C60" t="s">
+        <v>281</v>
+      </c>
+      <c r="D60" t="s">
+        <v>237</v>
+      </c>
+      <c r="E60">
+        <v>620</v>
+      </c>
+      <c r="F60" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>235</v>
+      </c>
+      <c r="B61" t="s">
+        <v>236</v>
+      </c>
+      <c r="C61" t="s">
+        <v>282</v>
+      </c>
+      <c r="D61" t="s">
+        <v>237</v>
+      </c>
+      <c r="E61">
+        <v>662</v>
+      </c>
+      <c r="F61" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>235</v>
+      </c>
+      <c r="B62" t="s">
+        <v>236</v>
+      </c>
+      <c r="C62" t="s">
+        <v>283</v>
+      </c>
+      <c r="D62" t="s">
+        <v>237</v>
+      </c>
+      <c r="E62">
+        <v>471</v>
+      </c>
+      <c r="F62" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>235</v>
+      </c>
+      <c r="B63" t="s">
+        <v>236</v>
+      </c>
+      <c r="C63" t="s">
+        <v>284</v>
+      </c>
+      <c r="D63" t="s">
+        <v>237</v>
+      </c>
+      <c r="E63">
+        <v>512</v>
+      </c>
+      <c r="F63" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>235</v>
+      </c>
+      <c r="B64" t="s">
+        <v>236</v>
+      </c>
+      <c r="C64" t="s">
+        <v>285</v>
+      </c>
+      <c r="D64" t="s">
+        <v>237</v>
+      </c>
+      <c r="E64">
+        <v>462</v>
+      </c>
+      <c r="F64" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>235</v>
+      </c>
+      <c r="B65" t="s">
+        <v>236</v>
+      </c>
+      <c r="D65" t="s">
+        <v>237</v>
+      </c>
+      <c r="E65">
+        <v>339</v>
+      </c>
+      <c r="F65" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>235</v>
+      </c>
+      <c r="B66" t="s">
+        <v>236</v>
+      </c>
+      <c r="C66" t="s">
+        <v>286</v>
+      </c>
+      <c r="D66" t="s">
+        <v>237</v>
+      </c>
+      <c r="E66">
+        <v>406</v>
+      </c>
+      <c r="F66" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>235</v>
+      </c>
+      <c r="B67" t="s">
+        <v>236</v>
+      </c>
+      <c r="C67" t="s">
+        <v>287</v>
+      </c>
+      <c r="D67" t="s">
+        <v>237</v>
+      </c>
+      <c r="E67">
+        <v>506</v>
+      </c>
+      <c r="F67" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>235</v>
+      </c>
+      <c r="B68" t="s">
+        <v>236</v>
+      </c>
+      <c r="C68" t="s">
+        <v>288</v>
+      </c>
+      <c r="D68" t="s">
+        <v>237</v>
+      </c>
+      <c r="E68">
+        <v>305</v>
+      </c>
+      <c r="F68" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>235</v>
+      </c>
+      <c r="B69" t="s">
+        <v>236</v>
+      </c>
+      <c r="C69" t="s">
+        <v>289</v>
+      </c>
+      <c r="D69" t="s">
+        <v>237</v>
+      </c>
+      <c r="E69">
+        <v>330</v>
+      </c>
+      <c r="F69" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>235</v>
+      </c>
+      <c r="B70" t="s">
+        <v>236</v>
+      </c>
+      <c r="C70" t="s">
+        <v>290</v>
+      </c>
+      <c r="D70" t="s">
+        <v>237</v>
+      </c>
+      <c r="E70">
+        <v>535</v>
+      </c>
+      <c r="F70" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>235</v>
+      </c>
+      <c r="B71" t="s">
+        <v>236</v>
+      </c>
+      <c r="C71" t="s">
+        <v>291</v>
+      </c>
+      <c r="D71" t="s">
+        <v>237</v>
+      </c>
+      <c r="E71">
+        <v>305</v>
+      </c>
+      <c r="F71" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>235</v>
+      </c>
+      <c r="B72" t="s">
+        <v>236</v>
+      </c>
+      <c r="C72" t="s">
+        <v>292</v>
+      </c>
+      <c r="D72" t="s">
+        <v>237</v>
+      </c>
+      <c r="E72">
+        <v>456</v>
+      </c>
+      <c r="F72" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>235</v>
+      </c>
+      <c r="B73" t="s">
+        <v>236</v>
+      </c>
+      <c r="C73" t="s">
+        <v>293</v>
+      </c>
+      <c r="D73" t="s">
+        <v>237</v>
+      </c>
+      <c r="E73">
+        <v>439</v>
+      </c>
+      <c r="F73" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>235</v>
+      </c>
+      <c r="B74" t="s">
+        <v>236</v>
+      </c>
+      <c r="C74" t="s">
+        <v>294</v>
+      </c>
+      <c r="D74" t="s">
+        <v>237</v>
+      </c>
+      <c r="E74">
+        <v>291</v>
+      </c>
+      <c r="F74" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>235</v>
+      </c>
+      <c r="B75" t="s">
+        <v>236</v>
+      </c>
+      <c r="C75" t="s">
+        <v>295</v>
+      </c>
+      <c r="D75" t="s">
+        <v>237</v>
+      </c>
+      <c r="E75">
+        <v>275</v>
+      </c>
+      <c r="F75" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>235</v>
+      </c>
+      <c r="B76" t="s">
+        <v>236</v>
+      </c>
+      <c r="C76" t="s">
+        <v>296</v>
+      </c>
+      <c r="D76" t="s">
+        <v>237</v>
+      </c>
+      <c r="E76">
+        <v>287</v>
+      </c>
+      <c r="F76" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>235</v>
+      </c>
+      <c r="B77" t="s">
+        <v>236</v>
+      </c>
+      <c r="C77" t="s">
+        <v>297</v>
+      </c>
+      <c r="D77" t="s">
+        <v>237</v>
+      </c>
+      <c r="E77">
+        <v>247</v>
+      </c>
+      <c r="F77" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>235</v>
+      </c>
+      <c r="B78" t="s">
+        <v>236</v>
+      </c>
+      <c r="C78" t="s">
+        <v>298</v>
+      </c>
+      <c r="D78" t="s">
+        <v>237</v>
+      </c>
+      <c r="E78">
+        <v>221</v>
+      </c>
+      <c r="F78" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>235</v>
+      </c>
+      <c r="B79" t="s">
+        <v>236</v>
+      </c>
+      <c r="C79" t="s">
+        <v>299</v>
+      </c>
+      <c r="D79" t="s">
+        <v>237</v>
+      </c>
+      <c r="E79">
+        <v>320</v>
+      </c>
+      <c r="F79" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>235</v>
+      </c>
+      <c r="B80" t="s">
+        <v>236</v>
+      </c>
+      <c r="C80" t="s">
+        <v>300</v>
+      </c>
+      <c r="D80" t="s">
+        <v>237</v>
+      </c>
+      <c r="E80">
+        <v>221</v>
+      </c>
+      <c r="F80" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>235</v>
+      </c>
+      <c r="B81" t="s">
+        <v>236</v>
+      </c>
+      <c r="C81" t="s">
+        <v>301</v>
+      </c>
+      <c r="D81" t="s">
+        <v>237</v>
+      </c>
+      <c r="E81">
+        <v>221</v>
+      </c>
+      <c r="F81" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>235</v>
+      </c>
+      <c r="B82" t="s">
+        <v>236</v>
+      </c>
+      <c r="C82" t="s">
+        <v>302</v>
+      </c>
+      <c r="D82" t="s">
+        <v>237</v>
+      </c>
+      <c r="E82">
+        <v>253</v>
+      </c>
+      <c r="F82" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>235</v>
+      </c>
+      <c r="B83" t="s">
+        <v>236</v>
+      </c>
+      <c r="C83" t="s">
+        <v>303</v>
+      </c>
+      <c r="D83" t="s">
+        <v>237</v>
+      </c>
+      <c r="E83">
+        <v>204</v>
+      </c>
+      <c r="F83" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>235</v>
+      </c>
+      <c r="B84" t="s">
+        <v>236</v>
+      </c>
+      <c r="C84" t="s">
+        <v>304</v>
+      </c>
+      <c r="D84" t="s">
+        <v>237</v>
+      </c>
+      <c r="E84">
+        <v>222</v>
+      </c>
+      <c r="F84" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>235</v>
+      </c>
+      <c r="B85" t="s">
+        <v>236</v>
+      </c>
+      <c r="C85" t="s">
+        <v>305</v>
+      </c>
+      <c r="D85" t="s">
+        <v>237</v>
+      </c>
+      <c r="E85">
+        <v>200</v>
+      </c>
+      <c r="F85" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>235</v>
+      </c>
+      <c r="B86" t="s">
+        <v>236</v>
+      </c>
+      <c r="C86" t="s">
+        <v>306</v>
+      </c>
+      <c r="D86" t="s">
+        <v>237</v>
+      </c>
+      <c r="E86">
+        <v>174</v>
+      </c>
+      <c r="F86" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>235</v>
+      </c>
+      <c r="B87" t="s">
+        <v>236</v>
+      </c>
+      <c r="C87" t="s">
+        <v>307</v>
+      </c>
+      <c r="D87" t="s">
+        <v>237</v>
+      </c>
+      <c r="E87">
+        <v>158</v>
+      </c>
+      <c r="F87" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>235</v>
+      </c>
+      <c r="B88" t="s">
+        <v>236</v>
+      </c>
+      <c r="C88" t="s">
+        <v>308</v>
+      </c>
+      <c r="D88" t="s">
+        <v>237</v>
+      </c>
+      <c r="E88">
+        <v>166</v>
+      </c>
+      <c r="F88" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>235</v>
+      </c>
+      <c r="B89" t="s">
+        <v>236</v>
+      </c>
+      <c r="C89" t="s">
+        <v>309</v>
+      </c>
+      <c r="D89" t="s">
+        <v>237</v>
+      </c>
+      <c r="E89">
+        <v>132</v>
+      </c>
+      <c r="F89" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>235</v>
+      </c>
+      <c r="B90" t="s">
+        <v>236</v>
+      </c>
+      <c r="C90" t="s">
+        <v>310</v>
+      </c>
+      <c r="D90" t="s">
+        <v>237</v>
+      </c>
+      <c r="E90">
+        <v>158</v>
+      </c>
+      <c r="F90" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>235</v>
+      </c>
+      <c r="B91" t="s">
+        <v>236</v>
+      </c>
+      <c r="C91" t="s">
+        <v>311</v>
+      </c>
+      <c r="D91" t="s">
+        <v>237</v>
+      </c>
+      <c r="E91">
+        <v>175</v>
+      </c>
+      <c r="F91" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>235</v>
+      </c>
+      <c r="B92" t="s">
+        <v>236</v>
+      </c>
+      <c r="C92" t="s">
+        <v>312</v>
+      </c>
+      <c r="D92" t="s">
+        <v>237</v>
+      </c>
+      <c r="E92">
+        <v>118</v>
+      </c>
+      <c r="F92" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>235</v>
+      </c>
+      <c r="B93" t="s">
+        <v>236</v>
+      </c>
+      <c r="C93" t="s">
+        <v>313</v>
+      </c>
+      <c r="D93" t="s">
+        <v>237</v>
+      </c>
+      <c r="E93">
+        <v>137</v>
+      </c>
+      <c r="F93" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>235</v>
+      </c>
+      <c r="B94" t="s">
+        <v>236</v>
+      </c>
+      <c r="C94" t="s">
+        <v>314</v>
+      </c>
+      <c r="D94" t="s">
+        <v>237</v>
+      </c>
+      <c r="E94">
+        <v>101</v>
+      </c>
+      <c r="F94" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>235</v>
+      </c>
+      <c r="B95" t="s">
+        <v>236</v>
+      </c>
+      <c r="C95" t="s">
+        <v>315</v>
+      </c>
+      <c r="D95" t="s">
+        <v>237</v>
+      </c>
+      <c r="E95">
+        <v>139</v>
+      </c>
+      <c r="F95" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>235</v>
+      </c>
+      <c r="B96" t="s">
+        <v>236</v>
+      </c>
+      <c r="C96" t="s">
+        <v>316</v>
+      </c>
+      <c r="D96" t="s">
+        <v>237</v>
+      </c>
+      <c r="E96">
+        <v>148</v>
+      </c>
+      <c r="F96" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>235</v>
+      </c>
+      <c r="B97" t="s">
+        <v>236</v>
+      </c>
+      <c r="C97" t="s">
+        <v>317</v>
+      </c>
+      <c r="D97" t="s">
+        <v>237</v>
+      </c>
+      <c r="E97">
+        <v>94</v>
+      </c>
+      <c r="F97" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>235</v>
+      </c>
+      <c r="B98" t="s">
+        <v>236</v>
+      </c>
+      <c r="C98" t="s">
+        <v>318</v>
+      </c>
+      <c r="D98" t="s">
+        <v>237</v>
+      </c>
+      <c r="E98">
+        <v>104</v>
+      </c>
+      <c r="F98" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>235</v>
+      </c>
+      <c r="B99" t="s">
+        <v>236</v>
+      </c>
+      <c r="C99" t="s">
+        <v>319</v>
+      </c>
+      <c r="D99" t="s">
+        <v>237</v>
+      </c>
+      <c r="E99">
+        <v>92</v>
+      </c>
+      <c r="F99" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>235</v>
+      </c>
+      <c r="B100" t="s">
+        <v>236</v>
+      </c>
+      <c r="C100" t="s">
+        <v>320</v>
+      </c>
+      <c r="D100" t="s">
+        <v>237</v>
+      </c>
+      <c r="E100">
+        <v>92</v>
+      </c>
+      <c r="F100" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>235</v>
+      </c>
+      <c r="B101" t="s">
+        <v>236</v>
+      </c>
+      <c r="C101" t="s">
+        <v>321</v>
+      </c>
+      <c r="D101" t="s">
+        <v>237</v>
+      </c>
+      <c r="E101">
+        <v>76</v>
+      </c>
+      <c r="F101" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>235</v>
+      </c>
+      <c r="B102" t="s">
+        <v>236</v>
+      </c>
+      <c r="C102" t="s">
+        <v>322</v>
+      </c>
+      <c r="D102" t="s">
+        <v>237</v>
+      </c>
+      <c r="E102">
+        <v>89</v>
+      </c>
+      <c r="F102" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>235</v>
+      </c>
+      <c r="B103" t="s">
+        <v>236</v>
+      </c>
+      <c r="C103" t="s">
+        <v>323</v>
+      </c>
+      <c r="D103" t="s">
+        <v>237</v>
+      </c>
+      <c r="E103">
+        <v>77</v>
+      </c>
+      <c r="F103" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>235</v>
+      </c>
+      <c r="B104" t="s">
+        <v>236</v>
+      </c>
+      <c r="C104" t="s">
+        <v>324</v>
+      </c>
+      <c r="D104" t="s">
+        <v>237</v>
+      </c>
+      <c r="E104">
+        <v>77</v>
+      </c>
+      <c r="F104" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>235</v>
+      </c>
+      <c r="B105" t="s">
+        <v>236</v>
+      </c>
+      <c r="C105" t="s">
+        <v>325</v>
+      </c>
+      <c r="D105" t="s">
+        <v>237</v>
+      </c>
+      <c r="E105">
+        <v>68</v>
+      </c>
+      <c r="F105" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>235</v>
+      </c>
+      <c r="B106" t="s">
+        <v>236</v>
+      </c>
+      <c r="C106" t="s">
+        <v>326</v>
+      </c>
+      <c r="D106" t="s">
+        <v>237</v>
+      </c>
+      <c r="E106">
+        <v>75</v>
+      </c>
+      <c r="F106" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>235</v>
+      </c>
+      <c r="B107" t="s">
+        <v>236</v>
+      </c>
+      <c r="C107" t="s">
+        <v>327</v>
+      </c>
+      <c r="D107" t="s">
+        <v>237</v>
+      </c>
+      <c r="E107">
+        <v>98</v>
+      </c>
+      <c r="F107" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>235</v>
+      </c>
+      <c r="B108" t="s">
+        <v>236</v>
+      </c>
+      <c r="C108" t="s">
+        <v>328</v>
+      </c>
+      <c r="D108" t="s">
+        <v>237</v>
+      </c>
+      <c r="E108">
+        <v>75</v>
+      </c>
+      <c r="F108" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>235</v>
+      </c>
+      <c r="B109" t="s">
+        <v>236</v>
+      </c>
+      <c r="C109" t="s">
+        <v>329</v>
+      </c>
+      <c r="D109" t="s">
+        <v>237</v>
+      </c>
+      <c r="E109">
+        <v>72</v>
+      </c>
+      <c r="F109" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>235</v>
+      </c>
+      <c r="B110" t="s">
+        <v>236</v>
+      </c>
+      <c r="C110" t="s">
+        <v>330</v>
+      </c>
+      <c r="D110" t="s">
+        <v>237</v>
+      </c>
+      <c r="E110">
+        <v>73</v>
+      </c>
+      <c r="F110" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>235</v>
+      </c>
+      <c r="B111" t="s">
+        <v>236</v>
+      </c>
+      <c r="C111" t="s">
+        <v>331</v>
+      </c>
+      <c r="D111" t="s">
+        <v>237</v>
+      </c>
+      <c r="E111">
+        <v>79</v>
+      </c>
+      <c r="F111" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>235</v>
+      </c>
+      <c r="B112" t="s">
+        <v>236</v>
+      </c>
+      <c r="C112" t="s">
+        <v>332</v>
+      </c>
+      <c r="D112" t="s">
+        <v>237</v>
+      </c>
+      <c r="E112">
+        <v>69</v>
+      </c>
+      <c r="F112" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>235</v>
+      </c>
+      <c r="B113" t="s">
+        <v>236</v>
+      </c>
+      <c r="C113" t="s">
+        <v>333</v>
+      </c>
+      <c r="D113" t="s">
+        <v>237</v>
+      </c>
+      <c r="E113">
+        <v>105</v>
+      </c>
+      <c r="F113" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>235</v>
+      </c>
+      <c r="B114" t="s">
+        <v>236</v>
+      </c>
+      <c r="C114" t="s">
+        <v>334</v>
+      </c>
+      <c r="D114" t="s">
+        <v>237</v>
+      </c>
+      <c r="E114">
+        <v>63</v>
+      </c>
+      <c r="F114" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>235</v>
+      </c>
+      <c r="B115" t="s">
+        <v>236</v>
+      </c>
+      <c r="C115" t="s">
+        <v>335</v>
+      </c>
+      <c r="D115" t="s">
+        <v>237</v>
+      </c>
+      <c r="E115">
+        <v>52</v>
+      </c>
+      <c r="F115" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>235</v>
+      </c>
+      <c r="B116" t="s">
+        <v>236</v>
+      </c>
+      <c r="D116" t="s">
+        <v>237</v>
+      </c>
+      <c r="E116">
+        <v>58</v>
+      </c>
+      <c r="F116" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>235</v>
+      </c>
+      <c r="B117" t="s">
+        <v>236</v>
+      </c>
+      <c r="C117" t="s">
+        <v>336</v>
+      </c>
+      <c r="D117" t="s">
+        <v>237</v>
+      </c>
+      <c r="E117">
+        <v>70</v>
+      </c>
+      <c r="F117" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>235</v>
+      </c>
+      <c r="B118" t="s">
+        <v>236</v>
+      </c>
+      <c r="C118" t="s">
+        <v>337</v>
+      </c>
+      <c r="D118" t="s">
+        <v>237</v>
+      </c>
+      <c r="E118">
+        <v>61</v>
+      </c>
+      <c r="F118" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>235</v>
+      </c>
+      <c r="B119" t="s">
+        <v>236</v>
+      </c>
+      <c r="C119" t="s">
+        <v>338</v>
+      </c>
+      <c r="D119" t="s">
+        <v>237</v>
+      </c>
+      <c r="E119">
+        <v>61</v>
+      </c>
+      <c r="F119" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>235</v>
+      </c>
+      <c r="B120" t="s">
+        <v>236</v>
+      </c>
+      <c r="C120" t="s">
+        <v>339</v>
+      </c>
+      <c r="D120" t="s">
+        <v>237</v>
+      </c>
+      <c r="E120">
+        <v>56</v>
+      </c>
+      <c r="F120" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>235</v>
+      </c>
+      <c r="B121" t="s">
+        <v>236</v>
+      </c>
+      <c r="C121" t="s">
+        <v>341</v>
+      </c>
+      <c r="D121" t="s">
+        <v>237</v>
+      </c>
+      <c r="E121">
+        <v>46</v>
+      </c>
+      <c r="F121" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>235</v>
+      </c>
+      <c r="B122" t="s">
+        <v>236</v>
+      </c>
+      <c r="C122" t="s">
+        <v>340</v>
+      </c>
+      <c r="D122" t="s">
+        <v>237</v>
+      </c>
+      <c r="E122">
+        <v>57</v>
+      </c>
+      <c r="F122" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>235</v>
+      </c>
+      <c r="B123" t="s">
+        <v>236</v>
+      </c>
+      <c r="C123" t="s">
+        <v>342</v>
+      </c>
+      <c r="D123" t="s">
+        <v>237</v>
+      </c>
+      <c r="E123">
+        <v>49</v>
+      </c>
+      <c r="F123" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>235</v>
+      </c>
+      <c r="B124" t="s">
+        <v>236</v>
+      </c>
+      <c r="C124" t="s">
+        <v>343</v>
+      </c>
+      <c r="D124" t="s">
+        <v>237</v>
+      </c>
+      <c r="E124">
+        <v>65</v>
+      </c>
+      <c r="F124" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>235</v>
+      </c>
+      <c r="B125" t="s">
+        <v>236</v>
+      </c>
+      <c r="C125" t="s">
+        <v>344</v>
+      </c>
+      <c r="D125" t="s">
+        <v>237</v>
+      </c>
+      <c r="E125">
+        <v>61</v>
+      </c>
+      <c r="F125" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>235</v>
+      </c>
+      <c r="B126" t="s">
+        <v>236</v>
+      </c>
+      <c r="C126" t="s">
+        <v>345</v>
+      </c>
+      <c r="D126" t="s">
+        <v>237</v>
+      </c>
+      <c r="E126">
+        <v>53</v>
+      </c>
+      <c r="F126" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>235</v>
+      </c>
+      <c r="B127" t="s">
+        <v>236</v>
+      </c>
+      <c r="C127" t="s">
+        <v>346</v>
+      </c>
+      <c r="D127" t="s">
+        <v>237</v>
+      </c>
+      <c r="E127">
+        <v>38</v>
+      </c>
+      <c r="F127" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>235</v>
+      </c>
+      <c r="B128" t="s">
+        <v>236</v>
+      </c>
+      <c r="C128" t="s">
+        <v>347</v>
+      </c>
+      <c r="D128" t="s">
+        <v>237</v>
+      </c>
+      <c r="E128">
+        <v>41</v>
+      </c>
+      <c r="F128" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>235</v>
+      </c>
+      <c r="B129" t="s">
+        <v>236</v>
+      </c>
+      <c r="C129" t="s">
+        <v>348</v>
+      </c>
+      <c r="D129" t="s">
+        <v>237</v>
+      </c>
+      <c r="E129">
+        <v>30</v>
+      </c>
+      <c r="F129" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>235</v>
+      </c>
+      <c r="B130" t="s">
+        <v>236</v>
+      </c>
+      <c r="C130" t="s">
+        <v>349</v>
+      </c>
+      <c r="D130" t="s">
+        <v>237</v>
+      </c>
+      <c r="E130">
+        <v>34</v>
+      </c>
+      <c r="F130" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>235</v>
+      </c>
+      <c r="B131" t="s">
+        <v>236</v>
+      </c>
+      <c r="C131" t="s">
+        <v>350</v>
+      </c>
+      <c r="D131" t="s">
+        <v>237</v>
+      </c>
+      <c r="E131">
+        <v>29</v>
+      </c>
+      <c r="F131" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>235</v>
+      </c>
+      <c r="B132" t="s">
+        <v>236</v>
+      </c>
+      <c r="C132" t="s">
+        <v>351</v>
+      </c>
+      <c r="D132" t="s">
+        <v>237</v>
+      </c>
+      <c r="E132">
+        <v>37</v>
+      </c>
+      <c r="F132" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>235</v>
+      </c>
+      <c r="B133" t="s">
+        <v>236</v>
+      </c>
+      <c r="C133" t="s">
+        <v>352</v>
+      </c>
+      <c r="D133" t="s">
+        <v>237</v>
+      </c>
+      <c r="E133">
+        <v>30</v>
+      </c>
+      <c r="F133" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>235</v>
+      </c>
+      <c r="B134" t="s">
+        <v>236</v>
+      </c>
+      <c r="C134" t="s">
+        <v>353</v>
+      </c>
+      <c r="D134" t="s">
+        <v>237</v>
+      </c>
+      <c r="E134">
+        <v>30</v>
+      </c>
+      <c r="F134" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>235</v>
+      </c>
+      <c r="B135" t="s">
+        <v>236</v>
+      </c>
+      <c r="C135" t="s">
+        <v>354</v>
+      </c>
+      <c r="D135" t="s">
+        <v>237</v>
+      </c>
+      <c r="E135">
+        <v>29</v>
+      </c>
+      <c r="F135" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>235</v>
+      </c>
+      <c r="B136" t="s">
+        <v>236</v>
+      </c>
+      <c r="C136" t="s">
+        <v>355</v>
+      </c>
+      <c r="D136" t="s">
+        <v>237</v>
+      </c>
+      <c r="E136">
+        <v>28</v>
+      </c>
+      <c r="F136" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>235</v>
+      </c>
+      <c r="B137" t="s">
+        <v>236</v>
+      </c>
+      <c r="C137" t="s">
+        <v>356</v>
+      </c>
+      <c r="D137" t="s">
+        <v>237</v>
+      </c>
+      <c r="E137">
+        <v>26</v>
+      </c>
+      <c r="F137" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>235</v>
+      </c>
+      <c r="B138" t="s">
+        <v>236</v>
+      </c>
+      <c r="C138" t="s">
+        <v>357</v>
+      </c>
+      <c r="D138" t="s">
+        <v>237</v>
+      </c>
+      <c r="E138">
+        <v>19</v>
+      </c>
+      <c r="F138" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>235</v>
+      </c>
+      <c r="B139" t="s">
+        <v>236</v>
+      </c>
+      <c r="C139" t="s">
+        <v>358</v>
+      </c>
+      <c r="D139" t="s">
+        <v>237</v>
+      </c>
+      <c r="E139">
+        <v>20</v>
+      </c>
+      <c r="F139" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>235</v>
+      </c>
+      <c r="B140" t="s">
+        <v>236</v>
+      </c>
+      <c r="C140" t="s">
+        <v>359</v>
+      </c>
+      <c r="D140" t="s">
+        <v>237</v>
+      </c>
+      <c r="E140">
+        <v>20</v>
+      </c>
+      <c r="F140" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>235</v>
+      </c>
+      <c r="B141" t="s">
+        <v>236</v>
+      </c>
+      <c r="C141" t="s">
+        <v>360</v>
+      </c>
+      <c r="D141" t="s">
+        <v>237</v>
+      </c>
+      <c r="E141">
+        <v>18</v>
+      </c>
+      <c r="F141" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>235</v>
+      </c>
+      <c r="B142" t="s">
+        <v>236</v>
+      </c>
+      <c r="C142" t="s">
+        <v>361</v>
+      </c>
+      <c r="D142" t="s">
+        <v>237</v>
+      </c>
+      <c r="E142">
+        <v>19</v>
+      </c>
+      <c r="F142" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>235</v>
+      </c>
+      <c r="B143" t="s">
+        <v>236</v>
+      </c>
+      <c r="C143" t="s">
+        <v>362</v>
+      </c>
+      <c r="D143" t="s">
+        <v>237</v>
+      </c>
+      <c r="E143">
+        <v>21</v>
+      </c>
+      <c r="F143" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>235</v>
+      </c>
+      <c r="B144" t="s">
+        <v>236</v>
+      </c>
+      <c r="C144" t="s">
+        <v>363</v>
+      </c>
+      <c r="D144" t="s">
+        <v>237</v>
+      </c>
+      <c r="E144">
+        <v>17</v>
+      </c>
+      <c r="F144" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>235</v>
+      </c>
+      <c r="B145" t="s">
+        <v>236</v>
+      </c>
+      <c r="C145" t="s">
+        <v>364</v>
+      </c>
+      <c r="D145" t="s">
+        <v>237</v>
+      </c>
+      <c r="E145">
+        <v>17</v>
+      </c>
+      <c r="F145" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>235</v>
+      </c>
+      <c r="B146" t="s">
+        <v>236</v>
+      </c>
+      <c r="C146" t="s">
+        <v>365</v>
+      </c>
+      <c r="D146" t="s">
+        <v>237</v>
+      </c>
+      <c r="E146">
+        <v>27</v>
+      </c>
+      <c r="F146" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>235</v>
+      </c>
+      <c r="B147" t="s">
+        <v>236</v>
+      </c>
+      <c r="D147" t="s">
+        <v>237</v>
+      </c>
+      <c r="E147">
+        <v>10</v>
+      </c>
+      <c r="F147" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>235</v>
+      </c>
+      <c r="B148" t="s">
+        <v>236</v>
+      </c>
+      <c r="C148" t="s">
+        <v>366</v>
+      </c>
+      <c r="D148" t="s">
+        <v>237</v>
+      </c>
+      <c r="E148">
+        <v>20</v>
+      </c>
+      <c r="F148" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>235</v>
+      </c>
+      <c r="B149" t="s">
+        <v>236</v>
+      </c>
+      <c r="C149" t="s">
+        <v>360</v>
+      </c>
+      <c r="D149" t="s">
+        <v>237</v>
+      </c>
+      <c r="E149">
+        <v>14</v>
+      </c>
+      <c r="F149" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>235</v>
+      </c>
+      <c r="B150" t="s">
+        <v>236</v>
+      </c>
+      <c r="C150" t="s">
+        <v>367</v>
+      </c>
+      <c r="D150" t="s">
+        <v>237</v>
+      </c>
+      <c r="E150">
+        <v>13</v>
+      </c>
+      <c r="F150" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>235</v>
+      </c>
+      <c r="B151" t="s">
+        <v>236</v>
+      </c>
+      <c r="C151" t="s">
+        <v>368</v>
+      </c>
+      <c r="D151" t="s">
+        <v>237</v>
+      </c>
+      <c r="E151">
+        <v>12</v>
+      </c>
+      <c r="F151" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>235</v>
+      </c>
+      <c r="B152" t="s">
+        <v>236</v>
+      </c>
+      <c r="C152" t="s">
+        <v>369</v>
+      </c>
+      <c r="D152" t="s">
+        <v>237</v>
+      </c>
+      <c r="E152">
+        <v>7</v>
+      </c>
+      <c r="F152" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>235</v>
+      </c>
+      <c r="B153" t="s">
+        <v>236</v>
+      </c>
+      <c r="C153" t="s">
+        <v>370</v>
+      </c>
+      <c r="D153" t="s">
+        <v>237</v>
+      </c>
+      <c r="E153">
+        <v>7</v>
+      </c>
+      <c r="F153" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>235</v>
+      </c>
+      <c r="B154" t="s">
+        <v>236</v>
+      </c>
+      <c r="C154" t="s">
+        <v>371</v>
+      </c>
+      <c r="D154" t="s">
+        <v>237</v>
+      </c>
+      <c r="E154">
+        <v>7</v>
+      </c>
+      <c r="F154" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>235</v>
+      </c>
+      <c r="B155" t="s">
+        <v>236</v>
+      </c>
+      <c r="C155" t="s">
+        <v>372</v>
+      </c>
+      <c r="D155" t="s">
+        <v>237</v>
+      </c>
+      <c r="E155">
+        <v>10</v>
+      </c>
+      <c r="F155" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>235</v>
+      </c>
+      <c r="B156" t="s">
+        <v>236</v>
+      </c>
+      <c r="C156" t="s">
+        <v>373</v>
+      </c>
+      <c r="D156" t="s">
+        <v>237</v>
+      </c>
+      <c r="E156">
+        <v>11</v>
+      </c>
+      <c r="F156" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>235</v>
+      </c>
+      <c r="B157" t="s">
+        <v>236</v>
+      </c>
+      <c r="C157" t="s">
+        <v>374</v>
+      </c>
+      <c r="D157" t="s">
+        <v>237</v>
+      </c>
+      <c r="E157">
+        <v>10</v>
+      </c>
+      <c r="F157" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>235</v>
+      </c>
+      <c r="B158" t="s">
+        <v>236</v>
+      </c>
+      <c r="C158" t="s">
+        <v>375</v>
+      </c>
+      <c r="D158" t="s">
+        <v>237</v>
+      </c>
+      <c r="E158">
+        <v>5</v>
+      </c>
+      <c r="F158" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>235</v>
+      </c>
+      <c r="B159" t="s">
+        <v>236</v>
+      </c>
+      <c r="C159" t="s">
+        <v>376</v>
+      </c>
+      <c r="D159" t="s">
+        <v>237</v>
+      </c>
+      <c r="E159">
+        <v>10</v>
+      </c>
+      <c r="F159" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>235</v>
+      </c>
+      <c r="B160" t="s">
+        <v>236</v>
+      </c>
+      <c r="C160" t="s">
+        <v>377</v>
+      </c>
+      <c r="D160" t="s">
+        <v>237</v>
+      </c>
+      <c r="E160">
+        <v>9</v>
+      </c>
+      <c r="F160" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>235</v>
+      </c>
+      <c r="B161" t="s">
+        <v>236</v>
+      </c>
+      <c r="D161" t="s">
+        <v>237</v>
+      </c>
+      <c r="E161">
+        <v>5</v>
+      </c>
+      <c r="F161" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>235</v>
+      </c>
+      <c r="B162" t="s">
+        <v>236</v>
+      </c>
+      <c r="C162" t="s">
+        <v>378</v>
+      </c>
+      <c r="D162" t="s">
+        <v>237</v>
+      </c>
+      <c r="E162">
+        <v>5</v>
+      </c>
+      <c r="F162" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>235</v>
+      </c>
+      <c r="B163" t="s">
+        <v>236</v>
+      </c>
+      <c r="C163" t="s">
+        <v>379</v>
+      </c>
+      <c r="D163" t="s">
+        <v>237</v>
+      </c>
+      <c r="E163">
+        <v>6</v>
+      </c>
+      <c r="F163" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>235</v>
+      </c>
+      <c r="B164" t="s">
+        <v>236</v>
+      </c>
+      <c r="C164" t="s">
+        <v>380</v>
+      </c>
+      <c r="D164" t="s">
+        <v>237</v>
+      </c>
+      <c r="E164">
+        <v>6</v>
+      </c>
+      <c r="F164" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>235</v>
+      </c>
+      <c r="B165" t="s">
+        <v>236</v>
+      </c>
+      <c r="C165" t="s">
+        <v>381</v>
+      </c>
+      <c r="D165" t="s">
+        <v>237</v>
+      </c>
+      <c r="E165">
+        <v>7</v>
+      </c>
+      <c r="F165" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>235</v>
+      </c>
+      <c r="B166" t="s">
+        <v>236</v>
+      </c>
+      <c r="C166" t="s">
+        <v>382</v>
+      </c>
+      <c r="D166" t="s">
+        <v>237</v>
+      </c>
+      <c r="E166">
+        <v>4</v>
+      </c>
+      <c r="F166" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>235</v>
+      </c>
+      <c r="B167" t="s">
+        <v>236</v>
+      </c>
+      <c r="C167" t="s">
+        <v>383</v>
+      </c>
+      <c r="D167" t="s">
+        <v>237</v>
+      </c>
+      <c r="E167">
+        <v>5</v>
+      </c>
+      <c r="F167" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>235</v>
+      </c>
+      <c r="B168" t="s">
+        <v>236</v>
+      </c>
+      <c r="C168" t="s">
+        <v>384</v>
+      </c>
+      <c r="D168" t="s">
+        <v>237</v>
+      </c>
+      <c r="E168">
+        <v>6</v>
+      </c>
+      <c r="F168" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>235</v>
+      </c>
+      <c r="B169" t="s">
+        <v>236</v>
+      </c>
+      <c r="C169" t="s">
+        <v>385</v>
+      </c>
+      <c r="D169" t="s">
+        <v>237</v>
+      </c>
+      <c r="E169">
+        <v>5</v>
+      </c>
+      <c r="F169" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>235</v>
+      </c>
+      <c r="B170" t="s">
+        <v>236</v>
+      </c>
+      <c r="C170" t="s">
+        <v>386</v>
+      </c>
+      <c r="D170" t="s">
+        <v>237</v>
+      </c>
+      <c r="E170">
+        <v>5</v>
+      </c>
+      <c r="F170" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>235</v>
+      </c>
+      <c r="B171" t="s">
+        <v>236</v>
+      </c>
+      <c r="C171" t="s">
+        <v>387</v>
+      </c>
+      <c r="D171" t="s">
+        <v>237</v>
+      </c>
+      <c r="E171">
+        <v>4</v>
+      </c>
+      <c r="F171" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>235</v>
+      </c>
+      <c r="B172" t="s">
+        <v>236</v>
+      </c>
+      <c r="C172" t="s">
+        <v>388</v>
+      </c>
+      <c r="D172" t="s">
+        <v>237</v>
+      </c>
+      <c r="E172">
+        <v>3</v>
+      </c>
+      <c r="F172" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>235</v>
+      </c>
+      <c r="B173" t="s">
+        <v>236</v>
+      </c>
+      <c r="C173" t="s">
+        <v>389</v>
+      </c>
+      <c r="D173" t="s">
+        <v>237</v>
+      </c>
+      <c r="E173">
+        <v>10</v>
+      </c>
+      <c r="F173" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>235</v>
+      </c>
+      <c r="B174" t="s">
+        <v>236</v>
+      </c>
+      <c r="C174" t="s">
+        <v>390</v>
+      </c>
+      <c r="D174" t="s">
+        <v>237</v>
+      </c>
+      <c r="E174">
+        <v>3</v>
+      </c>
+      <c r="F174" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>235</v>
+      </c>
+      <c r="B175" t="s">
+        <v>236</v>
+      </c>
+      <c r="C175" t="s">
+        <v>391</v>
+      </c>
+      <c r="D175" t="s">
+        <v>237</v>
+      </c>
+      <c r="E175">
+        <v>4</v>
+      </c>
+      <c r="F175" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>235</v>
+      </c>
+      <c r="B176" t="s">
+        <v>236</v>
+      </c>
+      <c r="C176" t="s">
+        <v>392</v>
+      </c>
+      <c r="D176" t="s">
+        <v>237</v>
+      </c>
+      <c r="E176">
+        <v>3</v>
+      </c>
+      <c r="F176" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>235</v>
+      </c>
+      <c r="B177" t="s">
+        <v>236</v>
+      </c>
+      <c r="C177" t="s">
+        <v>393</v>
+      </c>
+      <c r="D177" t="s">
+        <v>237</v>
+      </c>
+      <c r="E177">
+        <v>4</v>
+      </c>
+      <c r="F177" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>235</v>
+      </c>
+      <c r="B178" t="s">
+        <v>236</v>
+      </c>
+      <c r="C178" t="s">
+        <v>394</v>
+      </c>
+      <c r="D178" t="s">
+        <v>237</v>
+      </c>
+      <c r="E178">
+        <v>3</v>
+      </c>
+      <c r="F178" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>235</v>
+      </c>
+      <c r="B179" t="s">
+        <v>236</v>
+      </c>
+      <c r="C179" t="s">
+        <v>395</v>
+      </c>
+      <c r="D179" t="s">
+        <v>237</v>
+      </c>
+      <c r="E179">
+        <v>3</v>
+      </c>
+      <c r="F179" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>235</v>
+      </c>
+      <c r="B180" t="s">
+        <v>236</v>
+      </c>
+      <c r="C180" t="s">
+        <v>396</v>
+      </c>
+      <c r="D180" t="s">
+        <v>237</v>
+      </c>
+      <c r="E180">
+        <v>5</v>
+      </c>
+      <c r="F180" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>235</v>
+      </c>
+      <c r="B181" t="s">
+        <v>236</v>
+      </c>
+      <c r="C181" t="s">
+        <v>397</v>
+      </c>
+      <c r="D181" t="s">
+        <v>237</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+      <c r="F181" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>235</v>
+      </c>
+      <c r="B182" t="s">
+        <v>236</v>
+      </c>
+      <c r="C182" t="s">
+        <v>398</v>
+      </c>
+      <c r="D182" t="s">
+        <v>237</v>
+      </c>
+      <c r="E182">
+        <v>4</v>
+      </c>
+      <c r="F182" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>235</v>
+      </c>
+      <c r="B183" t="s">
+        <v>236</v>
+      </c>
+      <c r="C183" t="s">
+        <v>399</v>
+      </c>
+      <c r="D183" t="s">
+        <v>237</v>
+      </c>
+      <c r="E183">
+        <v>1</v>
+      </c>
+      <c r="F183" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>235</v>
+      </c>
+      <c r="B184" t="s">
+        <v>236</v>
+      </c>
+      <c r="C184" t="s">
+        <v>401</v>
+      </c>
+      <c r="D184" t="s">
+        <v>237</v>
+      </c>
+      <c r="E184">
+        <v>1</v>
+      </c>
+      <c r="F184" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>235</v>
+      </c>
+      <c r="B185" t="s">
+        <v>236</v>
+      </c>
+      <c r="C185" t="s">
+        <v>400</v>
+      </c>
+      <c r="D185" t="s">
+        <v>237</v>
+      </c>
+      <c r="E185">
+        <v>1</v>
+      </c>
+      <c r="F185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>235</v>
+      </c>
+      <c r="B186" t="s">
+        <v>236</v>
+      </c>
+      <c r="C186" t="s">
+        <v>402</v>
+      </c>
+      <c r="D186" t="s">
+        <v>237</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+      <c r="F186" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>235</v>
+      </c>
+      <c r="B187" t="s">
+        <v>236</v>
+      </c>
+      <c r="C187" t="s">
+        <v>403</v>
+      </c>
+      <c r="D187" t="s">
+        <v>237</v>
+      </c>
+      <c r="E187">
+        <v>1</v>
+      </c>
+      <c r="F187" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>235</v>
+      </c>
+      <c r="B188" t="s">
+        <v>236</v>
+      </c>
+      <c r="C188" t="s">
+        <v>404</v>
+      </c>
+      <c r="D188" t="s">
+        <v>237</v>
+      </c>
+      <c r="E188">
+        <v>2</v>
+      </c>
+      <c r="F188" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>235</v>
+      </c>
+      <c r="B189" t="s">
+        <v>236</v>
+      </c>
+      <c r="C189" t="s">
+        <v>405</v>
+      </c>
+      <c r="D189" t="s">
+        <v>237</v>
+      </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
+      <c r="F189" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>235</v>
+      </c>
+      <c r="B190" t="s">
+        <v>236</v>
+      </c>
+      <c r="C190" t="s">
+        <v>406</v>
+      </c>
+      <c r="D190" t="s">
+        <v>237</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
+      <c r="F190" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>235</v>
+      </c>
+      <c r="B191" t="s">
+        <v>236</v>
+      </c>
+      <c r="C191" t="s">
+        <v>407</v>
+      </c>
+      <c r="D191" t="s">
+        <v>237</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
+      <c r="F191" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>235</v>
+      </c>
+      <c r="B192" t="s">
+        <v>236</v>
+      </c>
+      <c r="C192" t="s">
+        <v>408</v>
+      </c>
+      <c r="D192" t="s">
+        <v>237</v>
+      </c>
+      <c r="E192">
+        <v>5</v>
+      </c>
+      <c r="F192" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>235</v>
+      </c>
+      <c r="B193" t="s">
+        <v>236</v>
+      </c>
+      <c r="C193" t="s">
+        <v>409</v>
+      </c>
+      <c r="D193" t="s">
+        <v>237</v>
+      </c>
+      <c r="E193">
+        <v>1</v>
+      </c>
+      <c r="F193" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>235</v>
+      </c>
+      <c r="B194" t="s">
+        <v>236</v>
+      </c>
+      <c r="C194" t="s">
+        <v>410</v>
+      </c>
+      <c r="D194" t="s">
+        <v>237</v>
+      </c>
+      <c r="E194">
+        <v>3</v>
+      </c>
+      <c r="F194" t="s">
+        <v>238</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/applets/maps-info/data/data-all-together.xlsx
+++ b/applets/maps-info/data/data-all-together.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlos/Documents/GitHub/complex-analysis.github.io/applets/maps-info/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBD19C0-706B-5B4B-ADA9-3BA2E4878414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857657E2-5126-7344-A59B-C5842D610934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53640" yWindow="2200" windowWidth="33600" windowHeight="18400" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53640" yWindow="2200" windowWidth="33600" windowHeight="18400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
@@ -8056,8 +8056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F58D68-E831-3741-BC0B-74DEACB0FFF1}">
   <dimension ref="A1:M196"/>
   <sheetViews>
-    <sheetView topLeftCell="A185" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCell="E195" sqref="E2:E195"/>
+    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="F152" sqref="F152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17973,7 +17973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77E7DF6-81F7-BC42-9B3D-4022CB67E0D0}">
   <dimension ref="A1:F194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F194"/>
     </sheetView>
   </sheetViews>

--- a/applets/maps-info/data/data-all-together.xlsx
+++ b/applets/maps-info/data/data-all-together.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlos/Documents/GitHub/complex-analysis.github.io/applets/maps-info/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857657E2-5126-7344-A59B-C5842D610934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83DC780-E803-D54B-BA70-404D0255FB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53640" yWindow="2200" windowWidth="33600" windowHeight="18400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="2200" windowWidth="33600" windowHeight="18400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
-    <sheet name="Conjunto de datos1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
+    <sheet name="Old-G-Analytics" sheetId="2" r:id="rId2"/>
+    <sheet name="Add-Data" sheetId="3" r:id="rId3"/>
+    <sheet name="G4A-data" sheetId="4" r:id="rId4"/>
+    <sheet name="JS-format" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="413">
   <si>
     <t>Todos los datos de sitios web</t>
   </si>
@@ -1270,6 +1270,12 @@
   </si>
   <si>
     <t>"WS"</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Old</t>
   </si>
 </sst>
 </file>
@@ -1356,20 +1362,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <name val="Helvetica Neue"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1404,6 +1396,20 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
@@ -1418,11 +1424,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{580B98E0-8387-F846-8DED-F5CD6D446377}" name="Table1" displayName="Table1" ref="A1:D182" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{580B98E0-8387-F846-8DED-F5CD6D446377}" name="Table1" displayName="Table1" ref="A1:D182" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:D182" xr:uid="{580B98E0-8387-F846-8DED-F5CD6D446377}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{25E22830-679A-3E4C-BF0F-F99EBCC161A5}" name="País" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{941601B3-0600-9649-9615-6EB608EECD65}" name="Usuarios" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{25E22830-679A-3E4C-BF0F-F99EBCC161A5}" name="País" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{941601B3-0600-9649-9615-6EB608EECD65}" name="Usuarios" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{2B227F60-C88F-3E49-821D-F03077804325}" name="Old Analytics" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{DCEE59B0-9A01-734C-B6A9-AA027A83C3AA}" name="Total"/>
   </tableColumns>
@@ -1768,7 +1774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J196"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -8054,10 +8060,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F58D68-E831-3741-BC0B-74DEACB0FFF1}">
-  <dimension ref="A1:M196"/>
+  <dimension ref="A1:M197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCell="F152" sqref="F152"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="E196" sqref="E196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8123,7 +8129,7 @@
         <v>56606</v>
       </c>
       <c r="D2" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B2,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B2,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>7989</v>
       </c>
       <c r="E2">
@@ -8166,7 +8172,7 @@
         <v>27281</v>
       </c>
       <c r="D3" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B3,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B3,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>13121</v>
       </c>
       <c r="E3">
@@ -8209,7 +8215,7 @@
         <v>10758</v>
       </c>
       <c r="D4" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B4,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B4,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>8556</v>
       </c>
       <c r="E4">
@@ -8252,7 +8258,7 @@
         <v>9113</v>
       </c>
       <c r="D5" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B5,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B5,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>4116</v>
       </c>
       <c r="E5">
@@ -8295,7 +8301,7 @@
         <v>8976</v>
       </c>
       <c r="D6" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B6,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B6,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>6422</v>
       </c>
       <c r="E6">
@@ -8338,7 +8344,7 @@
         <v>5301</v>
       </c>
       <c r="D7" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B7,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B7,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>2244</v>
       </c>
       <c r="E7">
@@ -8381,7 +8387,7 @@
         <v>5151</v>
       </c>
       <c r="D8" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B8,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B8,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>2054</v>
       </c>
       <c r="E8">
@@ -8424,7 +8430,7 @@
         <v>4157</v>
       </c>
       <c r="D9" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B9,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B9,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>662</v>
       </c>
       <c r="E9">
@@ -8467,7 +8473,7 @@
         <v>3678</v>
       </c>
       <c r="D10" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B10,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B10,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>3553</v>
       </c>
       <c r="E10">
@@ -8510,7 +8516,7 @@
         <v>3407</v>
       </c>
       <c r="D11" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B11,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B11,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>2711</v>
       </c>
       <c r="E11">
@@ -8553,7 +8559,7 @@
         <v>2878</v>
       </c>
       <c r="D12" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B12,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B12,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>1781</v>
       </c>
       <c r="E12">
@@ -8596,7 +8602,7 @@
         <v>2825</v>
       </c>
       <c r="D13" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B13,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B13,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>1549</v>
       </c>
       <c r="E13">
@@ -8639,7 +8645,7 @@
         <v>2399</v>
       </c>
       <c r="D14" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B14,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B14,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>882</v>
       </c>
       <c r="E14">
@@ -8682,7 +8688,7 @@
         <v>2147</v>
       </c>
       <c r="D15" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B15,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B15,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>213</v>
       </c>
       <c r="E15">
@@ -8725,7 +8731,7 @@
         <v>2006</v>
       </c>
       <c r="D16" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B16,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B16,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>592</v>
       </c>
       <c r="E16">
@@ -8768,7 +8774,7 @@
         <v>1988</v>
       </c>
       <c r="D17" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B17,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B17,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>1634</v>
       </c>
       <c r="E17">
@@ -8811,7 +8817,7 @@
         <v>1729</v>
       </c>
       <c r="D18" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B18,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B18,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>976</v>
       </c>
       <c r="E18">
@@ -8854,7 +8860,7 @@
         <v>1562</v>
       </c>
       <c r="D19" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B19,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B19,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>636</v>
       </c>
       <c r="E19">
@@ -8897,7 +8903,7 @@
         <v>1535</v>
       </c>
       <c r="D20" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B20,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B20,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>268</v>
       </c>
       <c r="E20">
@@ -8940,7 +8946,7 @@
         <v>1510</v>
       </c>
       <c r="D21" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B21,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B21,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>1284</v>
       </c>
       <c r="E21">
@@ -8983,7 +8989,7 @@
         <v>1455</v>
       </c>
       <c r="D22" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B22,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B22,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>713</v>
       </c>
       <c r="E22">
@@ -9026,7 +9032,7 @@
         <v>1450</v>
       </c>
       <c r="D23" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B23,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B23,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>763</v>
       </c>
       <c r="E23">
@@ -9069,7 +9075,7 @@
         <v>1356</v>
       </c>
       <c r="D24" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B24,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B24,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>464</v>
       </c>
       <c r="E24">
@@ -9112,7 +9118,7 @@
         <v>1333</v>
       </c>
       <c r="D25" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B25,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B25,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>254</v>
       </c>
       <c r="E25">
@@ -9155,7 +9161,7 @@
         <v>1292</v>
       </c>
       <c r="D26" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B26,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B26,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>459</v>
       </c>
       <c r="E26">
@@ -9198,7 +9204,7 @@
         <v>1279</v>
       </c>
       <c r="D27" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B27,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B27,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>490</v>
       </c>
       <c r="E27">
@@ -9241,7 +9247,7 @@
         <v>1248</v>
       </c>
       <c r="D28" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B28,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B28,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>584</v>
       </c>
       <c r="E28">
@@ -9284,7 +9290,7 @@
         <v>1214</v>
       </c>
       <c r="D29" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B29,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B29,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>1015</v>
       </c>
       <c r="E29">
@@ -9327,7 +9333,7 @@
         <v>1112</v>
       </c>
       <c r="D30" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B30,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B30,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>492</v>
       </c>
       <c r="E30">
@@ -9370,7 +9376,7 @@
         <v>1030</v>
       </c>
       <c r="D31" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B31,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B31,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>229</v>
       </c>
       <c r="E31">
@@ -9413,7 +9419,7 @@
         <v>1023</v>
       </c>
       <c r="D32" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B32,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B32,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>375</v>
       </c>
       <c r="E32">
@@ -9456,7 +9462,7 @@
         <v>1006</v>
       </c>
       <c r="D33" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B33,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B33,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>713</v>
       </c>
       <c r="E33">
@@ -9499,7 +9505,7 @@
         <v>1005</v>
       </c>
       <c r="D34" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B34,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B34,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>277</v>
       </c>
       <c r="E34">
@@ -9542,7 +9548,7 @@
         <v>976</v>
       </c>
       <c r="D35" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B35,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B35,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>464</v>
       </c>
       <c r="E35">
@@ -9585,7 +9591,7 @@
         <v>970</v>
       </c>
       <c r="D36" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B36,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B36,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>344</v>
       </c>
       <c r="E36">
@@ -9628,7 +9634,7 @@
         <v>958</v>
       </c>
       <c r="D37" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B37,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B37,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>349</v>
       </c>
       <c r="E37">
@@ -9671,7 +9677,7 @@
         <v>929</v>
       </c>
       <c r="D38" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B38,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B38,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>542</v>
       </c>
       <c r="E38">
@@ -9714,7 +9720,7 @@
         <v>839</v>
       </c>
       <c r="D39" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B39,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B39,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>170</v>
       </c>
       <c r="E39">
@@ -9757,7 +9763,7 @@
         <v>788</v>
       </c>
       <c r="D40" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B40,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B40,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>210</v>
       </c>
       <c r="E40">
@@ -9800,7 +9806,7 @@
         <v>714</v>
       </c>
       <c r="D41" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B41,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B41,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>255</v>
       </c>
       <c r="E41">
@@ -9843,7 +9849,7 @@
         <v>668</v>
       </c>
       <c r="D42" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B42,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B42,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>87</v>
       </c>
       <c r="E42">
@@ -9886,7 +9892,7 @@
         <v>668</v>
       </c>
       <c r="D43" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B43,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B43,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>243</v>
       </c>
       <c r="E43">
@@ -9929,7 +9935,7 @@
         <v>655</v>
       </c>
       <c r="D44" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B44,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B44,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>591</v>
       </c>
       <c r="E44">
@@ -9972,7 +9978,7 @@
         <v>651</v>
       </c>
       <c r="D45" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B45,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B45,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>580</v>
       </c>
       <c r="E45">
@@ -10015,7 +10021,7 @@
         <v>640</v>
       </c>
       <c r="D46" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B46,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B46,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>120</v>
       </c>
       <c r="E46">
@@ -10058,7 +10064,7 @@
         <v>625</v>
       </c>
       <c r="D47" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B47,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B47,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>252</v>
       </c>
       <c r="E47">
@@ -10101,7 +10107,7 @@
         <v>579</v>
       </c>
       <c r="D48" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B48,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B48,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>165</v>
       </c>
       <c r="E48">
@@ -10144,7 +10150,7 @@
         <v>574</v>
       </c>
       <c r="D49" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B49,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B49,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>336</v>
       </c>
       <c r="E49">
@@ -10187,7 +10193,7 @@
         <v>562</v>
       </c>
       <c r="D50" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B50,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B50,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>222</v>
       </c>
       <c r="E50">
@@ -10230,7 +10236,7 @@
         <v>561</v>
       </c>
       <c r="D51" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B51,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B51,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>254</v>
       </c>
       <c r="E51">
@@ -10273,7 +10279,7 @@
         <v>558</v>
       </c>
       <c r="D52" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B52,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B52,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>529</v>
       </c>
       <c r="E52">
@@ -10316,7 +10322,7 @@
         <v>523</v>
       </c>
       <c r="D53" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B53,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B53,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>272</v>
       </c>
       <c r="E53">
@@ -10359,7 +10365,7 @@
         <v>520</v>
       </c>
       <c r="D54" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B54,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B54,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>272</v>
       </c>
       <c r="E54">
@@ -10402,7 +10408,7 @@
         <v>494</v>
       </c>
       <c r="D55" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B55,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B55,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>228</v>
       </c>
       <c r="E55">
@@ -10445,7 +10451,7 @@
         <v>465</v>
       </c>
       <c r="D56" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B56,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B56,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>216</v>
       </c>
       <c r="E56">
@@ -10488,7 +10494,7 @@
         <v>463</v>
       </c>
       <c r="D57" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B57,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B57,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>236</v>
       </c>
       <c r="E57">
@@ -10531,7 +10537,7 @@
         <v>456</v>
       </c>
       <c r="D58" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B58,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B58,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>391</v>
       </c>
       <c r="E58">
@@ -10574,7 +10580,7 @@
         <v>431</v>
       </c>
       <c r="D59" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B59,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B59,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>204</v>
       </c>
       <c r="E59">
@@ -10617,7 +10623,7 @@
         <v>412</v>
       </c>
       <c r="D60" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B60,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B60,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>100</v>
       </c>
       <c r="E60">
@@ -10660,7 +10666,7 @@
         <v>394</v>
       </c>
       <c r="D61" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B61,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B61,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>226</v>
       </c>
       <c r="E61">
@@ -10703,7 +10709,7 @@
         <v>352</v>
       </c>
       <c r="D62" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B62,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B62,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>310</v>
       </c>
       <c r="E62">
@@ -10746,7 +10752,7 @@
         <v>345</v>
       </c>
       <c r="D63" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B63,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B63,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>126</v>
       </c>
       <c r="E63">
@@ -10789,7 +10795,7 @@
         <v>315</v>
       </c>
       <c r="D64" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B64,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B64,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>197</v>
       </c>
       <c r="E64">
@@ -10832,7 +10838,7 @@
         <v>292</v>
       </c>
       <c r="D65" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B65,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B65,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>170</v>
       </c>
       <c r="E65">
@@ -10872,7 +10878,7 @@
         <v>291</v>
       </c>
       <c r="D66" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B66,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B66,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>48</v>
       </c>
       <c r="E66">
@@ -10915,7 +10921,7 @@
         <v>277</v>
       </c>
       <c r="D67" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B67,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B67,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>129</v>
       </c>
       <c r="E67">
@@ -10958,7 +10964,7 @@
         <v>272</v>
       </c>
       <c r="D68" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B68,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B68,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>234</v>
       </c>
       <c r="E68">
@@ -11001,7 +11007,7 @@
         <v>251</v>
       </c>
       <c r="D69" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B69,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B69,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>54</v>
       </c>
       <c r="E69">
@@ -11044,7 +11050,7 @@
         <v>247</v>
       </c>
       <c r="D70" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B70,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B70,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>83</v>
       </c>
       <c r="E70">
@@ -11087,7 +11093,7 @@
         <v>245</v>
       </c>
       <c r="D71" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B71,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B71,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>290</v>
       </c>
       <c r="E71">
@@ -11130,7 +11136,7 @@
         <v>239</v>
       </c>
       <c r="D72" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B72,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B72,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>66</v>
       </c>
       <c r="E72">
@@ -11173,7 +11179,7 @@
         <v>237</v>
       </c>
       <c r="D73" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B73,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B73,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>219</v>
       </c>
       <c r="E73">
@@ -11216,7 +11222,7 @@
         <v>234</v>
       </c>
       <c r="D74" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B74,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B74,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>205</v>
       </c>
       <c r="E74">
@@ -11259,7 +11265,7 @@
         <v>229</v>
       </c>
       <c r="D75" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B75,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B75,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>62</v>
       </c>
       <c r="E75">
@@ -11302,7 +11308,7 @@
         <v>221</v>
       </c>
       <c r="D76" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B76,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B76,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>54</v>
       </c>
       <c r="E76">
@@ -11345,7 +11351,7 @@
         <v>209</v>
       </c>
       <c r="D77" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B77,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B77,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>78</v>
       </c>
       <c r="E77">
@@ -11388,7 +11394,7 @@
         <v>188</v>
       </c>
       <c r="D78" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B78,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B78,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>59</v>
       </c>
       <c r="E78">
@@ -11431,7 +11437,7 @@
         <v>176</v>
       </c>
       <c r="D79" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B79,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B79,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>45</v>
       </c>
       <c r="E79">
@@ -11474,7 +11480,7 @@
         <v>175</v>
       </c>
       <c r="D80" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B80,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B80,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>145</v>
       </c>
       <c r="E80">
@@ -11517,7 +11523,7 @@
         <v>174</v>
       </c>
       <c r="D81" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B81,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B81,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>47</v>
       </c>
       <c r="E81">
@@ -11560,7 +11566,7 @@
         <v>171</v>
       </c>
       <c r="D82" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B82,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B82,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>50</v>
       </c>
       <c r="E82">
@@ -11603,7 +11609,7 @@
         <v>141</v>
       </c>
       <c r="D83" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B83,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B83,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>112</v>
       </c>
       <c r="E83">
@@ -11646,7 +11652,7 @@
         <v>139</v>
       </c>
       <c r="D84" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B84,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B84,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>65</v>
       </c>
       <c r="E84">
@@ -11689,7 +11695,7 @@
         <v>138</v>
       </c>
       <c r="D85" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B85,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B85,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>84</v>
       </c>
       <c r="E85">
@@ -11732,7 +11738,7 @@
         <v>135</v>
       </c>
       <c r="D86" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B86,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B86,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>65</v>
       </c>
       <c r="E86">
@@ -11775,7 +11781,7 @@
         <v>131</v>
       </c>
       <c r="D87" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B87,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B87,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>43</v>
       </c>
       <c r="E87">
@@ -11818,7 +11824,7 @@
         <v>129</v>
       </c>
       <c r="D88" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B88,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B88,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>29</v>
       </c>
       <c r="E88">
@@ -11861,7 +11867,7 @@
         <v>123</v>
       </c>
       <c r="D89" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B89,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B89,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>43</v>
       </c>
       <c r="E89">
@@ -11904,7 +11910,7 @@
         <v>106</v>
       </c>
       <c r="D90" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B90,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B90,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>26</v>
       </c>
       <c r="E90">
@@ -11947,7 +11953,7 @@
         <v>104</v>
       </c>
       <c r="D91" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B91,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B91,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>54</v>
       </c>
       <c r="E91">
@@ -11990,7 +11996,7 @@
         <v>104</v>
       </c>
       <c r="D92" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B92,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B92,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>71</v>
       </c>
       <c r="E92">
@@ -12033,7 +12039,7 @@
         <v>95</v>
       </c>
       <c r="D93" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B93,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B93,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>23</v>
       </c>
       <c r="E93">
@@ -12076,7 +12082,7 @@
         <v>87</v>
       </c>
       <c r="D94" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B94,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B94,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>50</v>
       </c>
       <c r="E94">
@@ -12119,7 +12125,7 @@
         <v>83</v>
       </c>
       <c r="D95" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B95,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B95,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>18</v>
       </c>
       <c r="E95">
@@ -12162,7 +12168,7 @@
         <v>80</v>
       </c>
       <c r="D96" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B96,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B96,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>59</v>
       </c>
       <c r="E96">
@@ -12205,7 +12211,7 @@
         <v>79</v>
       </c>
       <c r="D97" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B97,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B97,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>69</v>
       </c>
       <c r="E97">
@@ -12248,7 +12254,7 @@
         <v>77</v>
       </c>
       <c r="D98" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B98,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B98,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>17</v>
       </c>
       <c r="E98">
@@ -12291,7 +12297,7 @@
         <v>69</v>
       </c>
       <c r="D99" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B99,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B99,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>35</v>
       </c>
       <c r="E99">
@@ -12334,7 +12340,7 @@
         <v>66</v>
       </c>
       <c r="D100" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B100,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B100,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>26</v>
       </c>
       <c r="E100">
@@ -12377,7 +12383,7 @@
         <v>65</v>
       </c>
       <c r="D101" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B101,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B101,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>27</v>
       </c>
       <c r="E101">
@@ -12420,7 +12426,7 @@
         <v>63</v>
       </c>
       <c r="D102" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B102,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B102,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>13</v>
       </c>
       <c r="E102">
@@ -12463,7 +12469,7 @@
         <v>63</v>
       </c>
       <c r="D103" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B103,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B103,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>26</v>
       </c>
       <c r="E103">
@@ -12506,7 +12512,7 @@
         <v>62</v>
       </c>
       <c r="D104" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B104,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B104,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>15</v>
       </c>
       <c r="E104">
@@ -12549,7 +12555,7 @@
         <v>61</v>
       </c>
       <c r="D105" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B105,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B105,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>16</v>
       </c>
       <c r="E105">
@@ -12592,7 +12598,7 @@
         <v>61</v>
       </c>
       <c r="D106" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B106,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B106,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>7</v>
       </c>
       <c r="E106">
@@ -12635,7 +12641,7 @@
         <v>60</v>
       </c>
       <c r="D107" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B107,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B107,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>15</v>
       </c>
       <c r="E107">
@@ -12678,7 +12684,7 @@
         <v>58</v>
       </c>
       <c r="D108" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B108,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B108,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>40</v>
       </c>
       <c r="E108">
@@ -12721,7 +12727,7 @@
         <v>58</v>
       </c>
       <c r="D109" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B109,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B109,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>17</v>
       </c>
       <c r="E109">
@@ -12764,7 +12770,7 @@
         <v>58</v>
       </c>
       <c r="D110" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B110,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B110,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>14</v>
       </c>
       <c r="E110">
@@ -12807,7 +12813,7 @@
         <v>57</v>
       </c>
       <c r="D111" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B111,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B111,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>16</v>
       </c>
       <c r="E111">
@@ -12850,7 +12856,7 @@
         <v>55</v>
       </c>
       <c r="D112" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B112,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B112,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>24</v>
       </c>
       <c r="E112">
@@ -12893,7 +12899,7 @@
         <v>54</v>
       </c>
       <c r="D113" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B113,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B113,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>15</v>
       </c>
       <c r="E113">
@@ -12936,7 +12942,7 @@
         <v>54</v>
       </c>
       <c r="D114" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B114,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B114,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>51</v>
       </c>
       <c r="E114">
@@ -12979,7 +12985,7 @@
         <v>51</v>
       </c>
       <c r="D115" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B115,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B115,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>12</v>
       </c>
       <c r="E115">
@@ -13022,7 +13028,7 @@
         <v>49</v>
       </c>
       <c r="D116" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B116,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B116,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>3</v>
       </c>
       <c r="E116">
@@ -13062,7 +13068,7 @@
         <v>48</v>
       </c>
       <c r="D117" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B117,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B117,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>10</v>
       </c>
       <c r="E117">
@@ -13105,7 +13111,7 @@
         <v>47</v>
       </c>
       <c r="D118" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B118,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B118,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>23</v>
       </c>
       <c r="E118">
@@ -13148,7 +13154,7 @@
         <v>46</v>
       </c>
       <c r="D119" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B119,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B119,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>15</v>
       </c>
       <c r="E119">
@@ -13191,7 +13197,7 @@
         <v>42</v>
       </c>
       <c r="D120" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B120,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B120,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>19</v>
       </c>
       <c r="E120">
@@ -13234,7 +13240,7 @@
         <v>41</v>
       </c>
       <c r="D121" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B121,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B121,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>15</v>
       </c>
       <c r="E121">
@@ -13277,7 +13283,7 @@
         <v>40</v>
       </c>
       <c r="D122" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B122,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B122,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>6</v>
       </c>
       <c r="E122">
@@ -13320,7 +13326,7 @@
         <v>39</v>
       </c>
       <c r="D123" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B123,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B123,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>18</v>
       </c>
       <c r="E123">
@@ -13363,7 +13369,7 @@
         <v>39</v>
       </c>
       <c r="D124" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B124,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B124,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>10</v>
       </c>
       <c r="E124">
@@ -13406,7 +13412,7 @@
         <v>38</v>
       </c>
       <c r="D125" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B125,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B125,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>27</v>
       </c>
       <c r="E125">
@@ -13449,7 +13455,7 @@
         <v>38</v>
       </c>
       <c r="D126" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B126,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B126,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>23</v>
       </c>
       <c r="E126">
@@ -13492,7 +13498,7 @@
         <v>37</v>
       </c>
       <c r="D127" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B127,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B127,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>16</v>
       </c>
       <c r="E127">
@@ -13535,7 +13541,7 @@
         <v>35</v>
       </c>
       <c r="D128" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B128,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B128,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>3</v>
       </c>
       <c r="E128">
@@ -13578,7 +13584,7 @@
         <v>32</v>
       </c>
       <c r="D129" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B129,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B129,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>9</v>
       </c>
       <c r="E129">
@@ -13621,7 +13627,7 @@
         <v>25</v>
       </c>
       <c r="D130" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B130,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B130,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>5</v>
       </c>
       <c r="E130">
@@ -13664,7 +13670,7 @@
         <v>25</v>
       </c>
       <c r="D131" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B131,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B131,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>9</v>
       </c>
       <c r="E131">
@@ -13707,7 +13713,7 @@
         <v>25</v>
       </c>
       <c r="D132" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B132,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B132,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>4</v>
       </c>
       <c r="E132">
@@ -13750,7 +13756,7 @@
         <v>23</v>
       </c>
       <c r="D133" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B133,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B133,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>14</v>
       </c>
       <c r="E133">
@@ -13793,7 +13799,7 @@
         <v>23</v>
       </c>
       <c r="D134" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B134,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B134,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>7</v>
       </c>
       <c r="E134">
@@ -13836,7 +13842,7 @@
         <v>21</v>
       </c>
       <c r="D135" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B135,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B135,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>9</v>
       </c>
       <c r="E135">
@@ -13879,7 +13885,7 @@
         <v>20</v>
       </c>
       <c r="D136" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B136,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B136,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>9</v>
       </c>
       <c r="E136">
@@ -13922,7 +13928,7 @@
         <v>20</v>
       </c>
       <c r="D137" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B137,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B137,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>8</v>
       </c>
       <c r="E137">
@@ -13965,7 +13971,7 @@
         <v>20</v>
       </c>
       <c r="D138" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B138,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B138,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>6</v>
       </c>
       <c r="E138">
@@ -14008,7 +14014,7 @@
         <v>18</v>
       </c>
       <c r="D139" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B139,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B139,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>1</v>
       </c>
       <c r="E139">
@@ -14051,7 +14057,7 @@
         <v>17</v>
       </c>
       <c r="D140" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B140,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B140,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>3</v>
       </c>
       <c r="E140">
@@ -14094,7 +14100,7 @@
         <v>15</v>
       </c>
       <c r="D141" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B141,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B141,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>5</v>
       </c>
       <c r="E141">
@@ -14137,7 +14143,7 @@
         <v>15</v>
       </c>
       <c r="D142" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B142,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B142,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>3</v>
       </c>
       <c r="E142">
@@ -14180,7 +14186,7 @@
         <v>13</v>
       </c>
       <c r="D143" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B143,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B143,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>6</v>
       </c>
       <c r="E143">
@@ -14223,7 +14229,7 @@
         <v>12</v>
       </c>
       <c r="D144" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B144,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B144,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>9</v>
       </c>
       <c r="E144">
@@ -14266,7 +14272,7 @@
         <v>11</v>
       </c>
       <c r="D145" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B145,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B145,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>6</v>
       </c>
       <c r="E145">
@@ -14309,7 +14315,7 @@
         <v>10</v>
       </c>
       <c r="D146" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B146,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B146,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>7</v>
       </c>
       <c r="E146">
@@ -14352,7 +14358,7 @@
         <v>9</v>
       </c>
       <c r="D147" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B147,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B147,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>18</v>
       </c>
       <c r="E147">
@@ -14392,7 +14398,7 @@
         <v>9</v>
       </c>
       <c r="D148" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B148,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B148,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>1</v>
       </c>
       <c r="E148">
@@ -14435,7 +14441,7 @@
         <v>9</v>
       </c>
       <c r="D149" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B149,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B149,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>11</v>
       </c>
       <c r="E149">
@@ -14478,7 +14484,7 @@
         <v>8</v>
       </c>
       <c r="D150" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B150,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B150,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>6</v>
       </c>
       <c r="E150">
@@ -14521,7 +14527,7 @@
         <v>8</v>
       </c>
       <c r="D151" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B151,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B151,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>5</v>
       </c>
       <c r="E151">
@@ -14564,7 +14570,7 @@
         <v>8</v>
       </c>
       <c r="D152" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B152,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B152,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>4</v>
       </c>
       <c r="E152">
@@ -14607,7 +14613,7 @@
         <v>7</v>
       </c>
       <c r="D153" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B153,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B153,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>0</v>
       </c>
       <c r="E153">
@@ -14650,7 +14656,7 @@
         <v>7</v>
       </c>
       <c r="D154" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B154,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B154,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>0</v>
       </c>
       <c r="E154">
@@ -14693,7 +14699,7 @@
         <v>6</v>
       </c>
       <c r="D155" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B155,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B155,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>1</v>
       </c>
       <c r="E155">
@@ -14736,7 +14742,7 @@
         <v>6</v>
       </c>
       <c r="D156" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B156,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B156,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>4</v>
       </c>
       <c r="E156">
@@ -14779,7 +14785,7 @@
         <v>6</v>
       </c>
       <c r="D157" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B157,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B157,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>5</v>
       </c>
       <c r="E157">
@@ -14822,7 +14828,7 @@
         <v>6</v>
       </c>
       <c r="D158" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B158,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B158,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>4</v>
       </c>
       <c r="E158">
@@ -14865,7 +14871,7 @@
         <v>5</v>
       </c>
       <c r="D159" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B159,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B159,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>0</v>
       </c>
       <c r="E159">
@@ -14908,7 +14914,7 @@
         <v>5</v>
       </c>
       <c r="D160" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B160,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B160,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>5</v>
       </c>
       <c r="E160">
@@ -14951,7 +14957,7 @@
         <v>5</v>
       </c>
       <c r="D161" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B161,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B161,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>4</v>
       </c>
       <c r="E161">
@@ -14991,7 +14997,7 @@
         <v>5</v>
       </c>
       <c r="D162" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B162,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B162,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>0</v>
       </c>
       <c r="E162">
@@ -15034,7 +15040,7 @@
         <v>5</v>
       </c>
       <c r="D163" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B163,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B163,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>0</v>
       </c>
       <c r="E163">
@@ -15077,7 +15083,7 @@
         <v>5</v>
       </c>
       <c r="D164" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B164,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B164,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>1</v>
       </c>
       <c r="E164">
@@ -15120,7 +15126,7 @@
         <v>5</v>
       </c>
       <c r="D165" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B165,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B165,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>1</v>
       </c>
       <c r="E165">
@@ -15163,7 +15169,7 @@
         <v>4</v>
       </c>
       <c r="D166" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B166,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B166,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>3</v>
       </c>
       <c r="E166">
@@ -15206,7 +15212,7 @@
         <v>4</v>
       </c>
       <c r="D167" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B167,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B167,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>0</v>
       </c>
       <c r="E167">
@@ -15249,7 +15255,7 @@
         <v>4</v>
       </c>
       <c r="D168" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B168,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B168,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>1</v>
       </c>
       <c r="E168">
@@ -15292,7 +15298,7 @@
         <v>4</v>
       </c>
       <c r="D169" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B169,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B169,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>2</v>
       </c>
       <c r="E169">
@@ -15335,7 +15341,7 @@
         <v>4</v>
       </c>
       <c r="D170" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B170,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B170,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>1</v>
       </c>
       <c r="E170">
@@ -15378,7 +15384,7 @@
         <v>4</v>
       </c>
       <c r="D171" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B171,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B171,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>1</v>
       </c>
       <c r="E171">
@@ -15421,7 +15427,7 @@
         <v>4</v>
       </c>
       <c r="D172" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B172,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B172,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>0</v>
       </c>
       <c r="E172">
@@ -15464,7 +15470,7 @@
         <v>3</v>
       </c>
       <c r="D173" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B173,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B173,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>0</v>
       </c>
       <c r="E173">
@@ -15507,7 +15513,7 @@
         <v>3</v>
       </c>
       <c r="D174" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B174,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B174,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>7</v>
       </c>
       <c r="E174">
@@ -15550,7 +15556,7 @@
         <v>3</v>
       </c>
       <c r="D175" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B175,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B175,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>0</v>
       </c>
       <c r="E175">
@@ -15593,7 +15599,7 @@
         <v>3</v>
       </c>
       <c r="D176" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B176,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B176,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>1</v>
       </c>
       <c r="E176">
@@ -15636,7 +15642,7 @@
         <v>2</v>
       </c>
       <c r="D177" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B177,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B177,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>1</v>
       </c>
       <c r="E177">
@@ -15679,7 +15685,7 @@
         <v>2</v>
       </c>
       <c r="D178" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B178,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B178,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>2</v>
       </c>
       <c r="E178">
@@ -15722,7 +15728,7 @@
         <v>2</v>
       </c>
       <c r="D179" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B179,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B179,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>1</v>
       </c>
       <c r="E179">
@@ -15765,7 +15771,7 @@
         <v>2</v>
       </c>
       <c r="D180" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B180,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B180,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>1</v>
       </c>
       <c r="E180">
@@ -15808,7 +15814,7 @@
         <v>2</v>
       </c>
       <c r="D181" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B181,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B181,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>3</v>
       </c>
       <c r="E181">
@@ -15851,7 +15857,7 @@
         <v>1</v>
       </c>
       <c r="D182" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B182,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B182,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>0</v>
       </c>
       <c r="E182">
@@ -15894,7 +15900,7 @@
         <v>1</v>
       </c>
       <c r="D183" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B183,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B183,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>3</v>
       </c>
       <c r="E183">
@@ -15937,7 +15943,7 @@
         <v>1</v>
       </c>
       <c r="D184" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B184,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B184,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>0</v>
       </c>
       <c r="E184">
@@ -15980,7 +15986,7 @@
         <v>1</v>
       </c>
       <c r="D185" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B185,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B185,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>0</v>
       </c>
       <c r="E185">
@@ -16023,7 +16029,7 @@
         <v>1</v>
       </c>
       <c r="D186" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B186,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B186,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>0</v>
       </c>
       <c r="E186">
@@ -16066,7 +16072,7 @@
         <v>1</v>
       </c>
       <c r="D187" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B187,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B187,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>0</v>
       </c>
       <c r="E187">
@@ -16109,7 +16115,7 @@
         <v>1</v>
       </c>
       <c r="D188" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B188,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B188,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>0</v>
       </c>
       <c r="E188">
@@ -16152,7 +16158,7 @@
         <v>1</v>
       </c>
       <c r="D189" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B189,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B189,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>1</v>
       </c>
       <c r="E189">
@@ -16195,7 +16201,7 @@
         <v>1</v>
       </c>
       <c r="D190" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B190,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B190,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>0</v>
       </c>
       <c r="E190">
@@ -16238,7 +16244,7 @@
         <v>1</v>
       </c>
       <c r="D191" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B191,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B191,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>0</v>
       </c>
       <c r="E191">
@@ -16281,7 +16287,7 @@
         <v>1</v>
       </c>
       <c r="D192" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B192,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B192,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>0</v>
       </c>
       <c r="E192">
@@ -16324,7 +16330,7 @@
         <v>1</v>
       </c>
       <c r="D193" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B193,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B193,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>4</v>
       </c>
       <c r="E193">
@@ -16367,7 +16373,7 @@
         <v>1</v>
       </c>
       <c r="D194" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B194,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B194,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>0</v>
       </c>
       <c r="E194">
@@ -16410,7 +16416,7 @@
         <v>1</v>
       </c>
       <c r="D195" s="5">
-        <f>_xlfn.IFNA(INDEX(Sheet2!$A$2:$B$195,MATCH(B195,Sheet2!$A$2:$A$195,0),2),0)</f>
+        <f>_xlfn.IFNA(INDEX('G4A-data'!$A$2:$B$195,MATCH(B195,'G4A-data'!$A$2:$A$195,0),2),0)</f>
         <v>2</v>
       </c>
       <c r="E195">
@@ -16477,6 +16483,17 @@
       </c>
       <c r="M196" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C197" t="s">
+        <v>412</v>
+      </c>
+      <c r="D197" t="s">
+        <v>411</v>
+      </c>
+      <c r="E197" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/applets/maps-info/data/data-all-together.xlsx
+++ b/applets/maps-info/data/data-all-together.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcponce/Documents/GitHub/complex-analysis.github.io/applets/maps-info/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF3DB4A-6156-9647-806A-7E45D85F4444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F1F39B-50BD-7740-B306-14F5FAF5DF40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1620" windowWidth="28800" windowHeight="9880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1620" windowWidth="28800" windowHeight="13280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
     <sheet name="Old-G-Analytics" sheetId="2" r:id="rId2"/>
     <sheet name="Add-Data" sheetId="3" r:id="rId3"/>
     <sheet name="2023" sheetId="6" r:id="rId4"/>
-    <sheet name="G4A-data" sheetId="4" r:id="rId5"/>
-    <sheet name="JS-format" sheetId="5" r:id="rId6"/>
+    <sheet name="JS-format" sheetId="5" r:id="rId5"/>
+    <sheet name="G4A-data" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -8066,8 +8066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F58D68-E831-3741-BC0B-74DEACB0FFF1}">
   <dimension ref="A1:N197"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A189" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16708,6 +16708,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -17627,6 +17630,4084 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77E7DF6-81F7-BC42-9B3D-4022CB67E0D0}">
+  <dimension ref="A1:F194"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F194"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1">
+        <f>'Add-Data'!F2</f>
+        <v>73385</v>
+      </c>
+      <c r="F1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E2">
+        <f>'Add-Data'!F3</f>
+        <v>52378</v>
+      </c>
+      <c r="F2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E3">
+        <f>'Add-Data'!F4</f>
+        <v>23167</v>
+      </c>
+      <c r="F3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E4">
+        <f>'Add-Data'!F5</f>
+        <v>16403</v>
+      </c>
+      <c r="F4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E5">
+        <f>'Add-Data'!F6</f>
+        <v>18112</v>
+      </c>
+      <c r="F5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E6">
+        <f>'Add-Data'!F7</f>
+        <v>9417</v>
+      </c>
+      <c r="F6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E7">
+        <f>'Add-Data'!F8</f>
+        <v>9622</v>
+      </c>
+      <c r="F7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E8">
+        <f>'Add-Data'!F9</f>
+        <v>5497</v>
+      </c>
+      <c r="F8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E9">
+        <f>'Add-Data'!F10</f>
+        <v>8715</v>
+      </c>
+      <c r="F9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E10">
+        <f>'Add-Data'!F11</f>
+        <v>7143</v>
+      </c>
+      <c r="F10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D11" t="s">
+        <v>236</v>
+      </c>
+      <c r="E11">
+        <f>'Add-Data'!F12</f>
+        <v>5243</v>
+      </c>
+      <c r="F11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D12" t="s">
+        <v>236</v>
+      </c>
+      <c r="E12">
+        <f>'Add-Data'!F13</f>
+        <v>5672</v>
+      </c>
+      <c r="F12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>234</v>
+      </c>
+      <c r="B13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" t="s">
+        <v>236</v>
+      </c>
+      <c r="E13">
+        <f>'Add-Data'!F14</f>
+        <v>3823</v>
+      </c>
+      <c r="F13" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>234</v>
+      </c>
+      <c r="B14" t="s">
+        <v>235</v>
+      </c>
+      <c r="C14" t="s">
+        <v>230</v>
+      </c>
+      <c r="D14" t="s">
+        <v>236</v>
+      </c>
+      <c r="E14">
+        <f>'Add-Data'!F15</f>
+        <v>2965</v>
+      </c>
+      <c r="F14" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" t="s">
+        <v>231</v>
+      </c>
+      <c r="D15" t="s">
+        <v>236</v>
+      </c>
+      <c r="E15">
+        <f>'Add-Data'!F16</f>
+        <v>3359</v>
+      </c>
+      <c r="F15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>234</v>
+      </c>
+      <c r="B16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C16" t="s">
+        <v>232</v>
+      </c>
+      <c r="D16" t="s">
+        <v>236</v>
+      </c>
+      <c r="E16">
+        <f>'Add-Data'!F17</f>
+        <v>4137</v>
+      </c>
+      <c r="F16" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>234</v>
+      </c>
+      <c r="B17" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D17" t="s">
+        <v>236</v>
+      </c>
+      <c r="E17">
+        <f>'Add-Data'!F18</f>
+        <v>3607</v>
+      </c>
+      <c r="F17" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>234</v>
+      </c>
+      <c r="B18" t="s">
+        <v>235</v>
+      </c>
+      <c r="C18" t="s">
+        <v>238</v>
+      </c>
+      <c r="D18" t="s">
+        <v>236</v>
+      </c>
+      <c r="E18">
+        <f>'Add-Data'!F19</f>
+        <v>2781</v>
+      </c>
+      <c r="F18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>234</v>
+      </c>
+      <c r="B19" t="s">
+        <v>235</v>
+      </c>
+      <c r="C19" t="s">
+        <v>239</v>
+      </c>
+      <c r="D19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E19">
+        <f>'Add-Data'!F20</f>
+        <v>2208</v>
+      </c>
+      <c r="F19" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>234</v>
+      </c>
+      <c r="B20" t="s">
+        <v>235</v>
+      </c>
+      <c r="C20" t="s">
+        <v>240</v>
+      </c>
+      <c r="D20" t="s">
+        <v>236</v>
+      </c>
+      <c r="E20">
+        <f>'Add-Data'!F21</f>
+        <v>3412</v>
+      </c>
+      <c r="F20" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>234</v>
+      </c>
+      <c r="B21" t="s">
+        <v>235</v>
+      </c>
+      <c r="C21" t="s">
+        <v>241</v>
+      </c>
+      <c r="D21" t="s">
+        <v>236</v>
+      </c>
+      <c r="E21">
+        <f>'Add-Data'!F22</f>
+        <v>2895</v>
+      </c>
+      <c r="F21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>234</v>
+      </c>
+      <c r="B22" t="s">
+        <v>235</v>
+      </c>
+      <c r="C22" t="s">
+        <v>242</v>
+      </c>
+      <c r="D22" t="s">
+        <v>236</v>
+      </c>
+      <c r="E22">
+        <f>'Add-Data'!F23</f>
+        <v>3033</v>
+      </c>
+      <c r="F22" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>234</v>
+      </c>
+      <c r="B23" t="s">
+        <v>235</v>
+      </c>
+      <c r="C23" t="s">
+        <v>243</v>
+      </c>
+      <c r="D23" t="s">
+        <v>236</v>
+      </c>
+      <c r="E23">
+        <f>'Add-Data'!F24</f>
+        <v>2381</v>
+      </c>
+      <c r="F23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>234</v>
+      </c>
+      <c r="B24" t="s">
+        <v>235</v>
+      </c>
+      <c r="C24" t="s">
+        <v>245</v>
+      </c>
+      <c r="D24" t="s">
+        <v>236</v>
+      </c>
+      <c r="E24">
+        <f>'Add-Data'!F25</f>
+        <v>1976</v>
+      </c>
+      <c r="F24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>234</v>
+      </c>
+      <c r="B25" t="s">
+        <v>235</v>
+      </c>
+      <c r="C25" t="s">
+        <v>244</v>
+      </c>
+      <c r="D25" t="s">
+        <v>236</v>
+      </c>
+      <c r="E25">
+        <f>'Add-Data'!F26</f>
+        <v>2213</v>
+      </c>
+      <c r="F25" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>234</v>
+      </c>
+      <c r="B26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C26" t="s">
+        <v>246</v>
+      </c>
+      <c r="D26" t="s">
+        <v>236</v>
+      </c>
+      <c r="E26">
+        <f>'Add-Data'!F27</f>
+        <v>2177</v>
+      </c>
+      <c r="F26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>234</v>
+      </c>
+      <c r="B27" t="s">
+        <v>235</v>
+      </c>
+      <c r="C27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E27">
+        <f>'Add-Data'!F28</f>
+        <v>2159</v>
+      </c>
+      <c r="F27" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>234</v>
+      </c>
+      <c r="B28" t="s">
+        <v>235</v>
+      </c>
+      <c r="C28" t="s">
+        <v>248</v>
+      </c>
+      <c r="D28" t="s">
+        <v>236</v>
+      </c>
+      <c r="E28">
+        <f>'Add-Data'!F29</f>
+        <v>2589</v>
+      </c>
+      <c r="F28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>234</v>
+      </c>
+      <c r="B29" t="s">
+        <v>235</v>
+      </c>
+      <c r="C29" t="s">
+        <v>249</v>
+      </c>
+      <c r="D29" t="s">
+        <v>236</v>
+      </c>
+      <c r="E29">
+        <f>'Add-Data'!F30</f>
+        <v>2012</v>
+      </c>
+      <c r="F29" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>234</v>
+      </c>
+      <c r="B30" t="s">
+        <v>235</v>
+      </c>
+      <c r="C30" t="s">
+        <v>250</v>
+      </c>
+      <c r="D30" t="s">
+        <v>236</v>
+      </c>
+      <c r="E30">
+        <f>'Add-Data'!F31</f>
+        <v>1677</v>
+      </c>
+      <c r="F30" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>234</v>
+      </c>
+      <c r="B31" t="s">
+        <v>235</v>
+      </c>
+      <c r="C31" t="s">
+        <v>251</v>
+      </c>
+      <c r="D31" t="s">
+        <v>236</v>
+      </c>
+      <c r="E31">
+        <f>'Add-Data'!F32</f>
+        <v>1827</v>
+      </c>
+      <c r="F31" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>234</v>
+      </c>
+      <c r="B32" t="s">
+        <v>235</v>
+      </c>
+      <c r="C32" t="s">
+        <v>252</v>
+      </c>
+      <c r="D32" t="s">
+        <v>236</v>
+      </c>
+      <c r="E32">
+        <f>'Add-Data'!F33</f>
+        <v>2286</v>
+      </c>
+      <c r="F32" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>234</v>
+      </c>
+      <c r="B33" t="s">
+        <v>235</v>
+      </c>
+      <c r="C33" t="s">
+        <v>253</v>
+      </c>
+      <c r="D33" t="s">
+        <v>236</v>
+      </c>
+      <c r="E33">
+        <f>'Add-Data'!F34</f>
+        <v>1584</v>
+      </c>
+      <c r="F33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>234</v>
+      </c>
+      <c r="B34" t="s">
+        <v>235</v>
+      </c>
+      <c r="C34" t="s">
+        <v>254</v>
+      </c>
+      <c r="D34" t="s">
+        <v>236</v>
+      </c>
+      <c r="E34">
+        <f>'Add-Data'!F35</f>
+        <v>1924</v>
+      </c>
+      <c r="F34" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>234</v>
+      </c>
+      <c r="B35" t="s">
+        <v>235</v>
+      </c>
+      <c r="C35" t="s">
+        <v>255</v>
+      </c>
+      <c r="D35" t="s">
+        <v>236</v>
+      </c>
+      <c r="E35">
+        <f>'Add-Data'!F36</f>
+        <v>1817</v>
+      </c>
+      <c r="F35" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>234</v>
+      </c>
+      <c r="B36" t="s">
+        <v>235</v>
+      </c>
+      <c r="C36" t="s">
+        <v>256</v>
+      </c>
+      <c r="D36" t="s">
+        <v>236</v>
+      </c>
+      <c r="E36">
+        <f>'Add-Data'!F37</f>
+        <v>1469</v>
+      </c>
+      <c r="F36" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>234</v>
+      </c>
+      <c r="B37" t="s">
+        <v>235</v>
+      </c>
+      <c r="C37" t="s">
+        <v>257</v>
+      </c>
+      <c r="D37" t="s">
+        <v>236</v>
+      </c>
+      <c r="E37">
+        <f>'Add-Data'!F38</f>
+        <v>2055</v>
+      </c>
+      <c r="F37" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>234</v>
+      </c>
+      <c r="B38" t="s">
+        <v>235</v>
+      </c>
+      <c r="C38" t="s">
+        <v>258</v>
+      </c>
+      <c r="D38" t="s">
+        <v>236</v>
+      </c>
+      <c r="E38">
+        <f>'Add-Data'!F39</f>
+        <v>1256</v>
+      </c>
+      <c r="F38" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>234</v>
+      </c>
+      <c r="B39" t="s">
+        <v>235</v>
+      </c>
+      <c r="C39" t="s">
+        <v>259</v>
+      </c>
+      <c r="D39" t="s">
+        <v>236</v>
+      </c>
+      <c r="E39">
+        <f>'Add-Data'!F40</f>
+        <v>1230</v>
+      </c>
+      <c r="F39" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>234</v>
+      </c>
+      <c r="B40" t="s">
+        <v>235</v>
+      </c>
+      <c r="C40" t="s">
+        <v>260</v>
+      </c>
+      <c r="D40" t="s">
+        <v>236</v>
+      </c>
+      <c r="E40">
+        <f>'Add-Data'!F41</f>
+        <v>1339</v>
+      </c>
+      <c r="F40" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>234</v>
+      </c>
+      <c r="B41" t="s">
+        <v>235</v>
+      </c>
+      <c r="C41" t="s">
+        <v>261</v>
+      </c>
+      <c r="D41" t="s">
+        <v>236</v>
+      </c>
+      <c r="E41">
+        <f>'Add-Data'!F42</f>
+        <v>1041</v>
+      </c>
+      <c r="F41" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>234</v>
+      </c>
+      <c r="B42" t="s">
+        <v>235</v>
+      </c>
+      <c r="C42" t="s">
+        <v>262</v>
+      </c>
+      <c r="D42" t="s">
+        <v>236</v>
+      </c>
+      <c r="E42">
+        <f>'Add-Data'!F43</f>
+        <v>1204</v>
+      </c>
+      <c r="F42" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>234</v>
+      </c>
+      <c r="B43" t="s">
+        <v>235</v>
+      </c>
+      <c r="C43" t="s">
+        <v>263</v>
+      </c>
+      <c r="D43" t="s">
+        <v>236</v>
+      </c>
+      <c r="E43">
+        <f>'Add-Data'!F44</f>
+        <v>1463</v>
+      </c>
+      <c r="F43" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>234</v>
+      </c>
+      <c r="B44" t="s">
+        <v>235</v>
+      </c>
+      <c r="C44" t="s">
+        <v>264</v>
+      </c>
+      <c r="D44" t="s">
+        <v>236</v>
+      </c>
+      <c r="E44">
+        <f>'Add-Data'!F45</f>
+        <v>1478</v>
+      </c>
+      <c r="F44" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>234</v>
+      </c>
+      <c r="B45" t="s">
+        <v>235</v>
+      </c>
+      <c r="C45" t="s">
+        <v>265</v>
+      </c>
+      <c r="D45" t="s">
+        <v>236</v>
+      </c>
+      <c r="E45">
+        <f>'Add-Data'!F46</f>
+        <v>851</v>
+      </c>
+      <c r="F45" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>234</v>
+      </c>
+      <c r="B46" t="s">
+        <v>235</v>
+      </c>
+      <c r="C46" t="s">
+        <v>266</v>
+      </c>
+      <c r="D46" t="s">
+        <v>236</v>
+      </c>
+      <c r="E46">
+        <f>'Add-Data'!F47</f>
+        <v>1192</v>
+      </c>
+      <c r="F46" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>234</v>
+      </c>
+      <c r="B47" t="s">
+        <v>235</v>
+      </c>
+      <c r="C47" t="s">
+        <v>267</v>
+      </c>
+      <c r="D47" t="s">
+        <v>236</v>
+      </c>
+      <c r="E47">
+        <f>'Add-Data'!F48</f>
+        <v>903</v>
+      </c>
+      <c r="F47" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>234</v>
+      </c>
+      <c r="B48" t="s">
+        <v>235</v>
+      </c>
+      <c r="C48" t="s">
+        <v>268</v>
+      </c>
+      <c r="D48" t="s">
+        <v>236</v>
+      </c>
+      <c r="E48">
+        <f>'Add-Data'!F49</f>
+        <v>1308</v>
+      </c>
+      <c r="F48" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>234</v>
+      </c>
+      <c r="B49" t="s">
+        <v>235</v>
+      </c>
+      <c r="C49" t="s">
+        <v>269</v>
+      </c>
+      <c r="D49" t="s">
+        <v>236</v>
+      </c>
+      <c r="E49">
+        <f>'Add-Data'!F50</f>
+        <v>962</v>
+      </c>
+      <c r="F49" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>234</v>
+      </c>
+      <c r="B50" t="s">
+        <v>235</v>
+      </c>
+      <c r="C50" t="s">
+        <v>270</v>
+      </c>
+      <c r="D50" t="s">
+        <v>236</v>
+      </c>
+      <c r="E50">
+        <f>'Add-Data'!F51</f>
+        <v>1013</v>
+      </c>
+      <c r="F50" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>234</v>
+      </c>
+      <c r="B51" t="s">
+        <v>235</v>
+      </c>
+      <c r="C51" t="s">
+        <v>271</v>
+      </c>
+      <c r="D51" t="s">
+        <v>236</v>
+      </c>
+      <c r="E51">
+        <f>'Add-Data'!F52</f>
+        <v>1291</v>
+      </c>
+      <c r="F51" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>234</v>
+      </c>
+      <c r="B52" t="s">
+        <v>235</v>
+      </c>
+      <c r="C52" t="s">
+        <v>272</v>
+      </c>
+      <c r="D52" t="s">
+        <v>236</v>
+      </c>
+      <c r="E52">
+        <f>'Add-Data'!F53</f>
+        <v>1077</v>
+      </c>
+      <c r="F52" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>234</v>
+      </c>
+      <c r="B53" t="s">
+        <v>235</v>
+      </c>
+      <c r="C53" t="s">
+        <v>273</v>
+      </c>
+      <c r="D53" t="s">
+        <v>236</v>
+      </c>
+      <c r="E53">
+        <f>'Add-Data'!F54</f>
+        <v>1065</v>
+      </c>
+      <c r="F53" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>234</v>
+      </c>
+      <c r="B54" t="s">
+        <v>235</v>
+      </c>
+      <c r="C54" t="s">
+        <v>274</v>
+      </c>
+      <c r="D54" t="s">
+        <v>236</v>
+      </c>
+      <c r="E54">
+        <f>'Add-Data'!F55</f>
+        <v>1119</v>
+      </c>
+      <c r="F54" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>234</v>
+      </c>
+      <c r="B55" t="s">
+        <v>235</v>
+      </c>
+      <c r="C55" t="s">
+        <v>275</v>
+      </c>
+      <c r="D55" t="s">
+        <v>236</v>
+      </c>
+      <c r="E55">
+        <f>'Add-Data'!F56</f>
+        <v>883</v>
+      </c>
+      <c r="F55" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>234</v>
+      </c>
+      <c r="B56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C56" t="s">
+        <v>276</v>
+      </c>
+      <c r="D56" t="s">
+        <v>236</v>
+      </c>
+      <c r="E56">
+        <f>'Add-Data'!F57</f>
+        <v>910</v>
+      </c>
+      <c r="F56" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>234</v>
+      </c>
+      <c r="B57" t="s">
+        <v>235</v>
+      </c>
+      <c r="C57" t="s">
+        <v>277</v>
+      </c>
+      <c r="D57" t="s">
+        <v>236</v>
+      </c>
+      <c r="E57">
+        <f>'Add-Data'!F58</f>
+        <v>982</v>
+      </c>
+      <c r="F57" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>234</v>
+      </c>
+      <c r="B58" t="s">
+        <v>235</v>
+      </c>
+      <c r="C58" t="s">
+        <v>278</v>
+      </c>
+      <c r="D58" t="s">
+        <v>236</v>
+      </c>
+      <c r="E58">
+        <f>'Add-Data'!F59</f>
+        <v>872</v>
+      </c>
+      <c r="F58" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>234</v>
+      </c>
+      <c r="B59" t="s">
+        <v>235</v>
+      </c>
+      <c r="C59" t="s">
+        <v>279</v>
+      </c>
+      <c r="D59" t="s">
+        <v>236</v>
+      </c>
+      <c r="E59">
+        <f>'Add-Data'!F60</f>
+        <v>607</v>
+      </c>
+      <c r="F59" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>234</v>
+      </c>
+      <c r="B60" t="s">
+        <v>235</v>
+      </c>
+      <c r="C60" t="s">
+        <v>280</v>
+      </c>
+      <c r="D60" t="s">
+        <v>236</v>
+      </c>
+      <c r="E60">
+        <f>'Add-Data'!F61</f>
+        <v>794</v>
+      </c>
+      <c r="F60" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>234</v>
+      </c>
+      <c r="B61" t="s">
+        <v>235</v>
+      </c>
+      <c r="C61" t="s">
+        <v>281</v>
+      </c>
+      <c r="D61" t="s">
+        <v>236</v>
+      </c>
+      <c r="E61">
+        <f>'Add-Data'!F62</f>
+        <v>760</v>
+      </c>
+      <c r="F61" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>234</v>
+      </c>
+      <c r="B62" t="s">
+        <v>235</v>
+      </c>
+      <c r="C62" t="s">
+        <v>282</v>
+      </c>
+      <c r="D62" t="s">
+        <v>236</v>
+      </c>
+      <c r="E62">
+        <f>'Add-Data'!F63</f>
+        <v>634</v>
+      </c>
+      <c r="F62" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>234</v>
+      </c>
+      <c r="B63" t="s">
+        <v>235</v>
+      </c>
+      <c r="C63" t="s">
+        <v>283</v>
+      </c>
+      <c r="D63" t="s">
+        <v>236</v>
+      </c>
+      <c r="E63">
+        <f>'Add-Data'!F64</f>
+        <v>581</v>
+      </c>
+      <c r="F63" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>234</v>
+      </c>
+      <c r="B64" t="s">
+        <v>235</v>
+      </c>
+      <c r="C64" t="s">
+        <v>284</v>
+      </c>
+      <c r="D64" t="s">
+        <v>236</v>
+      </c>
+      <c r="E64">
+        <f>'Add-Data'!F65</f>
+        <v>628</v>
+      </c>
+      <c r="F64" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>234</v>
+      </c>
+      <c r="B65" t="s">
+        <v>235</v>
+      </c>
+      <c r="D65" t="s">
+        <v>236</v>
+      </c>
+      <c r="E65">
+        <f>'Add-Data'!F66</f>
+        <v>359</v>
+      </c>
+      <c r="F65" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>234</v>
+      </c>
+      <c r="B66" t="s">
+        <v>235</v>
+      </c>
+      <c r="C66" t="s">
+        <v>285</v>
+      </c>
+      <c r="D66" t="s">
+        <v>236</v>
+      </c>
+      <c r="E66">
+        <f>'Add-Data'!F67</f>
+        <v>515</v>
+      </c>
+      <c r="F66" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>234</v>
+      </c>
+      <c r="B67" t="s">
+        <v>235</v>
+      </c>
+      <c r="C67" t="s">
+        <v>286</v>
+      </c>
+      <c r="D67" t="s">
+        <v>236</v>
+      </c>
+      <c r="E67">
+        <f>'Add-Data'!F68</f>
+        <v>636</v>
+      </c>
+      <c r="F67" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>234</v>
+      </c>
+      <c r="B68" t="s">
+        <v>235</v>
+      </c>
+      <c r="C68" t="s">
+        <v>287</v>
+      </c>
+      <c r="D68" t="s">
+        <v>236</v>
+      </c>
+      <c r="E68">
+        <f>'Add-Data'!F69</f>
+        <v>325</v>
+      </c>
+      <c r="F68" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>234</v>
+      </c>
+      <c r="B69" t="s">
+        <v>235</v>
+      </c>
+      <c r="C69" t="s">
+        <v>288</v>
+      </c>
+      <c r="D69" t="s">
+        <v>236</v>
+      </c>
+      <c r="E69">
+        <f>'Add-Data'!F70</f>
+        <v>367</v>
+      </c>
+      <c r="F69" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>234</v>
+      </c>
+      <c r="B70" t="s">
+        <v>235</v>
+      </c>
+      <c r="C70" t="s">
+        <v>289</v>
+      </c>
+      <c r="D70" t="s">
+        <v>236</v>
+      </c>
+      <c r="E70">
+        <f>'Add-Data'!F71</f>
+        <v>677</v>
+      </c>
+      <c r="F70" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>234</v>
+      </c>
+      <c r="B71" t="s">
+        <v>235</v>
+      </c>
+      <c r="C71" t="s">
+        <v>290</v>
+      </c>
+      <c r="D71" t="s">
+        <v>236</v>
+      </c>
+      <c r="E71">
+        <f>'Add-Data'!F72</f>
+        <v>361</v>
+      </c>
+      <c r="F71" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>234</v>
+      </c>
+      <c r="B72" t="s">
+        <v>235</v>
+      </c>
+      <c r="C72" t="s">
+        <v>291</v>
+      </c>
+      <c r="D72" t="s">
+        <v>236</v>
+      </c>
+      <c r="E72">
+        <f>'Add-Data'!F73</f>
+        <v>518</v>
+      </c>
+      <c r="F72" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>234</v>
+      </c>
+      <c r="B73" t="s">
+        <v>235</v>
+      </c>
+      <c r="C73" t="s">
+        <v>292</v>
+      </c>
+      <c r="D73" t="s">
+        <v>236</v>
+      </c>
+      <c r="E73">
+        <f>'Add-Data'!F74</f>
+        <v>510</v>
+      </c>
+      <c r="F73" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>234</v>
+      </c>
+      <c r="B74" t="s">
+        <v>235</v>
+      </c>
+      <c r="C74" t="s">
+        <v>293</v>
+      </c>
+      <c r="D74" t="s">
+        <v>236</v>
+      </c>
+      <c r="E74">
+        <f>'Add-Data'!F75</f>
+        <v>367</v>
+      </c>
+      <c r="F74" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>234</v>
+      </c>
+      <c r="B75" t="s">
+        <v>235</v>
+      </c>
+      <c r="C75" t="s">
+        <v>294</v>
+      </c>
+      <c r="D75" t="s">
+        <v>236</v>
+      </c>
+      <c r="E75">
+        <f>'Add-Data'!F76</f>
+        <v>348</v>
+      </c>
+      <c r="F75" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>234</v>
+      </c>
+      <c r="B76" t="s">
+        <v>235</v>
+      </c>
+      <c r="C76" t="s">
+        <v>295</v>
+      </c>
+      <c r="D76" t="s">
+        <v>236</v>
+      </c>
+      <c r="E76">
+        <f>'Add-Data'!F77</f>
+        <v>379</v>
+      </c>
+      <c r="F76" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>234</v>
+      </c>
+      <c r="B77" t="s">
+        <v>235</v>
+      </c>
+      <c r="C77" t="s">
+        <v>296</v>
+      </c>
+      <c r="D77" t="s">
+        <v>236</v>
+      </c>
+      <c r="E77">
+        <f>'Add-Data'!F78</f>
+        <v>365</v>
+      </c>
+      <c r="F77" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>234</v>
+      </c>
+      <c r="B78" t="s">
+        <v>235</v>
+      </c>
+      <c r="C78" t="s">
+        <v>297</v>
+      </c>
+      <c r="D78" t="s">
+        <v>236</v>
+      </c>
+      <c r="E78">
+        <f>'Add-Data'!F79</f>
+        <v>265</v>
+      </c>
+      <c r="F78" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>234</v>
+      </c>
+      <c r="B79" t="s">
+        <v>235</v>
+      </c>
+      <c r="C79" t="s">
+        <v>298</v>
+      </c>
+      <c r="D79" t="s">
+        <v>236</v>
+      </c>
+      <c r="E79">
+        <f>'Add-Data'!F80</f>
+        <v>368</v>
+      </c>
+      <c r="F79" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>234</v>
+      </c>
+      <c r="B80" t="s">
+        <v>235</v>
+      </c>
+      <c r="C80" t="s">
+        <v>299</v>
+      </c>
+      <c r="D80" t="s">
+        <v>236</v>
+      </c>
+      <c r="E80">
+        <f>'Add-Data'!F81</f>
+        <v>249</v>
+      </c>
+      <c r="F80" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>234</v>
+      </c>
+      <c r="B81" t="s">
+        <v>235</v>
+      </c>
+      <c r="C81" t="s">
+        <v>300</v>
+      </c>
+      <c r="D81" t="s">
+        <v>236</v>
+      </c>
+      <c r="E81">
+        <f>'Add-Data'!F82</f>
+        <v>285</v>
+      </c>
+      <c r="F81" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>234</v>
+      </c>
+      <c r="B82" t="s">
+        <v>235</v>
+      </c>
+      <c r="C82" t="s">
+        <v>301</v>
+      </c>
+      <c r="D82" t="s">
+        <v>236</v>
+      </c>
+      <c r="E82">
+        <f>'Add-Data'!F83</f>
+        <v>290</v>
+      </c>
+      <c r="F82" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>234</v>
+      </c>
+      <c r="B83" t="s">
+        <v>235</v>
+      </c>
+      <c r="C83" t="s">
+        <v>302</v>
+      </c>
+      <c r="D83" t="s">
+        <v>236</v>
+      </c>
+      <c r="E83">
+        <f>'Add-Data'!F84</f>
+        <v>266</v>
+      </c>
+      <c r="F83" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>234</v>
+      </c>
+      <c r="B84" t="s">
+        <v>235</v>
+      </c>
+      <c r="C84" t="s">
+        <v>303</v>
+      </c>
+      <c r="D84" t="s">
+        <v>236</v>
+      </c>
+      <c r="E84">
+        <f>'Add-Data'!F85</f>
+        <v>237</v>
+      </c>
+      <c r="F84" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>234</v>
+      </c>
+      <c r="B85" t="s">
+        <v>235</v>
+      </c>
+      <c r="C85" t="s">
+        <v>304</v>
+      </c>
+      <c r="D85" t="s">
+        <v>236</v>
+      </c>
+      <c r="E85">
+        <f>'Add-Data'!F86</f>
+        <v>251</v>
+      </c>
+      <c r="F85" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>234</v>
+      </c>
+      <c r="B86" t="s">
+        <v>235</v>
+      </c>
+      <c r="C86" t="s">
+        <v>305</v>
+      </c>
+      <c r="D86" t="s">
+        <v>236</v>
+      </c>
+      <c r="E86">
+        <f>'Add-Data'!F87</f>
+        <v>201</v>
+      </c>
+      <c r="F86" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>234</v>
+      </c>
+      <c r="B87" t="s">
+        <v>235</v>
+      </c>
+      <c r="C87" t="s">
+        <v>306</v>
+      </c>
+      <c r="D87" t="s">
+        <v>236</v>
+      </c>
+      <c r="E87">
+        <f>'Add-Data'!F88</f>
+        <v>200</v>
+      </c>
+      <c r="F87" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>234</v>
+      </c>
+      <c r="B88" t="s">
+        <v>235</v>
+      </c>
+      <c r="C88" t="s">
+        <v>307</v>
+      </c>
+      <c r="D88" t="s">
+        <v>236</v>
+      </c>
+      <c r="E88">
+        <f>'Add-Data'!F89</f>
+        <v>239</v>
+      </c>
+      <c r="F88" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>234</v>
+      </c>
+      <c r="B89" t="s">
+        <v>235</v>
+      </c>
+      <c r="C89" t="s">
+        <v>308</v>
+      </c>
+      <c r="D89" t="s">
+        <v>236</v>
+      </c>
+      <c r="E89">
+        <f>'Add-Data'!F90</f>
+        <v>153</v>
+      </c>
+      <c r="F89" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>234</v>
+      </c>
+      <c r="B90" t="s">
+        <v>235</v>
+      </c>
+      <c r="C90" t="s">
+        <v>309</v>
+      </c>
+      <c r="D90" t="s">
+        <v>236</v>
+      </c>
+      <c r="E90">
+        <f>'Add-Data'!F91</f>
+        <v>194</v>
+      </c>
+      <c r="F90" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>234</v>
+      </c>
+      <c r="B91" t="s">
+        <v>235</v>
+      </c>
+      <c r="C91" t="s">
+        <v>310</v>
+      </c>
+      <c r="D91" t="s">
+        <v>236</v>
+      </c>
+      <c r="E91">
+        <f>'Add-Data'!F92</f>
+        <v>212</v>
+      </c>
+      <c r="F91" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>234</v>
+      </c>
+      <c r="B92" t="s">
+        <v>235</v>
+      </c>
+      <c r="C92" t="s">
+        <v>311</v>
+      </c>
+      <c r="D92" t="s">
+        <v>236</v>
+      </c>
+      <c r="E92">
+        <f>'Add-Data'!F93</f>
+        <v>136</v>
+      </c>
+      <c r="F92" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>234</v>
+      </c>
+      <c r="B93" t="s">
+        <v>235</v>
+      </c>
+      <c r="C93" t="s">
+        <v>312</v>
+      </c>
+      <c r="D93" t="s">
+        <v>236</v>
+      </c>
+      <c r="E93">
+        <f>'Add-Data'!F94</f>
+        <v>199</v>
+      </c>
+      <c r="F93" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>234</v>
+      </c>
+      <c r="B94" t="s">
+        <v>235</v>
+      </c>
+      <c r="C94" t="s">
+        <v>313</v>
+      </c>
+      <c r="D94" t="s">
+        <v>236</v>
+      </c>
+      <c r="E94">
+        <f>'Add-Data'!F95</f>
+        <v>150</v>
+      </c>
+      <c r="F94" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>234</v>
+      </c>
+      <c r="B95" t="s">
+        <v>235</v>
+      </c>
+      <c r="C95" t="s">
+        <v>314</v>
+      </c>
+      <c r="D95" t="s">
+        <v>236</v>
+      </c>
+      <c r="E95">
+        <f>'Add-Data'!F96</f>
+        <v>188</v>
+      </c>
+      <c r="F95" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>234</v>
+      </c>
+      <c r="B96" t="s">
+        <v>235</v>
+      </c>
+      <c r="C96" t="s">
+        <v>315</v>
+      </c>
+      <c r="D96" t="s">
+        <v>236</v>
+      </c>
+      <c r="E96">
+        <f>'Add-Data'!F97</f>
+        <v>177</v>
+      </c>
+      <c r="F96" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>234</v>
+      </c>
+      <c r="B97" t="s">
+        <v>235</v>
+      </c>
+      <c r="C97" t="s">
+        <v>316</v>
+      </c>
+      <c r="D97" t="s">
+        <v>236</v>
+      </c>
+      <c r="E97">
+        <f>'Add-Data'!F98</f>
+        <v>122</v>
+      </c>
+      <c r="F97" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>234</v>
+      </c>
+      <c r="B98" t="s">
+        <v>235</v>
+      </c>
+      <c r="C98" t="s">
+        <v>317</v>
+      </c>
+      <c r="D98" t="s">
+        <v>236</v>
+      </c>
+      <c r="E98">
+        <f>'Add-Data'!F99</f>
+        <v>136</v>
+      </c>
+      <c r="F98" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>234</v>
+      </c>
+      <c r="B99" t="s">
+        <v>235</v>
+      </c>
+      <c r="C99" t="s">
+        <v>318</v>
+      </c>
+      <c r="D99" t="s">
+        <v>236</v>
+      </c>
+      <c r="E99">
+        <f>'Add-Data'!F100</f>
+        <v>124</v>
+      </c>
+      <c r="F99" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>234</v>
+      </c>
+      <c r="B100" t="s">
+        <v>235</v>
+      </c>
+      <c r="C100" t="s">
+        <v>319</v>
+      </c>
+      <c r="D100" t="s">
+        <v>236</v>
+      </c>
+      <c r="E100">
+        <f>'Add-Data'!F101</f>
+        <v>113</v>
+      </c>
+      <c r="F100" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>234</v>
+      </c>
+      <c r="B101" t="s">
+        <v>235</v>
+      </c>
+      <c r="C101" t="s">
+        <v>320</v>
+      </c>
+      <c r="D101" t="s">
+        <v>236</v>
+      </c>
+      <c r="E101">
+        <f>'Add-Data'!F102</f>
+        <v>63</v>
+      </c>
+      <c r="F101" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>234</v>
+      </c>
+      <c r="B102" t="s">
+        <v>235</v>
+      </c>
+      <c r="C102" t="s">
+        <v>321</v>
+      </c>
+      <c r="D102" t="s">
+        <v>236</v>
+      </c>
+      <c r="E102">
+        <f>'Add-Data'!F103</f>
+        <v>115</v>
+      </c>
+      <c r="F102" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>234</v>
+      </c>
+      <c r="B103" t="s">
+        <v>235</v>
+      </c>
+      <c r="C103" t="s">
+        <v>322</v>
+      </c>
+      <c r="D103" t="s">
+        <v>236</v>
+      </c>
+      <c r="E103">
+        <f>'Add-Data'!F104</f>
+        <v>62</v>
+      </c>
+      <c r="F103" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>234</v>
+      </c>
+      <c r="B104" t="s">
+        <v>235</v>
+      </c>
+      <c r="C104" t="s">
+        <v>323</v>
+      </c>
+      <c r="D104" t="s">
+        <v>236</v>
+      </c>
+      <c r="E104">
+        <f>'Add-Data'!F105</f>
+        <v>61</v>
+      </c>
+      <c r="F104" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>234</v>
+      </c>
+      <c r="B105" t="s">
+        <v>235</v>
+      </c>
+      <c r="C105" t="s">
+        <v>324</v>
+      </c>
+      <c r="D105" t="s">
+        <v>236</v>
+      </c>
+      <c r="E105">
+        <f>'Add-Data'!F106</f>
+        <v>61</v>
+      </c>
+      <c r="F105" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>234</v>
+      </c>
+      <c r="B106" t="s">
+        <v>235</v>
+      </c>
+      <c r="C106" t="s">
+        <v>325</v>
+      </c>
+      <c r="D106" t="s">
+        <v>236</v>
+      </c>
+      <c r="E106">
+        <f>'Add-Data'!F107</f>
+        <v>60</v>
+      </c>
+      <c r="F106" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>234</v>
+      </c>
+      <c r="B107" t="s">
+        <v>235</v>
+      </c>
+      <c r="C107" t="s">
+        <v>326</v>
+      </c>
+      <c r="D107" t="s">
+        <v>236</v>
+      </c>
+      <c r="E107">
+        <f>'Add-Data'!F108</f>
+        <v>135</v>
+      </c>
+      <c r="F107" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>234</v>
+      </c>
+      <c r="B108" t="s">
+        <v>235</v>
+      </c>
+      <c r="C108" t="s">
+        <v>327</v>
+      </c>
+      <c r="D108" t="s">
+        <v>236</v>
+      </c>
+      <c r="E108">
+        <f>'Add-Data'!F109</f>
+        <v>121</v>
+      </c>
+      <c r="F108" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>234</v>
+      </c>
+      <c r="B109" t="s">
+        <v>235</v>
+      </c>
+      <c r="C109" t="s">
+        <v>328</v>
+      </c>
+      <c r="D109" t="s">
+        <v>236</v>
+      </c>
+      <c r="E109">
+        <f>'Add-Data'!F110</f>
+        <v>58</v>
+      </c>
+      <c r="F109" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>234</v>
+      </c>
+      <c r="B110" t="s">
+        <v>235</v>
+      </c>
+      <c r="C110" t="s">
+        <v>329</v>
+      </c>
+      <c r="D110" t="s">
+        <v>236</v>
+      </c>
+      <c r="E110">
+        <f>'Add-Data'!F111</f>
+        <v>57</v>
+      </c>
+      <c r="F110" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>234</v>
+      </c>
+      <c r="B111" t="s">
+        <v>235</v>
+      </c>
+      <c r="C111" t="s">
+        <v>330</v>
+      </c>
+      <c r="D111" t="s">
+        <v>236</v>
+      </c>
+      <c r="E111">
+        <f>'Add-Data'!F112</f>
+        <v>55</v>
+      </c>
+      <c r="F111" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>234</v>
+      </c>
+      <c r="B112" t="s">
+        <v>235</v>
+      </c>
+      <c r="C112" t="s">
+        <v>331</v>
+      </c>
+      <c r="D112" t="s">
+        <v>236</v>
+      </c>
+      <c r="E112">
+        <f>'Add-Data'!F113</f>
+        <v>91</v>
+      </c>
+      <c r="F112" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>234</v>
+      </c>
+      <c r="B113" t="s">
+        <v>235</v>
+      </c>
+      <c r="C113" t="s">
+        <v>332</v>
+      </c>
+      <c r="D113" t="s">
+        <v>236</v>
+      </c>
+      <c r="E113">
+        <f>'Add-Data'!F114</f>
+        <v>117</v>
+      </c>
+      <c r="F113" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>234</v>
+      </c>
+      <c r="B114" t="s">
+        <v>235</v>
+      </c>
+      <c r="C114" t="s">
+        <v>333</v>
+      </c>
+      <c r="D114" t="s">
+        <v>236</v>
+      </c>
+      <c r="E114">
+        <f>'Add-Data'!F115</f>
+        <v>51</v>
+      </c>
+      <c r="F114" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>234</v>
+      </c>
+      <c r="B115" t="s">
+        <v>235</v>
+      </c>
+      <c r="C115" t="s">
+        <v>334</v>
+      </c>
+      <c r="D115" t="s">
+        <v>236</v>
+      </c>
+      <c r="E115">
+        <f>'Add-Data'!F116</f>
+        <v>49</v>
+      </c>
+      <c r="F115" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>234</v>
+      </c>
+      <c r="B116" t="s">
+        <v>235</v>
+      </c>
+      <c r="D116" t="s">
+        <v>236</v>
+      </c>
+      <c r="E116">
+        <f>'Add-Data'!F117</f>
+        <v>48</v>
+      </c>
+      <c r="F116" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>234</v>
+      </c>
+      <c r="B117" t="s">
+        <v>235</v>
+      </c>
+      <c r="C117" t="s">
+        <v>335</v>
+      </c>
+      <c r="D117" t="s">
+        <v>236</v>
+      </c>
+      <c r="E117">
+        <f>'Add-Data'!F118</f>
+        <v>107</v>
+      </c>
+      <c r="F117" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>234</v>
+      </c>
+      <c r="B118" t="s">
+        <v>235</v>
+      </c>
+      <c r="C118" t="s">
+        <v>336</v>
+      </c>
+      <c r="D118" t="s">
+        <v>236</v>
+      </c>
+      <c r="E118">
+        <f>'Add-Data'!F119</f>
+        <v>46</v>
+      </c>
+      <c r="F118" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>234</v>
+      </c>
+      <c r="B119" t="s">
+        <v>235</v>
+      </c>
+      <c r="C119" t="s">
+        <v>337</v>
+      </c>
+      <c r="D119" t="s">
+        <v>236</v>
+      </c>
+      <c r="E119">
+        <f>'Add-Data'!F120</f>
+        <v>83</v>
+      </c>
+      <c r="F119" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>234</v>
+      </c>
+      <c r="B120" t="s">
+        <v>235</v>
+      </c>
+      <c r="C120" t="s">
+        <v>338</v>
+      </c>
+      <c r="D120" t="s">
+        <v>236</v>
+      </c>
+      <c r="E120">
+        <f>'Add-Data'!F121</f>
+        <v>81</v>
+      </c>
+      <c r="F120" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>234</v>
+      </c>
+      <c r="B121" t="s">
+        <v>235</v>
+      </c>
+      <c r="C121" t="s">
+        <v>340</v>
+      </c>
+      <c r="D121" t="s">
+        <v>236</v>
+      </c>
+      <c r="E121">
+        <f>'Add-Data'!F122</f>
+        <v>40</v>
+      </c>
+      <c r="F121" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>234</v>
+      </c>
+      <c r="B122" t="s">
+        <v>235</v>
+      </c>
+      <c r="C122" t="s">
+        <v>339</v>
+      </c>
+      <c r="D122" t="s">
+        <v>236</v>
+      </c>
+      <c r="E122">
+        <f>'Add-Data'!F123</f>
+        <v>82</v>
+      </c>
+      <c r="F122" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>234</v>
+      </c>
+      <c r="B123" t="s">
+        <v>235</v>
+      </c>
+      <c r="C123" t="s">
+        <v>341</v>
+      </c>
+      <c r="D123" t="s">
+        <v>236</v>
+      </c>
+      <c r="E123">
+        <f>'Add-Data'!F124</f>
+        <v>39</v>
+      </c>
+      <c r="F123" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>234</v>
+      </c>
+      <c r="B124" t="s">
+        <v>235</v>
+      </c>
+      <c r="C124" t="s">
+        <v>342</v>
+      </c>
+      <c r="D124" t="s">
+        <v>236</v>
+      </c>
+      <c r="E124">
+        <f>'Add-Data'!F125</f>
+        <v>76</v>
+      </c>
+      <c r="F124" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>234</v>
+      </c>
+      <c r="B125" t="s">
+        <v>235</v>
+      </c>
+      <c r="C125" t="s">
+        <v>343</v>
+      </c>
+      <c r="D125" t="s">
+        <v>236</v>
+      </c>
+      <c r="E125">
+        <f>'Add-Data'!F126</f>
+        <v>76</v>
+      </c>
+      <c r="F125" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>234</v>
+      </c>
+      <c r="B126" t="s">
+        <v>235</v>
+      </c>
+      <c r="C126" t="s">
+        <v>344</v>
+      </c>
+      <c r="D126" t="s">
+        <v>236</v>
+      </c>
+      <c r="E126">
+        <f>'Add-Data'!F127</f>
+        <v>37</v>
+      </c>
+      <c r="F126" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>234</v>
+      </c>
+      <c r="B127" t="s">
+        <v>235</v>
+      </c>
+      <c r="C127" t="s">
+        <v>345</v>
+      </c>
+      <c r="D127" t="s">
+        <v>236</v>
+      </c>
+      <c r="E127">
+        <f>'Add-Data'!F128</f>
+        <v>35</v>
+      </c>
+      <c r="F127" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>234</v>
+      </c>
+      <c r="B128" t="s">
+        <v>235</v>
+      </c>
+      <c r="C128" t="s">
+        <v>346</v>
+      </c>
+      <c r="D128" t="s">
+        <v>236</v>
+      </c>
+      <c r="E128">
+        <f>'Add-Data'!F129</f>
+        <v>77</v>
+      </c>
+      <c r="F128" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>234</v>
+      </c>
+      <c r="B129" t="s">
+        <v>235</v>
+      </c>
+      <c r="C129" t="s">
+        <v>347</v>
+      </c>
+      <c r="D129" t="s">
+        <v>236</v>
+      </c>
+      <c r="E129">
+        <f>'Add-Data'!F130</f>
+        <v>25</v>
+      </c>
+      <c r="F129" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>234</v>
+      </c>
+      <c r="B130" t="s">
+        <v>235</v>
+      </c>
+      <c r="C130" t="s">
+        <v>348</v>
+      </c>
+      <c r="D130" t="s">
+        <v>236</v>
+      </c>
+      <c r="E130">
+        <f>'Add-Data'!F131</f>
+        <v>25</v>
+      </c>
+      <c r="F130" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>234</v>
+      </c>
+      <c r="B131" t="s">
+        <v>235</v>
+      </c>
+      <c r="C131" t="s">
+        <v>349</v>
+      </c>
+      <c r="D131" t="s">
+        <v>236</v>
+      </c>
+      <c r="E131">
+        <f>'Add-Data'!F132</f>
+        <v>25</v>
+      </c>
+      <c r="F131" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>234</v>
+      </c>
+      <c r="B132" t="s">
+        <v>235</v>
+      </c>
+      <c r="C132" t="s">
+        <v>350</v>
+      </c>
+      <c r="D132" t="s">
+        <v>236</v>
+      </c>
+      <c r="E132">
+        <f>'Add-Data'!F133</f>
+        <v>23</v>
+      </c>
+      <c r="F132" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>234</v>
+      </c>
+      <c r="B133" t="s">
+        <v>235</v>
+      </c>
+      <c r="C133" t="s">
+        <v>351</v>
+      </c>
+      <c r="D133" t="s">
+        <v>236</v>
+      </c>
+      <c r="E133">
+        <f>'Add-Data'!F134</f>
+        <v>23</v>
+      </c>
+      <c r="F133" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>234</v>
+      </c>
+      <c r="B134" t="s">
+        <v>235</v>
+      </c>
+      <c r="C134" t="s">
+        <v>352</v>
+      </c>
+      <c r="D134" t="s">
+        <v>236</v>
+      </c>
+      <c r="E134">
+        <f>'Add-Data'!F135</f>
+        <v>21</v>
+      </c>
+      <c r="F134" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>234</v>
+      </c>
+      <c r="B135" t="s">
+        <v>235</v>
+      </c>
+      <c r="C135" t="s">
+        <v>353</v>
+      </c>
+      <c r="D135" t="s">
+        <v>236</v>
+      </c>
+      <c r="E135">
+        <f>'Add-Data'!F136</f>
+        <v>20</v>
+      </c>
+      <c r="F135" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>234</v>
+      </c>
+      <c r="B136" t="s">
+        <v>235</v>
+      </c>
+      <c r="C136" t="s">
+        <v>354</v>
+      </c>
+      <c r="D136" t="s">
+        <v>236</v>
+      </c>
+      <c r="E136">
+        <f>'Add-Data'!F137</f>
+        <v>20</v>
+      </c>
+      <c r="F136" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>234</v>
+      </c>
+      <c r="B137" t="s">
+        <v>235</v>
+      </c>
+      <c r="C137" t="s">
+        <v>355</v>
+      </c>
+      <c r="D137" t="s">
+        <v>236</v>
+      </c>
+      <c r="E137">
+        <f>'Add-Data'!F138</f>
+        <v>20</v>
+      </c>
+      <c r="F137" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>234</v>
+      </c>
+      <c r="B138" t="s">
+        <v>235</v>
+      </c>
+      <c r="C138" t="s">
+        <v>356</v>
+      </c>
+      <c r="D138" t="s">
+        <v>236</v>
+      </c>
+      <c r="E138">
+        <f>'Add-Data'!F139</f>
+        <v>18</v>
+      </c>
+      <c r="F138" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>234</v>
+      </c>
+      <c r="B139" t="s">
+        <v>235</v>
+      </c>
+      <c r="C139" t="s">
+        <v>357</v>
+      </c>
+      <c r="D139" t="s">
+        <v>236</v>
+      </c>
+      <c r="E139">
+        <f>'Add-Data'!F140</f>
+        <v>17</v>
+      </c>
+      <c r="F139" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>234</v>
+      </c>
+      <c r="B140" t="s">
+        <v>235</v>
+      </c>
+      <c r="C140" t="s">
+        <v>358</v>
+      </c>
+      <c r="D140" t="s">
+        <v>236</v>
+      </c>
+      <c r="E140">
+        <f>'Add-Data'!F141</f>
+        <v>15</v>
+      </c>
+      <c r="F140" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>234</v>
+      </c>
+      <c r="B141" t="s">
+        <v>235</v>
+      </c>
+      <c r="C141" t="s">
+        <v>359</v>
+      </c>
+      <c r="D141" t="s">
+        <v>236</v>
+      </c>
+      <c r="E141">
+        <f>'Add-Data'!F142</f>
+        <v>15</v>
+      </c>
+      <c r="F141" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>234</v>
+      </c>
+      <c r="B142" t="s">
+        <v>235</v>
+      </c>
+      <c r="C142" t="s">
+        <v>360</v>
+      </c>
+      <c r="D142" t="s">
+        <v>236</v>
+      </c>
+      <c r="E142">
+        <f>'Add-Data'!F143</f>
+        <v>13</v>
+      </c>
+      <c r="F142" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>234</v>
+      </c>
+      <c r="B143" t="s">
+        <v>235</v>
+      </c>
+      <c r="C143" t="s">
+        <v>361</v>
+      </c>
+      <c r="D143" t="s">
+        <v>236</v>
+      </c>
+      <c r="E143">
+        <f>'Add-Data'!F144</f>
+        <v>12</v>
+      </c>
+      <c r="F143" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>234</v>
+      </c>
+      <c r="B144" t="s">
+        <v>235</v>
+      </c>
+      <c r="C144" t="s">
+        <v>362</v>
+      </c>
+      <c r="D144" t="s">
+        <v>236</v>
+      </c>
+      <c r="E144">
+        <f>'Add-Data'!F145</f>
+        <v>11</v>
+      </c>
+      <c r="F144" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>234</v>
+      </c>
+      <c r="B145" t="s">
+        <v>235</v>
+      </c>
+      <c r="C145" t="s">
+        <v>363</v>
+      </c>
+      <c r="D145" t="s">
+        <v>236</v>
+      </c>
+      <c r="E145">
+        <f>'Add-Data'!F146</f>
+        <v>10</v>
+      </c>
+      <c r="F145" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>234</v>
+      </c>
+      <c r="B146" t="s">
+        <v>235</v>
+      </c>
+      <c r="C146" t="s">
+        <v>364</v>
+      </c>
+      <c r="D146" t="s">
+        <v>236</v>
+      </c>
+      <c r="E146">
+        <f>'Add-Data'!F147</f>
+        <v>9</v>
+      </c>
+      <c r="F146" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>234</v>
+      </c>
+      <c r="B147" t="s">
+        <v>235</v>
+      </c>
+      <c r="D147" t="s">
+        <v>236</v>
+      </c>
+      <c r="E147">
+        <f>'Add-Data'!F148</f>
+        <v>9</v>
+      </c>
+      <c r="F147" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>234</v>
+      </c>
+      <c r="B148" t="s">
+        <v>235</v>
+      </c>
+      <c r="C148" t="s">
+        <v>365</v>
+      </c>
+      <c r="D148" t="s">
+        <v>236</v>
+      </c>
+      <c r="E148">
+        <f>'Add-Data'!F149</f>
+        <v>9</v>
+      </c>
+      <c r="F148" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>234</v>
+      </c>
+      <c r="B149" t="s">
+        <v>235</v>
+      </c>
+      <c r="C149" t="s">
+        <v>359</v>
+      </c>
+      <c r="D149" t="s">
+        <v>236</v>
+      </c>
+      <c r="E149">
+        <f>'Add-Data'!F150</f>
+        <v>8</v>
+      </c>
+      <c r="F149" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>234</v>
+      </c>
+      <c r="B150" t="s">
+        <v>235</v>
+      </c>
+      <c r="C150" t="s">
+        <v>366</v>
+      </c>
+      <c r="D150" t="s">
+        <v>236</v>
+      </c>
+      <c r="E150">
+        <f>'Add-Data'!F151</f>
+        <v>8</v>
+      </c>
+      <c r="F150" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>234</v>
+      </c>
+      <c r="B151" t="s">
+        <v>235</v>
+      </c>
+      <c r="C151" t="s">
+        <v>367</v>
+      </c>
+      <c r="D151" t="s">
+        <v>236</v>
+      </c>
+      <c r="E151">
+        <f>'Add-Data'!F152</f>
+        <v>8</v>
+      </c>
+      <c r="F151" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>234</v>
+      </c>
+      <c r="B152" t="s">
+        <v>235</v>
+      </c>
+      <c r="C152" t="s">
+        <v>368</v>
+      </c>
+      <c r="D152" t="s">
+        <v>236</v>
+      </c>
+      <c r="E152">
+        <f>'Add-Data'!F153</f>
+        <v>7</v>
+      </c>
+      <c r="F152" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>234</v>
+      </c>
+      <c r="B153" t="s">
+        <v>235</v>
+      </c>
+      <c r="C153" t="s">
+        <v>369</v>
+      </c>
+      <c r="D153" t="s">
+        <v>236</v>
+      </c>
+      <c r="E153">
+        <f>'Add-Data'!F154</f>
+        <v>7</v>
+      </c>
+      <c r="F153" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>234</v>
+      </c>
+      <c r="B154" t="s">
+        <v>235</v>
+      </c>
+      <c r="C154" t="s">
+        <v>370</v>
+      </c>
+      <c r="D154" t="s">
+        <v>236</v>
+      </c>
+      <c r="E154">
+        <f>'Add-Data'!F155</f>
+        <v>6</v>
+      </c>
+      <c r="F154" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>234</v>
+      </c>
+      <c r="B155" t="s">
+        <v>235</v>
+      </c>
+      <c r="C155" t="s">
+        <v>371</v>
+      </c>
+      <c r="D155" t="s">
+        <v>236</v>
+      </c>
+      <c r="E155">
+        <f>'Add-Data'!F156</f>
+        <v>6</v>
+      </c>
+      <c r="F155" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>234</v>
+      </c>
+      <c r="B156" t="s">
+        <v>235</v>
+      </c>
+      <c r="C156" t="s">
+        <v>372</v>
+      </c>
+      <c r="D156" t="s">
+        <v>236</v>
+      </c>
+      <c r="E156">
+        <f>'Add-Data'!F157</f>
+        <v>6</v>
+      </c>
+      <c r="F156" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>234</v>
+      </c>
+      <c r="B157" t="s">
+        <v>235</v>
+      </c>
+      <c r="C157" t="s">
+        <v>373</v>
+      </c>
+      <c r="D157" t="s">
+        <v>236</v>
+      </c>
+      <c r="E157">
+        <f>'Add-Data'!F158</f>
+        <v>6</v>
+      </c>
+      <c r="F157" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>234</v>
+      </c>
+      <c r="B158" t="s">
+        <v>235</v>
+      </c>
+      <c r="C158" t="s">
+        <v>374</v>
+      </c>
+      <c r="D158" t="s">
+        <v>236</v>
+      </c>
+      <c r="E158">
+        <f>'Add-Data'!F159</f>
+        <v>5</v>
+      </c>
+      <c r="F158" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>234</v>
+      </c>
+      <c r="B159" t="s">
+        <v>235</v>
+      </c>
+      <c r="C159" t="s">
+        <v>375</v>
+      </c>
+      <c r="D159" t="s">
+        <v>236</v>
+      </c>
+      <c r="E159">
+        <f>'Add-Data'!F160</f>
+        <v>5</v>
+      </c>
+      <c r="F159" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>234</v>
+      </c>
+      <c r="B160" t="s">
+        <v>235</v>
+      </c>
+      <c r="C160" t="s">
+        <v>376</v>
+      </c>
+      <c r="D160" t="s">
+        <v>236</v>
+      </c>
+      <c r="E160">
+        <f>'Add-Data'!F161</f>
+        <v>5</v>
+      </c>
+      <c r="F160" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>234</v>
+      </c>
+      <c r="B161" t="s">
+        <v>235</v>
+      </c>
+      <c r="D161" t="s">
+        <v>236</v>
+      </c>
+      <c r="E161">
+        <f>'Add-Data'!F162</f>
+        <v>5</v>
+      </c>
+      <c r="F161" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>234</v>
+      </c>
+      <c r="B162" t="s">
+        <v>235</v>
+      </c>
+      <c r="C162" t="s">
+        <v>377</v>
+      </c>
+      <c r="D162" t="s">
+        <v>236</v>
+      </c>
+      <c r="E162">
+        <f>'Add-Data'!F163</f>
+        <v>5</v>
+      </c>
+      <c r="F162" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>234</v>
+      </c>
+      <c r="B163" t="s">
+        <v>235</v>
+      </c>
+      <c r="C163" t="s">
+        <v>378</v>
+      </c>
+      <c r="D163" t="s">
+        <v>236</v>
+      </c>
+      <c r="E163">
+        <f>'Add-Data'!F164</f>
+        <v>5</v>
+      </c>
+      <c r="F163" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>234</v>
+      </c>
+      <c r="B164" t="s">
+        <v>235</v>
+      </c>
+      <c r="C164" t="s">
+        <v>379</v>
+      </c>
+      <c r="D164" t="s">
+        <v>236</v>
+      </c>
+      <c r="E164">
+        <f>'Add-Data'!F165</f>
+        <v>5</v>
+      </c>
+      <c r="F164" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>234</v>
+      </c>
+      <c r="B165" t="s">
+        <v>235</v>
+      </c>
+      <c r="C165" t="s">
+        <v>380</v>
+      </c>
+      <c r="D165" t="s">
+        <v>236</v>
+      </c>
+      <c r="E165">
+        <f>'Add-Data'!F166</f>
+        <v>4</v>
+      </c>
+      <c r="F165" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>234</v>
+      </c>
+      <c r="B166" t="s">
+        <v>235</v>
+      </c>
+      <c r="C166" t="s">
+        <v>381</v>
+      </c>
+      <c r="D166" t="s">
+        <v>236</v>
+      </c>
+      <c r="E166">
+        <f>'Add-Data'!F167</f>
+        <v>4</v>
+      </c>
+      <c r="F166" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>234</v>
+      </c>
+      <c r="B167" t="s">
+        <v>235</v>
+      </c>
+      <c r="C167" t="s">
+        <v>382</v>
+      </c>
+      <c r="D167" t="s">
+        <v>236</v>
+      </c>
+      <c r="E167">
+        <f>'Add-Data'!F168</f>
+        <v>4</v>
+      </c>
+      <c r="F167" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>234</v>
+      </c>
+      <c r="B168" t="s">
+        <v>235</v>
+      </c>
+      <c r="C168" t="s">
+        <v>383</v>
+      </c>
+      <c r="D168" t="s">
+        <v>236</v>
+      </c>
+      <c r="E168">
+        <f>'Add-Data'!F169</f>
+        <v>4</v>
+      </c>
+      <c r="F168" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>234</v>
+      </c>
+      <c r="B169" t="s">
+        <v>235</v>
+      </c>
+      <c r="C169" t="s">
+        <v>384</v>
+      </c>
+      <c r="D169" t="s">
+        <v>236</v>
+      </c>
+      <c r="E169">
+        <f>'Add-Data'!F170</f>
+        <v>4</v>
+      </c>
+      <c r="F169" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>234</v>
+      </c>
+      <c r="B170" t="s">
+        <v>235</v>
+      </c>
+      <c r="C170" t="s">
+        <v>385</v>
+      </c>
+      <c r="D170" t="s">
+        <v>236</v>
+      </c>
+      <c r="E170">
+        <f>'Add-Data'!F171</f>
+        <v>4</v>
+      </c>
+      <c r="F170" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>234</v>
+      </c>
+      <c r="B171" t="s">
+        <v>235</v>
+      </c>
+      <c r="C171" t="s">
+        <v>386</v>
+      </c>
+      <c r="D171" t="s">
+        <v>236</v>
+      </c>
+      <c r="E171">
+        <f>'Add-Data'!F172</f>
+        <v>4</v>
+      </c>
+      <c r="F171" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>234</v>
+      </c>
+      <c r="B172" t="s">
+        <v>235</v>
+      </c>
+      <c r="C172" t="s">
+        <v>387</v>
+      </c>
+      <c r="D172" t="s">
+        <v>236</v>
+      </c>
+      <c r="E172">
+        <f>'Add-Data'!F173</f>
+        <v>3</v>
+      </c>
+      <c r="F172" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>234</v>
+      </c>
+      <c r="B173" t="s">
+        <v>235</v>
+      </c>
+      <c r="C173" t="s">
+        <v>388</v>
+      </c>
+      <c r="D173" t="s">
+        <v>236</v>
+      </c>
+      <c r="E173">
+        <f>'Add-Data'!F174</f>
+        <v>3</v>
+      </c>
+      <c r="F173" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>234</v>
+      </c>
+      <c r="B174" t="s">
+        <v>235</v>
+      </c>
+      <c r="C174" t="s">
+        <v>389</v>
+      </c>
+      <c r="D174" t="s">
+        <v>236</v>
+      </c>
+      <c r="E174">
+        <f>'Add-Data'!F175</f>
+        <v>3</v>
+      </c>
+      <c r="F174" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>234</v>
+      </c>
+      <c r="B175" t="s">
+        <v>235</v>
+      </c>
+      <c r="C175" t="s">
+        <v>390</v>
+      </c>
+      <c r="D175" t="s">
+        <v>236</v>
+      </c>
+      <c r="E175">
+        <f>'Add-Data'!F176</f>
+        <v>3</v>
+      </c>
+      <c r="F175" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>234</v>
+      </c>
+      <c r="B176" t="s">
+        <v>235</v>
+      </c>
+      <c r="C176" t="s">
+        <v>391</v>
+      </c>
+      <c r="D176" t="s">
+        <v>236</v>
+      </c>
+      <c r="E176">
+        <f>'Add-Data'!F177</f>
+        <v>2</v>
+      </c>
+      <c r="F176" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>234</v>
+      </c>
+      <c r="B177" t="s">
+        <v>235</v>
+      </c>
+      <c r="C177" t="s">
+        <v>392</v>
+      </c>
+      <c r="D177" t="s">
+        <v>236</v>
+      </c>
+      <c r="E177">
+        <f>'Add-Data'!F178</f>
+        <v>2</v>
+      </c>
+      <c r="F177" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>234</v>
+      </c>
+      <c r="B178" t="s">
+        <v>235</v>
+      </c>
+      <c r="C178" t="s">
+        <v>393</v>
+      </c>
+      <c r="D178" t="s">
+        <v>236</v>
+      </c>
+      <c r="E178">
+        <f>'Add-Data'!F179</f>
+        <v>2</v>
+      </c>
+      <c r="F178" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>234</v>
+      </c>
+      <c r="B179" t="s">
+        <v>235</v>
+      </c>
+      <c r="C179" t="s">
+        <v>394</v>
+      </c>
+      <c r="D179" t="s">
+        <v>236</v>
+      </c>
+      <c r="E179">
+        <f>'Add-Data'!F180</f>
+        <v>2</v>
+      </c>
+      <c r="F179" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>234</v>
+      </c>
+      <c r="B180" t="s">
+        <v>235</v>
+      </c>
+      <c r="C180" t="s">
+        <v>395</v>
+      </c>
+      <c r="D180" t="s">
+        <v>236</v>
+      </c>
+      <c r="E180">
+        <f>'Add-Data'!F181</f>
+        <v>2</v>
+      </c>
+      <c r="F180" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>234</v>
+      </c>
+      <c r="B181" t="s">
+        <v>235</v>
+      </c>
+      <c r="C181" t="s">
+        <v>396</v>
+      </c>
+      <c r="D181" t="s">
+        <v>236</v>
+      </c>
+      <c r="E181">
+        <f>'Add-Data'!F182</f>
+        <v>1</v>
+      </c>
+      <c r="F181" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>234</v>
+      </c>
+      <c r="B182" t="s">
+        <v>235</v>
+      </c>
+      <c r="C182" t="s">
+        <v>397</v>
+      </c>
+      <c r="D182" t="s">
+        <v>236</v>
+      </c>
+      <c r="E182">
+        <f>'Add-Data'!F183</f>
+        <v>1</v>
+      </c>
+      <c r="F182" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>234</v>
+      </c>
+      <c r="B183" t="s">
+        <v>235</v>
+      </c>
+      <c r="C183" t="s">
+        <v>398</v>
+      </c>
+      <c r="D183" t="s">
+        <v>236</v>
+      </c>
+      <c r="E183">
+        <f>'Add-Data'!F184</f>
+        <v>1</v>
+      </c>
+      <c r="F183" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>234</v>
+      </c>
+      <c r="B184" t="s">
+        <v>235</v>
+      </c>
+      <c r="C184" t="s">
+        <v>400</v>
+      </c>
+      <c r="D184" t="s">
+        <v>236</v>
+      </c>
+      <c r="E184">
+        <f>'Add-Data'!F185</f>
+        <v>1</v>
+      </c>
+      <c r="F184" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>234</v>
+      </c>
+      <c r="B185" t="s">
+        <v>235</v>
+      </c>
+      <c r="C185" t="s">
+        <v>399</v>
+      </c>
+      <c r="D185" t="s">
+        <v>236</v>
+      </c>
+      <c r="E185">
+        <f>'Add-Data'!F186</f>
+        <v>1</v>
+      </c>
+      <c r="F185" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>234</v>
+      </c>
+      <c r="B186" t="s">
+        <v>235</v>
+      </c>
+      <c r="C186" t="s">
+        <v>401</v>
+      </c>
+      <c r="D186" t="s">
+        <v>236</v>
+      </c>
+      <c r="E186">
+        <f>'Add-Data'!F187</f>
+        <v>1</v>
+      </c>
+      <c r="F186" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>234</v>
+      </c>
+      <c r="B187" t="s">
+        <v>235</v>
+      </c>
+      <c r="C187" t="s">
+        <v>402</v>
+      </c>
+      <c r="D187" t="s">
+        <v>236</v>
+      </c>
+      <c r="E187">
+        <f>'Add-Data'!F188</f>
+        <v>1</v>
+      </c>
+      <c r="F187" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>234</v>
+      </c>
+      <c r="B188" t="s">
+        <v>235</v>
+      </c>
+      <c r="C188" t="s">
+        <v>403</v>
+      </c>
+      <c r="D188" t="s">
+        <v>236</v>
+      </c>
+      <c r="E188">
+        <f>'Add-Data'!F189</f>
+        <v>1</v>
+      </c>
+      <c r="F188" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>234</v>
+      </c>
+      <c r="B189" t="s">
+        <v>235</v>
+      </c>
+      <c r="C189" t="s">
+        <v>404</v>
+      </c>
+      <c r="D189" t="s">
+        <v>236</v>
+      </c>
+      <c r="E189">
+        <f>'Add-Data'!F190</f>
+        <v>1</v>
+      </c>
+      <c r="F189" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>234</v>
+      </c>
+      <c r="B190" t="s">
+        <v>235</v>
+      </c>
+      <c r="C190" t="s">
+        <v>405</v>
+      </c>
+      <c r="D190" t="s">
+        <v>236</v>
+      </c>
+      <c r="E190">
+        <f>'Add-Data'!F191</f>
+        <v>1</v>
+      </c>
+      <c r="F190" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>234</v>
+      </c>
+      <c r="B191" t="s">
+        <v>235</v>
+      </c>
+      <c r="C191" t="s">
+        <v>406</v>
+      </c>
+      <c r="D191" t="s">
+        <v>236</v>
+      </c>
+      <c r="E191">
+        <f>'Add-Data'!F192</f>
+        <v>1</v>
+      </c>
+      <c r="F191" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>234</v>
+      </c>
+      <c r="B192" t="s">
+        <v>235</v>
+      </c>
+      <c r="C192" t="s">
+        <v>407</v>
+      </c>
+      <c r="D192" t="s">
+        <v>236</v>
+      </c>
+      <c r="E192">
+        <f>'Add-Data'!F193</f>
+        <v>1</v>
+      </c>
+      <c r="F192" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>234</v>
+      </c>
+      <c r="B193" t="s">
+        <v>235</v>
+      </c>
+      <c r="C193" t="s">
+        <v>408</v>
+      </c>
+      <c r="D193" t="s">
+        <v>236</v>
+      </c>
+      <c r="E193">
+        <f>'Add-Data'!F194</f>
+        <v>1</v>
+      </c>
+      <c r="F193" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>234</v>
+      </c>
+      <c r="B194" t="s">
+        <v>235</v>
+      </c>
+      <c r="C194" t="s">
+        <v>409</v>
+      </c>
+      <c r="D194" t="s">
+        <v>236</v>
+      </c>
+      <c r="E194">
+        <f>'Add-Data'!F195</f>
+        <v>1</v>
+      </c>
+      <c r="F194" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A4A4E2-1B6A-2B4C-AC8A-3CB7BB9A163E}">
   <dimension ref="A1:D182"/>
   <sheetViews>
@@ -19109,3888 +23190,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77E7DF6-81F7-BC42-9B3D-4022CB67E0D0}">
-  <dimension ref="A1:F194"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F194"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E1">
-        <v>64595</v>
-      </c>
-      <c r="F1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E2">
-        <v>40402</v>
-      </c>
-      <c r="F2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E3">
-        <v>19314</v>
-      </c>
-      <c r="F3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>234</v>
-      </c>
-      <c r="B4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E4">
-        <v>13229</v>
-      </c>
-      <c r="F4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C5" t="s">
-        <v>221</v>
-      </c>
-      <c r="D5" t="s">
-        <v>236</v>
-      </c>
-      <c r="E5">
-        <v>15398</v>
-      </c>
-      <c r="F5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>234</v>
-      </c>
-      <c r="B6" t="s">
-        <v>235</v>
-      </c>
-      <c r="C6" t="s">
-        <v>222</v>
-      </c>
-      <c r="D6" t="s">
-        <v>236</v>
-      </c>
-      <c r="E6">
-        <v>7545</v>
-      </c>
-      <c r="F6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>234</v>
-      </c>
-      <c r="B7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C7" t="s">
-        <v>223</v>
-      </c>
-      <c r="D7" t="s">
-        <v>236</v>
-      </c>
-      <c r="E7">
-        <v>7205</v>
-      </c>
-      <c r="F7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>234</v>
-      </c>
-      <c r="B8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D8" t="s">
-        <v>236</v>
-      </c>
-      <c r="E8">
-        <v>4819</v>
-      </c>
-      <c r="F8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>234</v>
-      </c>
-      <c r="B9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C9" t="s">
-        <v>225</v>
-      </c>
-      <c r="D9" t="s">
-        <v>236</v>
-      </c>
-      <c r="E9">
-        <v>7231</v>
-      </c>
-      <c r="F9" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>234</v>
-      </c>
-      <c r="B10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C10" t="s">
-        <v>226</v>
-      </c>
-      <c r="D10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E10">
-        <v>6118</v>
-      </c>
-      <c r="F10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>234</v>
-      </c>
-      <c r="B11" t="s">
-        <v>235</v>
-      </c>
-      <c r="C11" t="s">
-        <v>227</v>
-      </c>
-      <c r="D11" t="s">
-        <v>236</v>
-      </c>
-      <c r="E11">
-        <v>4659</v>
-      </c>
-      <c r="F11" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>234</v>
-      </c>
-      <c r="B12" t="s">
-        <v>235</v>
-      </c>
-      <c r="C12" t="s">
-        <v>228</v>
-      </c>
-      <c r="D12" t="s">
-        <v>236</v>
-      </c>
-      <c r="E12">
-        <v>4374</v>
-      </c>
-      <c r="F12" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>234</v>
-      </c>
-      <c r="B13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C13" t="s">
-        <v>229</v>
-      </c>
-      <c r="D13" t="s">
-        <v>236</v>
-      </c>
-      <c r="E13">
-        <v>3281</v>
-      </c>
-      <c r="F13" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>234</v>
-      </c>
-      <c r="B14" t="s">
-        <v>235</v>
-      </c>
-      <c r="C14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D14" t="s">
-        <v>236</v>
-      </c>
-      <c r="E14">
-        <v>2360</v>
-      </c>
-      <c r="F14" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>234</v>
-      </c>
-      <c r="B15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C15" t="s">
-        <v>231</v>
-      </c>
-      <c r="D15" t="s">
-        <v>236</v>
-      </c>
-      <c r="E15">
-        <v>2598</v>
-      </c>
-      <c r="F15" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>234</v>
-      </c>
-      <c r="B16" t="s">
-        <v>235</v>
-      </c>
-      <c r="C16" t="s">
-        <v>232</v>
-      </c>
-      <c r="D16" t="s">
-        <v>236</v>
-      </c>
-      <c r="E16">
-        <v>3622</v>
-      </c>
-      <c r="F16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>234</v>
-      </c>
-      <c r="B17" t="s">
-        <v>235</v>
-      </c>
-      <c r="C17" t="s">
-        <v>233</v>
-      </c>
-      <c r="D17" t="s">
-        <v>236</v>
-      </c>
-      <c r="E17">
-        <v>2705</v>
-      </c>
-      <c r="F17" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>234</v>
-      </c>
-      <c r="B18" t="s">
-        <v>235</v>
-      </c>
-      <c r="C18" t="s">
-        <v>238</v>
-      </c>
-      <c r="D18" t="s">
-        <v>236</v>
-      </c>
-      <c r="E18">
-        <v>2198</v>
-      </c>
-      <c r="F18" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>234</v>
-      </c>
-      <c r="B19" t="s">
-        <v>235</v>
-      </c>
-      <c r="C19" t="s">
-        <v>239</v>
-      </c>
-      <c r="D19" t="s">
-        <v>236</v>
-      </c>
-      <c r="E19">
-        <v>1803</v>
-      </c>
-      <c r="F19" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>234</v>
-      </c>
-      <c r="B20" t="s">
-        <v>235</v>
-      </c>
-      <c r="C20" t="s">
-        <v>240</v>
-      </c>
-      <c r="D20" t="s">
-        <v>236</v>
-      </c>
-      <c r="E20">
-        <v>2794</v>
-      </c>
-      <c r="F20" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>234</v>
-      </c>
-      <c r="B21" t="s">
-        <v>235</v>
-      </c>
-      <c r="C21" t="s">
-        <v>241</v>
-      </c>
-      <c r="D21" t="s">
-        <v>236</v>
-      </c>
-      <c r="E21">
-        <v>2168</v>
-      </c>
-      <c r="F21" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>234</v>
-      </c>
-      <c r="B22" t="s">
-        <v>235</v>
-      </c>
-      <c r="C22" t="s">
-        <v>242</v>
-      </c>
-      <c r="D22" t="s">
-        <v>236</v>
-      </c>
-      <c r="E22">
-        <v>2213</v>
-      </c>
-      <c r="F22" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>234</v>
-      </c>
-      <c r="B23" t="s">
-        <v>235</v>
-      </c>
-      <c r="C23" t="s">
-        <v>243</v>
-      </c>
-      <c r="D23" t="s">
-        <v>236</v>
-      </c>
-      <c r="E23">
-        <v>1820</v>
-      </c>
-      <c r="F23" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>234</v>
-      </c>
-      <c r="B24" t="s">
-        <v>235</v>
-      </c>
-      <c r="C24" t="s">
-        <v>245</v>
-      </c>
-      <c r="D24" t="s">
-        <v>236</v>
-      </c>
-      <c r="E24">
-        <v>1587</v>
-      </c>
-      <c r="F24" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>234</v>
-      </c>
-      <c r="B25" t="s">
-        <v>235</v>
-      </c>
-      <c r="C25" t="s">
-        <v>244</v>
-      </c>
-      <c r="D25" t="s">
-        <v>236</v>
-      </c>
-      <c r="E25">
-        <v>1751</v>
-      </c>
-      <c r="F25" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>234</v>
-      </c>
-      <c r="B26" t="s">
-        <v>235</v>
-      </c>
-      <c r="C26" t="s">
-        <v>246</v>
-      </c>
-      <c r="D26" t="s">
-        <v>236</v>
-      </c>
-      <c r="E26">
-        <v>1769</v>
-      </c>
-      <c r="F26" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>234</v>
-      </c>
-      <c r="B27" t="s">
-        <v>235</v>
-      </c>
-      <c r="C27" t="s">
-        <v>247</v>
-      </c>
-      <c r="D27" t="s">
-        <v>236</v>
-      </c>
-      <c r="E27">
-        <v>1832</v>
-      </c>
-      <c r="F27" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>234</v>
-      </c>
-      <c r="B28" t="s">
-        <v>235</v>
-      </c>
-      <c r="C28" t="s">
-        <v>248</v>
-      </c>
-      <c r="D28" t="s">
-        <v>236</v>
-      </c>
-      <c r="E28">
-        <v>2229</v>
-      </c>
-      <c r="F28" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>234</v>
-      </c>
-      <c r="B29" t="s">
-        <v>235</v>
-      </c>
-      <c r="C29" t="s">
-        <v>249</v>
-      </c>
-      <c r="D29" t="s">
-        <v>236</v>
-      </c>
-      <c r="E29">
-        <v>1604</v>
-      </c>
-      <c r="F29" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>234</v>
-      </c>
-      <c r="B30" t="s">
-        <v>235</v>
-      </c>
-      <c r="C30" t="s">
-        <v>250</v>
-      </c>
-      <c r="D30" t="s">
-        <v>236</v>
-      </c>
-      <c r="E30">
-        <v>1259</v>
-      </c>
-      <c r="F30" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>234</v>
-      </c>
-      <c r="B31" t="s">
-        <v>235</v>
-      </c>
-      <c r="C31" t="s">
-        <v>251</v>
-      </c>
-      <c r="D31" t="s">
-        <v>236</v>
-      </c>
-      <c r="E31">
-        <v>1398</v>
-      </c>
-      <c r="F31" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>234</v>
-      </c>
-      <c r="B32" t="s">
-        <v>235</v>
-      </c>
-      <c r="C32" t="s">
-        <v>252</v>
-      </c>
-      <c r="D32" t="s">
-        <v>236</v>
-      </c>
-      <c r="E32">
-        <v>1719</v>
-      </c>
-      <c r="F32" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>234</v>
-      </c>
-      <c r="B33" t="s">
-        <v>235</v>
-      </c>
-      <c r="C33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D33" t="s">
-        <v>236</v>
-      </c>
-      <c r="E33">
-        <v>1282</v>
-      </c>
-      <c r="F33" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>234</v>
-      </c>
-      <c r="B34" t="s">
-        <v>235</v>
-      </c>
-      <c r="C34" t="s">
-        <v>254</v>
-      </c>
-      <c r="D34" t="s">
-        <v>236</v>
-      </c>
-      <c r="E34">
-        <v>1440</v>
-      </c>
-      <c r="F34" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>234</v>
-      </c>
-      <c r="B35" t="s">
-        <v>235</v>
-      </c>
-      <c r="C35" t="s">
-        <v>255</v>
-      </c>
-      <c r="D35" t="s">
-        <v>236</v>
-      </c>
-      <c r="E35">
-        <v>1314</v>
-      </c>
-      <c r="F35" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>234</v>
-      </c>
-      <c r="B36" t="s">
-        <v>235</v>
-      </c>
-      <c r="C36" t="s">
-        <v>256</v>
-      </c>
-      <c r="D36" t="s">
-        <v>236</v>
-      </c>
-      <c r="E36">
-        <v>1307</v>
-      </c>
-      <c r="F36" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>234</v>
-      </c>
-      <c r="B37" t="s">
-        <v>235</v>
-      </c>
-      <c r="C37" t="s">
-        <v>257</v>
-      </c>
-      <c r="D37" t="s">
-        <v>236</v>
-      </c>
-      <c r="E37">
-        <v>1471</v>
-      </c>
-      <c r="F37" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>234</v>
-      </c>
-      <c r="B38" t="s">
-        <v>235</v>
-      </c>
-      <c r="C38" t="s">
-        <v>258</v>
-      </c>
-      <c r="D38" t="s">
-        <v>236</v>
-      </c>
-      <c r="E38">
-        <v>1009</v>
-      </c>
-      <c r="F38" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>234</v>
-      </c>
-      <c r="B39" t="s">
-        <v>235</v>
-      </c>
-      <c r="C39" t="s">
-        <v>259</v>
-      </c>
-      <c r="D39" t="s">
-        <v>236</v>
-      </c>
-      <c r="E39">
-        <v>998</v>
-      </c>
-      <c r="F39" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>234</v>
-      </c>
-      <c r="B40" t="s">
-        <v>235</v>
-      </c>
-      <c r="C40" t="s">
-        <v>260</v>
-      </c>
-      <c r="D40" t="s">
-        <v>236</v>
-      </c>
-      <c r="E40">
-        <v>969</v>
-      </c>
-      <c r="F40" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>234</v>
-      </c>
-      <c r="B41" t="s">
-        <v>235</v>
-      </c>
-      <c r="C41" t="s">
-        <v>261</v>
-      </c>
-      <c r="D41" t="s">
-        <v>236</v>
-      </c>
-      <c r="E41">
-        <v>755</v>
-      </c>
-      <c r="F41" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>234</v>
-      </c>
-      <c r="B42" t="s">
-        <v>235</v>
-      </c>
-      <c r="C42" t="s">
-        <v>262</v>
-      </c>
-      <c r="D42" t="s">
-        <v>236</v>
-      </c>
-      <c r="E42">
-        <v>911</v>
-      </c>
-      <c r="F42" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>234</v>
-      </c>
-      <c r="B43" t="s">
-        <v>235</v>
-      </c>
-      <c r="C43" t="s">
-        <v>263</v>
-      </c>
-      <c r="D43" t="s">
-        <v>236</v>
-      </c>
-      <c r="E43">
-        <v>1246</v>
-      </c>
-      <c r="F43" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>234</v>
-      </c>
-      <c r="B44" t="s">
-        <v>235</v>
-      </c>
-      <c r="C44" t="s">
-        <v>264</v>
-      </c>
-      <c r="D44" t="s">
-        <v>236</v>
-      </c>
-      <c r="E44">
-        <v>1231</v>
-      </c>
-      <c r="F44" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>234</v>
-      </c>
-      <c r="B45" t="s">
-        <v>235</v>
-      </c>
-      <c r="C45" t="s">
-        <v>265</v>
-      </c>
-      <c r="D45" t="s">
-        <v>236</v>
-      </c>
-      <c r="E45">
-        <v>760</v>
-      </c>
-      <c r="F45" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>234</v>
-      </c>
-      <c r="B46" t="s">
-        <v>235</v>
-      </c>
-      <c r="C46" t="s">
-        <v>266</v>
-      </c>
-      <c r="D46" t="s">
-        <v>236</v>
-      </c>
-      <c r="E46">
-        <v>877</v>
-      </c>
-      <c r="F46" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>234</v>
-      </c>
-      <c r="B47" t="s">
-        <v>235</v>
-      </c>
-      <c r="C47" t="s">
-        <v>267</v>
-      </c>
-      <c r="D47" t="s">
-        <v>236</v>
-      </c>
-      <c r="E47">
-        <v>744</v>
-      </c>
-      <c r="F47" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>234</v>
-      </c>
-      <c r="B48" t="s">
-        <v>235</v>
-      </c>
-      <c r="C48" t="s">
-        <v>268</v>
-      </c>
-      <c r="D48" t="s">
-        <v>236</v>
-      </c>
-      <c r="E48">
-        <v>910</v>
-      </c>
-      <c r="F48" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>234</v>
-      </c>
-      <c r="B49" t="s">
-        <v>235</v>
-      </c>
-      <c r="C49" t="s">
-        <v>269</v>
-      </c>
-      <c r="D49" t="s">
-        <v>236</v>
-      </c>
-      <c r="E49">
-        <v>784</v>
-      </c>
-      <c r="F49" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>234</v>
-      </c>
-      <c r="B50" t="s">
-        <v>235</v>
-      </c>
-      <c r="C50" t="s">
-        <v>270</v>
-      </c>
-      <c r="D50" t="s">
-        <v>236</v>
-      </c>
-      <c r="E50">
-        <v>815</v>
-      </c>
-      <c r="F50" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>234</v>
-      </c>
-      <c r="B51" t="s">
-        <v>235</v>
-      </c>
-      <c r="C51" t="s">
-        <v>271</v>
-      </c>
-      <c r="D51" t="s">
-        <v>236</v>
-      </c>
-      <c r="E51">
-        <v>1087</v>
-      </c>
-      <c r="F51" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>234</v>
-      </c>
-      <c r="B52" t="s">
-        <v>235</v>
-      </c>
-      <c r="C52" t="s">
-        <v>272</v>
-      </c>
-      <c r="D52" t="s">
-        <v>236</v>
-      </c>
-      <c r="E52">
-        <v>795</v>
-      </c>
-      <c r="F52" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>234</v>
-      </c>
-      <c r="B53" t="s">
-        <v>235</v>
-      </c>
-      <c r="C53" t="s">
-        <v>273</v>
-      </c>
-      <c r="D53" t="s">
-        <v>236</v>
-      </c>
-      <c r="E53">
-        <v>792</v>
-      </c>
-      <c r="F53" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>234</v>
-      </c>
-      <c r="B54" t="s">
-        <v>235</v>
-      </c>
-      <c r="C54" t="s">
-        <v>274</v>
-      </c>
-      <c r="D54" t="s">
-        <v>236</v>
-      </c>
-      <c r="E54">
-        <v>722</v>
-      </c>
-      <c r="F54" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>234</v>
-      </c>
-      <c r="B55" t="s">
-        <v>235</v>
-      </c>
-      <c r="C55" t="s">
-        <v>275</v>
-      </c>
-      <c r="D55" t="s">
-        <v>236</v>
-      </c>
-      <c r="E55">
-        <v>681</v>
-      </c>
-      <c r="F55" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>234</v>
-      </c>
-      <c r="B56" t="s">
-        <v>235</v>
-      </c>
-      <c r="C56" t="s">
-        <v>276</v>
-      </c>
-      <c r="D56" t="s">
-        <v>236</v>
-      </c>
-      <c r="E56">
-        <v>699</v>
-      </c>
-      <c r="F56" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>234</v>
-      </c>
-      <c r="B57" t="s">
-        <v>235</v>
-      </c>
-      <c r="C57" t="s">
-        <v>277</v>
-      </c>
-      <c r="D57" t="s">
-        <v>236</v>
-      </c>
-      <c r="E57">
-        <v>847</v>
-      </c>
-      <c r="F57" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>234</v>
-      </c>
-      <c r="B58" t="s">
-        <v>235</v>
-      </c>
-      <c r="C58" t="s">
-        <v>278</v>
-      </c>
-      <c r="D58" t="s">
-        <v>236</v>
-      </c>
-      <c r="E58">
-        <v>635</v>
-      </c>
-      <c r="F58" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>234</v>
-      </c>
-      <c r="B59" t="s">
-        <v>235</v>
-      </c>
-      <c r="C59" t="s">
-        <v>279</v>
-      </c>
-      <c r="D59" t="s">
-        <v>236</v>
-      </c>
-      <c r="E59">
-        <v>512</v>
-      </c>
-      <c r="F59" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>234</v>
-      </c>
-      <c r="B60" t="s">
-        <v>235</v>
-      </c>
-      <c r="C60" t="s">
-        <v>280</v>
-      </c>
-      <c r="D60" t="s">
-        <v>236</v>
-      </c>
-      <c r="E60">
-        <v>620</v>
-      </c>
-      <c r="F60" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>234</v>
-      </c>
-      <c r="B61" t="s">
-        <v>235</v>
-      </c>
-      <c r="C61" t="s">
-        <v>281</v>
-      </c>
-      <c r="D61" t="s">
-        <v>236</v>
-      </c>
-      <c r="E61">
-        <v>662</v>
-      </c>
-      <c r="F61" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>234</v>
-      </c>
-      <c r="B62" t="s">
-        <v>235</v>
-      </c>
-      <c r="C62" t="s">
-        <v>282</v>
-      </c>
-      <c r="D62" t="s">
-        <v>236</v>
-      </c>
-      <c r="E62">
-        <v>471</v>
-      </c>
-      <c r="F62" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>234</v>
-      </c>
-      <c r="B63" t="s">
-        <v>235</v>
-      </c>
-      <c r="C63" t="s">
-        <v>283</v>
-      </c>
-      <c r="D63" t="s">
-        <v>236</v>
-      </c>
-      <c r="E63">
-        <v>512</v>
-      </c>
-      <c r="F63" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>234</v>
-      </c>
-      <c r="B64" t="s">
-        <v>235</v>
-      </c>
-      <c r="C64" t="s">
-        <v>284</v>
-      </c>
-      <c r="D64" t="s">
-        <v>236</v>
-      </c>
-      <c r="E64">
-        <v>462</v>
-      </c>
-      <c r="F64" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>234</v>
-      </c>
-      <c r="B65" t="s">
-        <v>235</v>
-      </c>
-      <c r="D65" t="s">
-        <v>236</v>
-      </c>
-      <c r="E65">
-        <v>339</v>
-      </c>
-      <c r="F65" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>234</v>
-      </c>
-      <c r="B66" t="s">
-        <v>235</v>
-      </c>
-      <c r="C66" t="s">
-        <v>285</v>
-      </c>
-      <c r="D66" t="s">
-        <v>236</v>
-      </c>
-      <c r="E66">
-        <v>406</v>
-      </c>
-      <c r="F66" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>234</v>
-      </c>
-      <c r="B67" t="s">
-        <v>235</v>
-      </c>
-      <c r="C67" t="s">
-        <v>286</v>
-      </c>
-      <c r="D67" t="s">
-        <v>236</v>
-      </c>
-      <c r="E67">
-        <v>506</v>
-      </c>
-      <c r="F67" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>234</v>
-      </c>
-      <c r="B68" t="s">
-        <v>235</v>
-      </c>
-      <c r="C68" t="s">
-        <v>287</v>
-      </c>
-      <c r="D68" t="s">
-        <v>236</v>
-      </c>
-      <c r="E68">
-        <v>305</v>
-      </c>
-      <c r="F68" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>234</v>
-      </c>
-      <c r="B69" t="s">
-        <v>235</v>
-      </c>
-      <c r="C69" t="s">
-        <v>288</v>
-      </c>
-      <c r="D69" t="s">
-        <v>236</v>
-      </c>
-      <c r="E69">
-        <v>330</v>
-      </c>
-      <c r="F69" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>234</v>
-      </c>
-      <c r="B70" t="s">
-        <v>235</v>
-      </c>
-      <c r="C70" t="s">
-        <v>289</v>
-      </c>
-      <c r="D70" t="s">
-        <v>236</v>
-      </c>
-      <c r="E70">
-        <v>535</v>
-      </c>
-      <c r="F70" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>234</v>
-      </c>
-      <c r="B71" t="s">
-        <v>235</v>
-      </c>
-      <c r="C71" t="s">
-        <v>290</v>
-      </c>
-      <c r="D71" t="s">
-        <v>236</v>
-      </c>
-      <c r="E71">
-        <v>305</v>
-      </c>
-      <c r="F71" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>234</v>
-      </c>
-      <c r="B72" t="s">
-        <v>235</v>
-      </c>
-      <c r="C72" t="s">
-        <v>291</v>
-      </c>
-      <c r="D72" t="s">
-        <v>236</v>
-      </c>
-      <c r="E72">
-        <v>456</v>
-      </c>
-      <c r="F72" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>234</v>
-      </c>
-      <c r="B73" t="s">
-        <v>235</v>
-      </c>
-      <c r="C73" t="s">
-        <v>292</v>
-      </c>
-      <c r="D73" t="s">
-        <v>236</v>
-      </c>
-      <c r="E73">
-        <v>439</v>
-      </c>
-      <c r="F73" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>234</v>
-      </c>
-      <c r="B74" t="s">
-        <v>235</v>
-      </c>
-      <c r="C74" t="s">
-        <v>293</v>
-      </c>
-      <c r="D74" t="s">
-        <v>236</v>
-      </c>
-      <c r="E74">
-        <v>291</v>
-      </c>
-      <c r="F74" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>234</v>
-      </c>
-      <c r="B75" t="s">
-        <v>235</v>
-      </c>
-      <c r="C75" t="s">
-        <v>294</v>
-      </c>
-      <c r="D75" t="s">
-        <v>236</v>
-      </c>
-      <c r="E75">
-        <v>275</v>
-      </c>
-      <c r="F75" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>234</v>
-      </c>
-      <c r="B76" t="s">
-        <v>235</v>
-      </c>
-      <c r="C76" t="s">
-        <v>295</v>
-      </c>
-      <c r="D76" t="s">
-        <v>236</v>
-      </c>
-      <c r="E76">
-        <v>287</v>
-      </c>
-      <c r="F76" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>234</v>
-      </c>
-      <c r="B77" t="s">
-        <v>235</v>
-      </c>
-      <c r="C77" t="s">
-        <v>296</v>
-      </c>
-      <c r="D77" t="s">
-        <v>236</v>
-      </c>
-      <c r="E77">
-        <v>247</v>
-      </c>
-      <c r="F77" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>234</v>
-      </c>
-      <c r="B78" t="s">
-        <v>235</v>
-      </c>
-      <c r="C78" t="s">
-        <v>297</v>
-      </c>
-      <c r="D78" t="s">
-        <v>236</v>
-      </c>
-      <c r="E78">
-        <v>221</v>
-      </c>
-      <c r="F78" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>234</v>
-      </c>
-      <c r="B79" t="s">
-        <v>235</v>
-      </c>
-      <c r="C79" t="s">
-        <v>298</v>
-      </c>
-      <c r="D79" t="s">
-        <v>236</v>
-      </c>
-      <c r="E79">
-        <v>320</v>
-      </c>
-      <c r="F79" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>234</v>
-      </c>
-      <c r="B80" t="s">
-        <v>235</v>
-      </c>
-      <c r="C80" t="s">
-        <v>299</v>
-      </c>
-      <c r="D80" t="s">
-        <v>236</v>
-      </c>
-      <c r="E80">
-        <v>221</v>
-      </c>
-      <c r="F80" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>234</v>
-      </c>
-      <c r="B81" t="s">
-        <v>235</v>
-      </c>
-      <c r="C81" t="s">
-        <v>300</v>
-      </c>
-      <c r="D81" t="s">
-        <v>236</v>
-      </c>
-      <c r="E81">
-        <v>221</v>
-      </c>
-      <c r="F81" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>234</v>
-      </c>
-      <c r="B82" t="s">
-        <v>235</v>
-      </c>
-      <c r="C82" t="s">
-        <v>301</v>
-      </c>
-      <c r="D82" t="s">
-        <v>236</v>
-      </c>
-      <c r="E82">
-        <v>253</v>
-      </c>
-      <c r="F82" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>234</v>
-      </c>
-      <c r="B83" t="s">
-        <v>235</v>
-      </c>
-      <c r="C83" t="s">
-        <v>302</v>
-      </c>
-      <c r="D83" t="s">
-        <v>236</v>
-      </c>
-      <c r="E83">
-        <v>204</v>
-      </c>
-      <c r="F83" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>234</v>
-      </c>
-      <c r="B84" t="s">
-        <v>235</v>
-      </c>
-      <c r="C84" t="s">
-        <v>303</v>
-      </c>
-      <c r="D84" t="s">
-        <v>236</v>
-      </c>
-      <c r="E84">
-        <v>222</v>
-      </c>
-      <c r="F84" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>234</v>
-      </c>
-      <c r="B85" t="s">
-        <v>235</v>
-      </c>
-      <c r="C85" t="s">
-        <v>304</v>
-      </c>
-      <c r="D85" t="s">
-        <v>236</v>
-      </c>
-      <c r="E85">
-        <v>200</v>
-      </c>
-      <c r="F85" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>234</v>
-      </c>
-      <c r="B86" t="s">
-        <v>235</v>
-      </c>
-      <c r="C86" t="s">
-        <v>305</v>
-      </c>
-      <c r="D86" t="s">
-        <v>236</v>
-      </c>
-      <c r="E86">
-        <v>174</v>
-      </c>
-      <c r="F86" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>234</v>
-      </c>
-      <c r="B87" t="s">
-        <v>235</v>
-      </c>
-      <c r="C87" t="s">
-        <v>306</v>
-      </c>
-      <c r="D87" t="s">
-        <v>236</v>
-      </c>
-      <c r="E87">
-        <v>158</v>
-      </c>
-      <c r="F87" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>234</v>
-      </c>
-      <c r="B88" t="s">
-        <v>235</v>
-      </c>
-      <c r="C88" t="s">
-        <v>307</v>
-      </c>
-      <c r="D88" t="s">
-        <v>236</v>
-      </c>
-      <c r="E88">
-        <v>166</v>
-      </c>
-      <c r="F88" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>234</v>
-      </c>
-      <c r="B89" t="s">
-        <v>235</v>
-      </c>
-      <c r="C89" t="s">
-        <v>308</v>
-      </c>
-      <c r="D89" t="s">
-        <v>236</v>
-      </c>
-      <c r="E89">
-        <v>132</v>
-      </c>
-      <c r="F89" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>234</v>
-      </c>
-      <c r="B90" t="s">
-        <v>235</v>
-      </c>
-      <c r="C90" t="s">
-        <v>309</v>
-      </c>
-      <c r="D90" t="s">
-        <v>236</v>
-      </c>
-      <c r="E90">
-        <v>158</v>
-      </c>
-      <c r="F90" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>234</v>
-      </c>
-      <c r="B91" t="s">
-        <v>235</v>
-      </c>
-      <c r="C91" t="s">
-        <v>310</v>
-      </c>
-      <c r="D91" t="s">
-        <v>236</v>
-      </c>
-      <c r="E91">
-        <v>175</v>
-      </c>
-      <c r="F91" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>234</v>
-      </c>
-      <c r="B92" t="s">
-        <v>235</v>
-      </c>
-      <c r="C92" t="s">
-        <v>311</v>
-      </c>
-      <c r="D92" t="s">
-        <v>236</v>
-      </c>
-      <c r="E92">
-        <v>118</v>
-      </c>
-      <c r="F92" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>234</v>
-      </c>
-      <c r="B93" t="s">
-        <v>235</v>
-      </c>
-      <c r="C93" t="s">
-        <v>312</v>
-      </c>
-      <c r="D93" t="s">
-        <v>236</v>
-      </c>
-      <c r="E93">
-        <v>137</v>
-      </c>
-      <c r="F93" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>234</v>
-      </c>
-      <c r="B94" t="s">
-        <v>235</v>
-      </c>
-      <c r="C94" t="s">
-        <v>313</v>
-      </c>
-      <c r="D94" t="s">
-        <v>236</v>
-      </c>
-      <c r="E94">
-        <v>101</v>
-      </c>
-      <c r="F94" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>234</v>
-      </c>
-      <c r="B95" t="s">
-        <v>235</v>
-      </c>
-      <c r="C95" t="s">
-        <v>314</v>
-      </c>
-      <c r="D95" t="s">
-        <v>236</v>
-      </c>
-      <c r="E95">
-        <v>139</v>
-      </c>
-      <c r="F95" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>234</v>
-      </c>
-      <c r="B96" t="s">
-        <v>235</v>
-      </c>
-      <c r="C96" t="s">
-        <v>315</v>
-      </c>
-      <c r="D96" t="s">
-        <v>236</v>
-      </c>
-      <c r="E96">
-        <v>148</v>
-      </c>
-      <c r="F96" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>234</v>
-      </c>
-      <c r="B97" t="s">
-        <v>235</v>
-      </c>
-      <c r="C97" t="s">
-        <v>316</v>
-      </c>
-      <c r="D97" t="s">
-        <v>236</v>
-      </c>
-      <c r="E97">
-        <v>94</v>
-      </c>
-      <c r="F97" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>234</v>
-      </c>
-      <c r="B98" t="s">
-        <v>235</v>
-      </c>
-      <c r="C98" t="s">
-        <v>317</v>
-      </c>
-      <c r="D98" t="s">
-        <v>236</v>
-      </c>
-      <c r="E98">
-        <v>104</v>
-      </c>
-      <c r="F98" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>234</v>
-      </c>
-      <c r="B99" t="s">
-        <v>235</v>
-      </c>
-      <c r="C99" t="s">
-        <v>318</v>
-      </c>
-      <c r="D99" t="s">
-        <v>236</v>
-      </c>
-      <c r="E99">
-        <v>92</v>
-      </c>
-      <c r="F99" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>234</v>
-      </c>
-      <c r="B100" t="s">
-        <v>235</v>
-      </c>
-      <c r="C100" t="s">
-        <v>319</v>
-      </c>
-      <c r="D100" t="s">
-        <v>236</v>
-      </c>
-      <c r="E100">
-        <v>92</v>
-      </c>
-      <c r="F100" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>234</v>
-      </c>
-      <c r="B101" t="s">
-        <v>235</v>
-      </c>
-      <c r="C101" t="s">
-        <v>320</v>
-      </c>
-      <c r="D101" t="s">
-        <v>236</v>
-      </c>
-      <c r="E101">
-        <v>76</v>
-      </c>
-      <c r="F101" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>234</v>
-      </c>
-      <c r="B102" t="s">
-        <v>235</v>
-      </c>
-      <c r="C102" t="s">
-        <v>321</v>
-      </c>
-      <c r="D102" t="s">
-        <v>236</v>
-      </c>
-      <c r="E102">
-        <v>89</v>
-      </c>
-      <c r="F102" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>234</v>
-      </c>
-      <c r="B103" t="s">
-        <v>235</v>
-      </c>
-      <c r="C103" t="s">
-        <v>322</v>
-      </c>
-      <c r="D103" t="s">
-        <v>236</v>
-      </c>
-      <c r="E103">
-        <v>77</v>
-      </c>
-      <c r="F103" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>234</v>
-      </c>
-      <c r="B104" t="s">
-        <v>235</v>
-      </c>
-      <c r="C104" t="s">
-        <v>323</v>
-      </c>
-      <c r="D104" t="s">
-        <v>236</v>
-      </c>
-      <c r="E104">
-        <v>77</v>
-      </c>
-      <c r="F104" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>234</v>
-      </c>
-      <c r="B105" t="s">
-        <v>235</v>
-      </c>
-      <c r="C105" t="s">
-        <v>324</v>
-      </c>
-      <c r="D105" t="s">
-        <v>236</v>
-      </c>
-      <c r="E105">
-        <v>68</v>
-      </c>
-      <c r="F105" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>234</v>
-      </c>
-      <c r="B106" t="s">
-        <v>235</v>
-      </c>
-      <c r="C106" t="s">
-        <v>325</v>
-      </c>
-      <c r="D106" t="s">
-        <v>236</v>
-      </c>
-      <c r="E106">
-        <v>75</v>
-      </c>
-      <c r="F106" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>234</v>
-      </c>
-      <c r="B107" t="s">
-        <v>235</v>
-      </c>
-      <c r="C107" t="s">
-        <v>326</v>
-      </c>
-      <c r="D107" t="s">
-        <v>236</v>
-      </c>
-      <c r="E107">
-        <v>98</v>
-      </c>
-      <c r="F107" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>234</v>
-      </c>
-      <c r="B108" t="s">
-        <v>235</v>
-      </c>
-      <c r="C108" t="s">
-        <v>327</v>
-      </c>
-      <c r="D108" t="s">
-        <v>236</v>
-      </c>
-      <c r="E108">
-        <v>75</v>
-      </c>
-      <c r="F108" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>234</v>
-      </c>
-      <c r="B109" t="s">
-        <v>235</v>
-      </c>
-      <c r="C109" t="s">
-        <v>328</v>
-      </c>
-      <c r="D109" t="s">
-        <v>236</v>
-      </c>
-      <c r="E109">
-        <v>72</v>
-      </c>
-      <c r="F109" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>234</v>
-      </c>
-      <c r="B110" t="s">
-        <v>235</v>
-      </c>
-      <c r="C110" t="s">
-        <v>329</v>
-      </c>
-      <c r="D110" t="s">
-        <v>236</v>
-      </c>
-      <c r="E110">
-        <v>73</v>
-      </c>
-      <c r="F110" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>234</v>
-      </c>
-      <c r="B111" t="s">
-        <v>235</v>
-      </c>
-      <c r="C111" t="s">
-        <v>330</v>
-      </c>
-      <c r="D111" t="s">
-        <v>236</v>
-      </c>
-      <c r="E111">
-        <v>79</v>
-      </c>
-      <c r="F111" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>234</v>
-      </c>
-      <c r="B112" t="s">
-        <v>235</v>
-      </c>
-      <c r="C112" t="s">
-        <v>331</v>
-      </c>
-      <c r="D112" t="s">
-        <v>236</v>
-      </c>
-      <c r="E112">
-        <v>69</v>
-      </c>
-      <c r="F112" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>234</v>
-      </c>
-      <c r="B113" t="s">
-        <v>235</v>
-      </c>
-      <c r="C113" t="s">
-        <v>332</v>
-      </c>
-      <c r="D113" t="s">
-        <v>236</v>
-      </c>
-      <c r="E113">
-        <v>105</v>
-      </c>
-      <c r="F113" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>234</v>
-      </c>
-      <c r="B114" t="s">
-        <v>235</v>
-      </c>
-      <c r="C114" t="s">
-        <v>333</v>
-      </c>
-      <c r="D114" t="s">
-        <v>236</v>
-      </c>
-      <c r="E114">
-        <v>63</v>
-      </c>
-      <c r="F114" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>234</v>
-      </c>
-      <c r="B115" t="s">
-        <v>235</v>
-      </c>
-      <c r="C115" t="s">
-        <v>334</v>
-      </c>
-      <c r="D115" t="s">
-        <v>236</v>
-      </c>
-      <c r="E115">
-        <v>52</v>
-      </c>
-      <c r="F115" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>234</v>
-      </c>
-      <c r="B116" t="s">
-        <v>235</v>
-      </c>
-      <c r="D116" t="s">
-        <v>236</v>
-      </c>
-      <c r="E116">
-        <v>58</v>
-      </c>
-      <c r="F116" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>234</v>
-      </c>
-      <c r="B117" t="s">
-        <v>235</v>
-      </c>
-      <c r="C117" t="s">
-        <v>335</v>
-      </c>
-      <c r="D117" t="s">
-        <v>236</v>
-      </c>
-      <c r="E117">
-        <v>70</v>
-      </c>
-      <c r="F117" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>234</v>
-      </c>
-      <c r="B118" t="s">
-        <v>235</v>
-      </c>
-      <c r="C118" t="s">
-        <v>336</v>
-      </c>
-      <c r="D118" t="s">
-        <v>236</v>
-      </c>
-      <c r="E118">
-        <v>61</v>
-      </c>
-      <c r="F118" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>234</v>
-      </c>
-      <c r="B119" t="s">
-        <v>235</v>
-      </c>
-      <c r="C119" t="s">
-        <v>337</v>
-      </c>
-      <c r="D119" t="s">
-        <v>236</v>
-      </c>
-      <c r="E119">
-        <v>61</v>
-      </c>
-      <c r="F119" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>234</v>
-      </c>
-      <c r="B120" t="s">
-        <v>235</v>
-      </c>
-      <c r="C120" t="s">
-        <v>338</v>
-      </c>
-      <c r="D120" t="s">
-        <v>236</v>
-      </c>
-      <c r="E120">
-        <v>56</v>
-      </c>
-      <c r="F120" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>234</v>
-      </c>
-      <c r="B121" t="s">
-        <v>235</v>
-      </c>
-      <c r="C121" t="s">
-        <v>340</v>
-      </c>
-      <c r="D121" t="s">
-        <v>236</v>
-      </c>
-      <c r="E121">
-        <v>46</v>
-      </c>
-      <c r="F121" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>234</v>
-      </c>
-      <c r="B122" t="s">
-        <v>235</v>
-      </c>
-      <c r="C122" t="s">
-        <v>339</v>
-      </c>
-      <c r="D122" t="s">
-        <v>236</v>
-      </c>
-      <c r="E122">
-        <v>57</v>
-      </c>
-      <c r="F122" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>234</v>
-      </c>
-      <c r="B123" t="s">
-        <v>235</v>
-      </c>
-      <c r="C123" t="s">
-        <v>341</v>
-      </c>
-      <c r="D123" t="s">
-        <v>236</v>
-      </c>
-      <c r="E123">
-        <v>49</v>
-      </c>
-      <c r="F123" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>234</v>
-      </c>
-      <c r="B124" t="s">
-        <v>235</v>
-      </c>
-      <c r="C124" t="s">
-        <v>342</v>
-      </c>
-      <c r="D124" t="s">
-        <v>236</v>
-      </c>
-      <c r="E124">
-        <v>65</v>
-      </c>
-      <c r="F124" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>234</v>
-      </c>
-      <c r="B125" t="s">
-        <v>235</v>
-      </c>
-      <c r="C125" t="s">
-        <v>343</v>
-      </c>
-      <c r="D125" t="s">
-        <v>236</v>
-      </c>
-      <c r="E125">
-        <v>61</v>
-      </c>
-      <c r="F125" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>234</v>
-      </c>
-      <c r="B126" t="s">
-        <v>235</v>
-      </c>
-      <c r="C126" t="s">
-        <v>344</v>
-      </c>
-      <c r="D126" t="s">
-        <v>236</v>
-      </c>
-      <c r="E126">
-        <v>53</v>
-      </c>
-      <c r="F126" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>234</v>
-      </c>
-      <c r="B127" t="s">
-        <v>235</v>
-      </c>
-      <c r="C127" t="s">
-        <v>345</v>
-      </c>
-      <c r="D127" t="s">
-        <v>236</v>
-      </c>
-      <c r="E127">
-        <v>38</v>
-      </c>
-      <c r="F127" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>234</v>
-      </c>
-      <c r="B128" t="s">
-        <v>235</v>
-      </c>
-      <c r="C128" t="s">
-        <v>346</v>
-      </c>
-      <c r="D128" t="s">
-        <v>236</v>
-      </c>
-      <c r="E128">
-        <v>41</v>
-      </c>
-      <c r="F128" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>234</v>
-      </c>
-      <c r="B129" t="s">
-        <v>235</v>
-      </c>
-      <c r="C129" t="s">
-        <v>347</v>
-      </c>
-      <c r="D129" t="s">
-        <v>236</v>
-      </c>
-      <c r="E129">
-        <v>30</v>
-      </c>
-      <c r="F129" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>234</v>
-      </c>
-      <c r="B130" t="s">
-        <v>235</v>
-      </c>
-      <c r="C130" t="s">
-        <v>348</v>
-      </c>
-      <c r="D130" t="s">
-        <v>236</v>
-      </c>
-      <c r="E130">
-        <v>34</v>
-      </c>
-      <c r="F130" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>234</v>
-      </c>
-      <c r="B131" t="s">
-        <v>235</v>
-      </c>
-      <c r="C131" t="s">
-        <v>349</v>
-      </c>
-      <c r="D131" t="s">
-        <v>236</v>
-      </c>
-      <c r="E131">
-        <v>29</v>
-      </c>
-      <c r="F131" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>234</v>
-      </c>
-      <c r="B132" t="s">
-        <v>235</v>
-      </c>
-      <c r="C132" t="s">
-        <v>350</v>
-      </c>
-      <c r="D132" t="s">
-        <v>236</v>
-      </c>
-      <c r="E132">
-        <v>37</v>
-      </c>
-      <c r="F132" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>234</v>
-      </c>
-      <c r="B133" t="s">
-        <v>235</v>
-      </c>
-      <c r="C133" t="s">
-        <v>351</v>
-      </c>
-      <c r="D133" t="s">
-        <v>236</v>
-      </c>
-      <c r="E133">
-        <v>30</v>
-      </c>
-      <c r="F133" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>234</v>
-      </c>
-      <c r="B134" t="s">
-        <v>235</v>
-      </c>
-      <c r="C134" t="s">
-        <v>352</v>
-      </c>
-      <c r="D134" t="s">
-        <v>236</v>
-      </c>
-      <c r="E134">
-        <v>30</v>
-      </c>
-      <c r="F134" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>234</v>
-      </c>
-      <c r="B135" t="s">
-        <v>235</v>
-      </c>
-      <c r="C135" t="s">
-        <v>353</v>
-      </c>
-      <c r="D135" t="s">
-        <v>236</v>
-      </c>
-      <c r="E135">
-        <v>29</v>
-      </c>
-      <c r="F135" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>234</v>
-      </c>
-      <c r="B136" t="s">
-        <v>235</v>
-      </c>
-      <c r="C136" t="s">
-        <v>354</v>
-      </c>
-      <c r="D136" t="s">
-        <v>236</v>
-      </c>
-      <c r="E136">
-        <v>28</v>
-      </c>
-      <c r="F136" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>234</v>
-      </c>
-      <c r="B137" t="s">
-        <v>235</v>
-      </c>
-      <c r="C137" t="s">
-        <v>355</v>
-      </c>
-      <c r="D137" t="s">
-        <v>236</v>
-      </c>
-      <c r="E137">
-        <v>26</v>
-      </c>
-      <c r="F137" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>234</v>
-      </c>
-      <c r="B138" t="s">
-        <v>235</v>
-      </c>
-      <c r="C138" t="s">
-        <v>356</v>
-      </c>
-      <c r="D138" t="s">
-        <v>236</v>
-      </c>
-      <c r="E138">
-        <v>19</v>
-      </c>
-      <c r="F138" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>234</v>
-      </c>
-      <c r="B139" t="s">
-        <v>235</v>
-      </c>
-      <c r="C139" t="s">
-        <v>357</v>
-      </c>
-      <c r="D139" t="s">
-        <v>236</v>
-      </c>
-      <c r="E139">
-        <v>20</v>
-      </c>
-      <c r="F139" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>234</v>
-      </c>
-      <c r="B140" t="s">
-        <v>235</v>
-      </c>
-      <c r="C140" t="s">
-        <v>358</v>
-      </c>
-      <c r="D140" t="s">
-        <v>236</v>
-      </c>
-      <c r="E140">
-        <v>20</v>
-      </c>
-      <c r="F140" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>234</v>
-      </c>
-      <c r="B141" t="s">
-        <v>235</v>
-      </c>
-      <c r="C141" t="s">
-        <v>359</v>
-      </c>
-      <c r="D141" t="s">
-        <v>236</v>
-      </c>
-      <c r="E141">
-        <v>18</v>
-      </c>
-      <c r="F141" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>234</v>
-      </c>
-      <c r="B142" t="s">
-        <v>235</v>
-      </c>
-      <c r="C142" t="s">
-        <v>360</v>
-      </c>
-      <c r="D142" t="s">
-        <v>236</v>
-      </c>
-      <c r="E142">
-        <v>19</v>
-      </c>
-      <c r="F142" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>234</v>
-      </c>
-      <c r="B143" t="s">
-        <v>235</v>
-      </c>
-      <c r="C143" t="s">
-        <v>361</v>
-      </c>
-      <c r="D143" t="s">
-        <v>236</v>
-      </c>
-      <c r="E143">
-        <v>21</v>
-      </c>
-      <c r="F143" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>234</v>
-      </c>
-      <c r="B144" t="s">
-        <v>235</v>
-      </c>
-      <c r="C144" t="s">
-        <v>362</v>
-      </c>
-      <c r="D144" t="s">
-        <v>236</v>
-      </c>
-      <c r="E144">
-        <v>17</v>
-      </c>
-      <c r="F144" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>234</v>
-      </c>
-      <c r="B145" t="s">
-        <v>235</v>
-      </c>
-      <c r="C145" t="s">
-        <v>363</v>
-      </c>
-      <c r="D145" t="s">
-        <v>236</v>
-      </c>
-      <c r="E145">
-        <v>17</v>
-      </c>
-      <c r="F145" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>234</v>
-      </c>
-      <c r="B146" t="s">
-        <v>235</v>
-      </c>
-      <c r="C146" t="s">
-        <v>364</v>
-      </c>
-      <c r="D146" t="s">
-        <v>236</v>
-      </c>
-      <c r="E146">
-        <v>27</v>
-      </c>
-      <c r="F146" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>234</v>
-      </c>
-      <c r="B147" t="s">
-        <v>235</v>
-      </c>
-      <c r="D147" t="s">
-        <v>236</v>
-      </c>
-      <c r="E147">
-        <v>10</v>
-      </c>
-      <c r="F147" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>234</v>
-      </c>
-      <c r="B148" t="s">
-        <v>235</v>
-      </c>
-      <c r="C148" t="s">
-        <v>365</v>
-      </c>
-      <c r="D148" t="s">
-        <v>236</v>
-      </c>
-      <c r="E148">
-        <v>20</v>
-      </c>
-      <c r="F148" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>234</v>
-      </c>
-      <c r="B149" t="s">
-        <v>235</v>
-      </c>
-      <c r="C149" t="s">
-        <v>359</v>
-      </c>
-      <c r="D149" t="s">
-        <v>236</v>
-      </c>
-      <c r="E149">
-        <v>14</v>
-      </c>
-      <c r="F149" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>234</v>
-      </c>
-      <c r="B150" t="s">
-        <v>235</v>
-      </c>
-      <c r="C150" t="s">
-        <v>366</v>
-      </c>
-      <c r="D150" t="s">
-        <v>236</v>
-      </c>
-      <c r="E150">
-        <v>13</v>
-      </c>
-      <c r="F150" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>234</v>
-      </c>
-      <c r="B151" t="s">
-        <v>235</v>
-      </c>
-      <c r="C151" t="s">
-        <v>367</v>
-      </c>
-      <c r="D151" t="s">
-        <v>236</v>
-      </c>
-      <c r="E151">
-        <v>12</v>
-      </c>
-      <c r="F151" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>234</v>
-      </c>
-      <c r="B152" t="s">
-        <v>235</v>
-      </c>
-      <c r="C152" t="s">
-        <v>368</v>
-      </c>
-      <c r="D152" t="s">
-        <v>236</v>
-      </c>
-      <c r="E152">
-        <v>7</v>
-      </c>
-      <c r="F152" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>234</v>
-      </c>
-      <c r="B153" t="s">
-        <v>235</v>
-      </c>
-      <c r="C153" t="s">
-        <v>369</v>
-      </c>
-      <c r="D153" t="s">
-        <v>236</v>
-      </c>
-      <c r="E153">
-        <v>7</v>
-      </c>
-      <c r="F153" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>234</v>
-      </c>
-      <c r="B154" t="s">
-        <v>235</v>
-      </c>
-      <c r="C154" t="s">
-        <v>370</v>
-      </c>
-      <c r="D154" t="s">
-        <v>236</v>
-      </c>
-      <c r="E154">
-        <v>7</v>
-      </c>
-      <c r="F154" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>234</v>
-      </c>
-      <c r="B155" t="s">
-        <v>235</v>
-      </c>
-      <c r="C155" t="s">
-        <v>371</v>
-      </c>
-      <c r="D155" t="s">
-        <v>236</v>
-      </c>
-      <c r="E155">
-        <v>10</v>
-      </c>
-      <c r="F155" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>234</v>
-      </c>
-      <c r="B156" t="s">
-        <v>235</v>
-      </c>
-      <c r="C156" t="s">
-        <v>372</v>
-      </c>
-      <c r="D156" t="s">
-        <v>236</v>
-      </c>
-      <c r="E156">
-        <v>11</v>
-      </c>
-      <c r="F156" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>234</v>
-      </c>
-      <c r="B157" t="s">
-        <v>235</v>
-      </c>
-      <c r="C157" t="s">
-        <v>373</v>
-      </c>
-      <c r="D157" t="s">
-        <v>236</v>
-      </c>
-      <c r="E157">
-        <v>10</v>
-      </c>
-      <c r="F157" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>234</v>
-      </c>
-      <c r="B158" t="s">
-        <v>235</v>
-      </c>
-      <c r="C158" t="s">
-        <v>374</v>
-      </c>
-      <c r="D158" t="s">
-        <v>236</v>
-      </c>
-      <c r="E158">
-        <v>5</v>
-      </c>
-      <c r="F158" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>234</v>
-      </c>
-      <c r="B159" t="s">
-        <v>235</v>
-      </c>
-      <c r="C159" t="s">
-        <v>375</v>
-      </c>
-      <c r="D159" t="s">
-        <v>236</v>
-      </c>
-      <c r="E159">
-        <v>10</v>
-      </c>
-      <c r="F159" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>234</v>
-      </c>
-      <c r="B160" t="s">
-        <v>235</v>
-      </c>
-      <c r="C160" t="s">
-        <v>376</v>
-      </c>
-      <c r="D160" t="s">
-        <v>236</v>
-      </c>
-      <c r="E160">
-        <v>9</v>
-      </c>
-      <c r="F160" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>234</v>
-      </c>
-      <c r="B161" t="s">
-        <v>235</v>
-      </c>
-      <c r="D161" t="s">
-        <v>236</v>
-      </c>
-      <c r="E161">
-        <v>5</v>
-      </c>
-      <c r="F161" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>234</v>
-      </c>
-      <c r="B162" t="s">
-        <v>235</v>
-      </c>
-      <c r="C162" t="s">
-        <v>377</v>
-      </c>
-      <c r="D162" t="s">
-        <v>236</v>
-      </c>
-      <c r="E162">
-        <v>5</v>
-      </c>
-      <c r="F162" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>234</v>
-      </c>
-      <c r="B163" t="s">
-        <v>235</v>
-      </c>
-      <c r="C163" t="s">
-        <v>378</v>
-      </c>
-      <c r="D163" t="s">
-        <v>236</v>
-      </c>
-      <c r="E163">
-        <v>6</v>
-      </c>
-      <c r="F163" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>234</v>
-      </c>
-      <c r="B164" t="s">
-        <v>235</v>
-      </c>
-      <c r="C164" t="s">
-        <v>379</v>
-      </c>
-      <c r="D164" t="s">
-        <v>236</v>
-      </c>
-      <c r="E164">
-        <v>6</v>
-      </c>
-      <c r="F164" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>234</v>
-      </c>
-      <c r="B165" t="s">
-        <v>235</v>
-      </c>
-      <c r="C165" t="s">
-        <v>380</v>
-      </c>
-      <c r="D165" t="s">
-        <v>236</v>
-      </c>
-      <c r="E165">
-        <v>7</v>
-      </c>
-      <c r="F165" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>234</v>
-      </c>
-      <c r="B166" t="s">
-        <v>235</v>
-      </c>
-      <c r="C166" t="s">
-        <v>381</v>
-      </c>
-      <c r="D166" t="s">
-        <v>236</v>
-      </c>
-      <c r="E166">
-        <v>4</v>
-      </c>
-      <c r="F166" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>234</v>
-      </c>
-      <c r="B167" t="s">
-        <v>235</v>
-      </c>
-      <c r="C167" t="s">
-        <v>382</v>
-      </c>
-      <c r="D167" t="s">
-        <v>236</v>
-      </c>
-      <c r="E167">
-        <v>5</v>
-      </c>
-      <c r="F167" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>234</v>
-      </c>
-      <c r="B168" t="s">
-        <v>235</v>
-      </c>
-      <c r="C168" t="s">
-        <v>383</v>
-      </c>
-      <c r="D168" t="s">
-        <v>236</v>
-      </c>
-      <c r="E168">
-        <v>6</v>
-      </c>
-      <c r="F168" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>234</v>
-      </c>
-      <c r="B169" t="s">
-        <v>235</v>
-      </c>
-      <c r="C169" t="s">
-        <v>384</v>
-      </c>
-      <c r="D169" t="s">
-        <v>236</v>
-      </c>
-      <c r="E169">
-        <v>5</v>
-      </c>
-      <c r="F169" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>234</v>
-      </c>
-      <c r="B170" t="s">
-        <v>235</v>
-      </c>
-      <c r="C170" t="s">
-        <v>385</v>
-      </c>
-      <c r="D170" t="s">
-        <v>236</v>
-      </c>
-      <c r="E170">
-        <v>5</v>
-      </c>
-      <c r="F170" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>234</v>
-      </c>
-      <c r="B171" t="s">
-        <v>235</v>
-      </c>
-      <c r="C171" t="s">
-        <v>386</v>
-      </c>
-      <c r="D171" t="s">
-        <v>236</v>
-      </c>
-      <c r="E171">
-        <v>4</v>
-      </c>
-      <c r="F171" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>234</v>
-      </c>
-      <c r="B172" t="s">
-        <v>235</v>
-      </c>
-      <c r="C172" t="s">
-        <v>387</v>
-      </c>
-      <c r="D172" t="s">
-        <v>236</v>
-      </c>
-      <c r="E172">
-        <v>3</v>
-      </c>
-      <c r="F172" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>234</v>
-      </c>
-      <c r="B173" t="s">
-        <v>235</v>
-      </c>
-      <c r="C173" t="s">
-        <v>388</v>
-      </c>
-      <c r="D173" t="s">
-        <v>236</v>
-      </c>
-      <c r="E173">
-        <v>10</v>
-      </c>
-      <c r="F173" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>234</v>
-      </c>
-      <c r="B174" t="s">
-        <v>235</v>
-      </c>
-      <c r="C174" t="s">
-        <v>389</v>
-      </c>
-      <c r="D174" t="s">
-        <v>236</v>
-      </c>
-      <c r="E174">
-        <v>3</v>
-      </c>
-      <c r="F174" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>234</v>
-      </c>
-      <c r="B175" t="s">
-        <v>235</v>
-      </c>
-      <c r="C175" t="s">
-        <v>390</v>
-      </c>
-      <c r="D175" t="s">
-        <v>236</v>
-      </c>
-      <c r="E175">
-        <v>4</v>
-      </c>
-      <c r="F175" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>234</v>
-      </c>
-      <c r="B176" t="s">
-        <v>235</v>
-      </c>
-      <c r="C176" t="s">
-        <v>391</v>
-      </c>
-      <c r="D176" t="s">
-        <v>236</v>
-      </c>
-      <c r="E176">
-        <v>3</v>
-      </c>
-      <c r="F176" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>234</v>
-      </c>
-      <c r="B177" t="s">
-        <v>235</v>
-      </c>
-      <c r="C177" t="s">
-        <v>392</v>
-      </c>
-      <c r="D177" t="s">
-        <v>236</v>
-      </c>
-      <c r="E177">
-        <v>4</v>
-      </c>
-      <c r="F177" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>234</v>
-      </c>
-      <c r="B178" t="s">
-        <v>235</v>
-      </c>
-      <c r="C178" t="s">
-        <v>393</v>
-      </c>
-      <c r="D178" t="s">
-        <v>236</v>
-      </c>
-      <c r="E178">
-        <v>3</v>
-      </c>
-      <c r="F178" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>234</v>
-      </c>
-      <c r="B179" t="s">
-        <v>235</v>
-      </c>
-      <c r="C179" t="s">
-        <v>394</v>
-      </c>
-      <c r="D179" t="s">
-        <v>236</v>
-      </c>
-      <c r="E179">
-        <v>3</v>
-      </c>
-      <c r="F179" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>234</v>
-      </c>
-      <c r="B180" t="s">
-        <v>235</v>
-      </c>
-      <c r="C180" t="s">
-        <v>395</v>
-      </c>
-      <c r="D180" t="s">
-        <v>236</v>
-      </c>
-      <c r="E180">
-        <v>5</v>
-      </c>
-      <c r="F180" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>234</v>
-      </c>
-      <c r="B181" t="s">
-        <v>235</v>
-      </c>
-      <c r="C181" t="s">
-        <v>396</v>
-      </c>
-      <c r="D181" t="s">
-        <v>236</v>
-      </c>
-      <c r="E181">
-        <v>1</v>
-      </c>
-      <c r="F181" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>234</v>
-      </c>
-      <c r="B182" t="s">
-        <v>235</v>
-      </c>
-      <c r="C182" t="s">
-        <v>397</v>
-      </c>
-      <c r="D182" t="s">
-        <v>236</v>
-      </c>
-      <c r="E182">
-        <v>4</v>
-      </c>
-      <c r="F182" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>234</v>
-      </c>
-      <c r="B183" t="s">
-        <v>235</v>
-      </c>
-      <c r="C183" t="s">
-        <v>398</v>
-      </c>
-      <c r="D183" t="s">
-        <v>236</v>
-      </c>
-      <c r="E183">
-        <v>1</v>
-      </c>
-      <c r="F183" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>234</v>
-      </c>
-      <c r="B184" t="s">
-        <v>235</v>
-      </c>
-      <c r="C184" t="s">
-        <v>400</v>
-      </c>
-      <c r="D184" t="s">
-        <v>236</v>
-      </c>
-      <c r="E184">
-        <v>1</v>
-      </c>
-      <c r="F184" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>234</v>
-      </c>
-      <c r="B185" t="s">
-        <v>235</v>
-      </c>
-      <c r="C185" t="s">
-        <v>399</v>
-      </c>
-      <c r="D185" t="s">
-        <v>236</v>
-      </c>
-      <c r="E185">
-        <v>1</v>
-      </c>
-      <c r="F185" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>234</v>
-      </c>
-      <c r="B186" t="s">
-        <v>235</v>
-      </c>
-      <c r="C186" t="s">
-        <v>401</v>
-      </c>
-      <c r="D186" t="s">
-        <v>236</v>
-      </c>
-      <c r="E186">
-        <v>1</v>
-      </c>
-      <c r="F186" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>234</v>
-      </c>
-      <c r="B187" t="s">
-        <v>235</v>
-      </c>
-      <c r="C187" t="s">
-        <v>402</v>
-      </c>
-      <c r="D187" t="s">
-        <v>236</v>
-      </c>
-      <c r="E187">
-        <v>1</v>
-      </c>
-      <c r="F187" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>234</v>
-      </c>
-      <c r="B188" t="s">
-        <v>235</v>
-      </c>
-      <c r="C188" t="s">
-        <v>403</v>
-      </c>
-      <c r="D188" t="s">
-        <v>236</v>
-      </c>
-      <c r="E188">
-        <v>2</v>
-      </c>
-      <c r="F188" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>234</v>
-      </c>
-      <c r="B189" t="s">
-        <v>235</v>
-      </c>
-      <c r="C189" t="s">
-        <v>404</v>
-      </c>
-      <c r="D189" t="s">
-        <v>236</v>
-      </c>
-      <c r="E189">
-        <v>1</v>
-      </c>
-      <c r="F189" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>234</v>
-      </c>
-      <c r="B190" t="s">
-        <v>235</v>
-      </c>
-      <c r="C190" t="s">
-        <v>405</v>
-      </c>
-      <c r="D190" t="s">
-        <v>236</v>
-      </c>
-      <c r="E190">
-        <v>1</v>
-      </c>
-      <c r="F190" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>234</v>
-      </c>
-      <c r="B191" t="s">
-        <v>235</v>
-      </c>
-      <c r="C191" t="s">
-        <v>406</v>
-      </c>
-      <c r="D191" t="s">
-        <v>236</v>
-      </c>
-      <c r="E191">
-        <v>1</v>
-      </c>
-      <c r="F191" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>234</v>
-      </c>
-      <c r="B192" t="s">
-        <v>235</v>
-      </c>
-      <c r="C192" t="s">
-        <v>407</v>
-      </c>
-      <c r="D192" t="s">
-        <v>236</v>
-      </c>
-      <c r="E192">
-        <v>5</v>
-      </c>
-      <c r="F192" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>234</v>
-      </c>
-      <c r="B193" t="s">
-        <v>235</v>
-      </c>
-      <c r="C193" t="s">
-        <v>408</v>
-      </c>
-      <c r="D193" t="s">
-        <v>236</v>
-      </c>
-      <c r="E193">
-        <v>1</v>
-      </c>
-      <c r="F193" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>234</v>
-      </c>
-      <c r="B194" t="s">
-        <v>235</v>
-      </c>
-      <c r="C194" t="s">
-        <v>409</v>
-      </c>
-      <c r="D194" t="s">
-        <v>236</v>
-      </c>
-      <c r="E194">
-        <v>3</v>
-      </c>
-      <c r="F194" t="s">
-        <v>237</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>
--- a/applets/maps-info/data/data-all-together.xlsx
+++ b/applets/maps-info/data/data-all-together.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcponce/Documents/GitHub/complex-analysis.github.io/applets/maps-info/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F1F39B-50BD-7740-B306-14F5FAF5DF40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD81EDB7-F39C-734E-88E5-066471F41D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1620" windowWidth="28800" windowHeight="13280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1620" windowWidth="28800" windowHeight="13280" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
@@ -1276,10 +1276,10 @@
     <t>Old</t>
   </si>
   <si>
-    <t>Pa√≠s</t>
-  </si>
-  <si>
     <t>G4A 22-23</t>
+  </si>
+  <si>
+    <t>Pais</t>
   </si>
 </sst>
 </file>
@@ -1778,7 +1778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J196"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -8066,8 +8066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F58D68-E831-3741-BC0B-74DEACB0FFF1}">
   <dimension ref="A1:N197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8092,7 +8092,7 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F1" t="s">
         <v>208</v>
@@ -16696,6 +16696,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -16704,7 +16705,7 @@
   <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection sqref="A1:B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16714,7 +16715,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -17626,6 +17627,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -17633,8 +17635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77E7DF6-81F7-BC42-9B3D-4022CB67E0D0}">
   <dimension ref="A1:F194"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F194"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
